--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F14C1C7B-C917-4E9F-9BB5-5E8523634B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592092B-356E-48CB-86A4-588581BE4980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="209">
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>2025-08-28T17:17:59Z</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
   </si>
   <si>
     <t>payment</t>
-  </si>
-  <si>
-    <t>1281</t>
-  </si>
-  <si>
-    <t>20250828171759</t>
   </si>
   <si>
     <t>失敗データ（タイムアウト等)</t>
@@ -96,9 +87,6 @@
     <t>AMEX CARD</t>
   </si>
   <si>
-    <t>2025/08/28 17:13:29</t>
-  </si>
-  <si>
     <t>3080902100007</t>
   </si>
   <si>
@@ -117,12 +105,6 @@
     <t>クレジット</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1C3D87B684F4F6EC188F0E1C28F44AC90891A152CBED16CBB68D42D5F5D36657F4ECCC3D9F7E7C6E38EED0D20DECC55CCB8E9F41DB48BE8AE14338410D83D5D7DB617B7362AD1265BBBA50D851B0A32271ADE60511FD4462C1642B713CED53ECE6E068F9972B90AEA8CCB380605866700535803423C7DB1B7568C1C62C96DE4407A3552585820BB9FF2901C39743E12B50EBF135BAF7CD0620AA868BF88DE342AA1C245EBF759104C6E9687D1255A6E1DF593B65634E284AF198A86F2EE8B6813A44413E0B872FAE2C74911F22228A5177E4EC7696140F9E731D6C2BB6F82980EA4E3C1F54DD367A298DE8522F1F4E879F85C6F5CEF46F31600D88C4F2269C19CACBD0603FC096FC13BC8EB50450CD71389AD0BD27508005C00D535A92B94CA93F686464B71B3B5CA10F5BB3092E63E205BD8C11DF795698A2818B5858BA00711598BA724ECBBFA16F94710BBE1FAC3A51C660E9D145A47705E4ABCAD49FF3E5446EAB56293EFB019F2880ED9B4241500187FC27F2D75BB82F071D04C4C00D2E</t>
-  </si>
-  <si>
     <t>2100</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>051</t>
-  </si>
-  <si>
     <t>FF</t>
   </si>
   <si>
@@ -150,28 +129,10 @@
     <t>33.22932968</t>
   </si>
   <si>
-    <t>3120</t>
-  </si>
-  <si>
-    <t>12913</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"","arc":"1","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
-  </si>
-  <si>
-    <t>2025-08-28T17:13:16Z</t>
-  </si>
-  <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>20250828171316</t>
   </si>
   <si>
     <t>失敗データ（オーソリNG)</t>
@@ -181,40 +142,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>2025/08/28 17:01:03</t>
-  </si>
-  <si>
-    <t>5B343C1ECE7352C3FBDD1B7E407CA7C32ACADC3064D1392E674C46D6140F4E371A85DB7AD31F24422FD2356FF3E99569CAB0372569797ED644669053345CFF021242023FBE8595AB37C5D900FD035DC8BE46C0E6621E4CA09F17EB7DD40A5CF16AF34347663B3DEF68FC6F5D2CFA3107B0339D45FB1B6348FD90AF1C12E2781444B4F4F12C5B88A9C455B694E0DEADF53015512BD68103F208764CB79B5F5220E8AA24095A13342DE56A1CD7245658882DBF4F63BED6EF0B7BB23A4A8819CCF6D1BCDCB133EDCE1CB4F9E7F2B932911452DA734DF552A77600D4651B388DCEB7FE0A0FE5EE1A06C6C83C8812329BC70FE78689BC8AA71E658AC406B6F8B956384BFE6D476BECF47E83BB18AF84FB4001667F0397414CAC7C57BDCAAF53D07EA94CC3ADA9ED3CB48FEF6C91A351B3B85D789BC68AAAF8D2138D40F1F4D533F913B8E72C9FB641FC235EF2F6EF9D7DF6E9ECFE6D1D18E158BFF9DFC9F8C721D37030447FE9E4C4EA4CA6CB9E996C9222EC26EA7DBB33652003008E63221FB8157B</t>
-  </si>
-  <si>
-    <t>3231</t>
-  </si>
-  <si>
-    <t>21284</t>
-  </si>
-  <si>
-    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"6","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
-  </si>
-  <si>
-    <t>2025-08-28T17:00:44Z</t>
-  </si>
-  <si>
     <t>completed</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>20250828170044</t>
   </si>
   <si>
     <t>成功データ</t>
@@ -677,6 +611,76 @@
   </si>
   <si>
     <t>transactions</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"","arc":"01","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>20250829142439</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2025-08-29T14:24:39Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"23","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2025-08-29T14:25:48Z</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20250829142614</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2025-08-29T14:26:14Z</t>
+  </si>
+  <si>
+    <t>2025/08/29 14:24:46</t>
+  </si>
+  <si>
+    <t>7327</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>485CF090F3AF1A1CA91EB5767D2C1FDDD58485900473569B8D8D312BB10189C6B03CB506E16BB3161CF6179D4674EB84088F4B8DDC09B5AE2404B14124B3D270F7B0EEBF094D71587A0A4783F8FBA803A986A7F083FDECA6F9A0538FA8FC86A38EB843CBF4A2E3B86EA41FFAB29CAE579F0F2175C0BF01AF23D596B7D827FA34853C4D767362F0EE365311A4DE2F9587792DD6A331BF249DAC4000293F625C8C4EAA7667AC9106CA3321E1855A85FA6840798CBC4B8C81BCB4FA36A99AFCAF2A164E6EB55ED3AC1955818280B55711801FE73737666F08C4DE83DDD0F24AC83E775B97FA8B5F6F5CF0EA6BF7924E5A2F5F53F97579A179F110BF3A5CCEB1CA843AA0442998699C9286C5EC22673E299ACC007CCCB8AD7C8FB9AC1C3467DB9085CF1DE883BF208D9DA01B98E6C8A3B92F3FADBCE2E6B8476E64DFF26265B4F4C4D691F9080BBFE5EBF7820CC8EC7A808B7D81BD4802886270C4C959B51F35B102ACB6B25C031F734DA1A6BDB936DF7D839B54C4C78317834AB37D5A85B76569CC</t>
+  </si>
+  <si>
+    <t>2025/08/29 14:25:56</t>
+  </si>
+  <si>
+    <t>9749</t>
+  </si>
+  <si>
+    <t>2F2C5C0AA9F7478F4079803FECEFE14404811959F51F93214F97A26BF0CB2F5068B438331A54E6973499F78489309CCE073643238E49F9B0D3662B9C00F018DF443DA103AA0BA820A3A03FB9F1B4CC5F6832B3B2A6279F2E2D4B1FAC386BECB59B358024EE6991B179DCDD3A560D5FEB1B7277D0EBBC70B73BA98ED68B37E162E9B77D3A500E2A78CD2DFDA0AEB5C02F1CB2BFA0F832562EA2225275A75550C09CA7703A475FA1F80F2C744661FD1C07A460FBF3DBB85B85C065A8CBF936195EBE8DCC949CA46BF74CE043E3833925F07872BF7EC48D47FF0B64CB760EE604B2B7FA7B3659AB87A2F4073FE95C3292FED64444E7FCA27CA335B8D5AA6A9B425A3170841971A97103F514E76DD88D72595F07CB127A938CBDC083D0A37705F72288E280E008341E35A9AA7AA12A9A6A401D1FB20CFF78B115EF1F7446B97678440B15AB98DD72FBE6CAD32833F429790BA654AD822CA5F2F4AEC5BE322BFE71115725AFEC02C43E73E6712005F67EED4450A3341EF79D1A6FDD95AF4012F5DCF1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20250829142548</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1044,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EBE5E-74F7-42AB-A478-70FD4BF79FAC}">
   <dimension ref="A2:FX6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -1162,721 +1166,721 @@
   <sheetData>
     <row r="2" spans="1:180">
       <c r="B2" s="4" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:180">
       <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CU3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="DM3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DS3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="DT3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="DV3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="DW3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="DX3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="DY3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="DZ3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="EA3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="EB3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="ED3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="EE3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="EF3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BG3" s="3" t="s">
+      <c r="EG3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="EH3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="EI3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BH3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BY3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="EJ3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="EK3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="EL3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="DA3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="DB3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="DC3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="DM3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="DO3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="DS3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="DT3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="DU3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="DX3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="DY3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DZ3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="EA3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="EB3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="EC3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="ED3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="EE3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="EF3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="EG3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="EH3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="EI3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="EJ3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="EK3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="EL3" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="EM3" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="EN3" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="EO3" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="EP3" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="EQ3" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="ER3" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="ES3" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="ET3" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="EU3" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="EV3" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="EW3" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="EX3" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="EY3" s="3" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="EZ3" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="FA3" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="FB3" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="FC3" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="FD3" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="FE3" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="FF3" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="FG3" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="FH3" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="FI3" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="FJ3" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="FK3" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="FL3" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="FM3" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="FN3" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="FO3" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="FP3" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="FQ3" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="FR3" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="FS3" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="FT3" s="3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="FU3" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="FV3" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="FW3" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="FX3" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:180">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM4" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
@@ -1920,84 +1924,84 @@
       <c r="DB4" s="2"/>
       <c r="DC4" s="2"/>
       <c r="DE4" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="DF4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="DG4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DH4" s="2"/>
       <c r="DI4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DJ4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DK4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DL4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DM4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DN4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DO4" s="2"/>
       <c r="DP4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="DQ4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="DR4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="DS4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="DT4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DU4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="DV4" s="2" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="DX4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="DY4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="DZ4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="EA4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="EB4" s="2"/>
       <c r="EC4" s="2"/>
       <c r="ED4" s="2"/>
       <c r="EE4" s="2" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="EF4" s="2"/>
       <c r="EG4" s="2"/>
       <c r="EH4" s="2"/>
       <c r="EI4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="EJ4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="EK4" s="2"/>
       <c r="EL4" s="2"/>
@@ -2006,69 +2010,69 @@
       <c r="EO4" s="2"/>
       <c r="EP4" s="2"/>
       <c r="EQ4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="ER4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="ET4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EU4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EV4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EW4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EX4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EY4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EZ4" s="2"/>
       <c r="FA4" s="2"/>
       <c r="FB4" s="2"/>
       <c r="FC4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="FD4" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="FE4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="FF4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="FG4" s="2" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="FH4" s="2"/>
       <c r="FI4" s="2"/>
       <c r="FJ4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="FK4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="FL4" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="FM4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="FN4" s="2" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="FO4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FP4" s="2"/>
       <c r="FQ4" s="2"/>
@@ -2082,169 +2086,177 @@
     </row>
     <row r="5" spans="1:180">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="AH5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
@@ -2288,82 +2300,82 @@
       <c r="DB5" s="2"/>
       <c r="DC5" s="2"/>
       <c r="DE5" s="2" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="DF5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="DG5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DH5" s="2"/>
       <c r="DI5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DJ5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DK5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DL5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="DM5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DN5" s="2"/>
       <c r="DO5" s="2"/>
       <c r="DP5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DQ5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DR5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DS5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DT5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DU5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DV5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="DQ5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DR5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DS5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="DT5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DU5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DV5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="DW5" s="2" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="DX5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="DY5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="DZ5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="EA5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="EB5" s="2"/>
       <c r="EC5" s="2"/>
       <c r="ED5" s="2"/>
       <c r="EE5" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="EF5" s="2"/>
       <c r="EG5" s="2"/>
       <c r="EH5" s="2"/>
       <c r="EI5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="EJ5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="EK5" s="2"/>
       <c r="EL5" s="2"/>
@@ -2371,54 +2383,66 @@
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
       <c r="EP5" s="2"/>
-      <c r="EQ5" s="2"/>
-      <c r="ER5" s="2"/>
-      <c r="ES5" s="2"/>
-      <c r="ET5" s="2"/>
+      <c r="EQ5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ER5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ES5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="EU5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EV5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EW5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EX5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EY5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="EZ5" s="2"/>
       <c r="FA5" s="2"/>
       <c r="FB5" s="2"/>
       <c r="FC5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="FD5" s="2" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="FE5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="FF5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="FG5" s="2" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="FH5" s="2"/>
       <c r="FI5" s="2"/>
-      <c r="FJ5" s="2"/>
+      <c r="FJ5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="FK5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="FL5" s="2"/>
-      <c r="FM5" s="2"/>
+      <c r="FM5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="FN5" s="2"/>
       <c r="FO5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FP5" s="2"/>
       <c r="FQ5" s="2"/>
@@ -2432,25 +2456,25 @@
     </row>
     <row r="6" spans="1:180">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>0</v>

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3592092B-356E-48CB-86A4-588581BE4980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA42E2E-99A7-4C0F-926F-AAEEB5C92623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="268">
   <si>
     <t>credit</t>
   </si>
@@ -682,6 +682,237 @@
   <si>
     <t>20250829142548</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911-02</t>
+  </si>
+  <si>
+    <t>2025-09-11T09:55:39Z</t>
+  </si>
+  <si>
+    <t>quicpay</t>
+  </si>
+  <si>
+    <t>{"card_no":"01003543293999641***"}</t>
+  </si>
+  <si>
+    <t>QuicPay</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911095539</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>H120000000000068</t>
+  </si>
+  <si>
+    <t>QUICPay</t>
+  </si>
+  <si>
+    <t>2025/09/11 09:55:45</t>
+  </si>
+  <si>
+    <t>911095501</t>
+  </si>
+  <si>
+    <t>D22378C9C6527B341881C8BFDA891A27817FEAF90A6ECFDF740B94B53DCFD01B</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>33.22926507</t>
+  </si>
+  <si>
+    <t>131.60267432</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>9999901200068</t>
+  </si>
+  <si>
+    <t>23D37523A879126CFDA52509AF36859EEA5B9E212B6632F0C72CD2B77E959365</t>
+  </si>
+  <si>
+    <t>失敗データ（別カードかざし)</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911-03</t>
+  </si>
+  <si>
+    <t>2025-09-11T10:01:21Z</t>
+  </si>
+  <si>
+    <t>20250911100121</t>
+  </si>
+  <si>
+    <t>20250911-07</t>
+  </si>
+  <si>
+    <t>2025-09-11T10:21:21Z</t>
+  </si>
+  <si>
+    <t>20250911102121</t>
+  </si>
+  <si>
+    <t>失敗データ（停止ボタン)</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911113112</t>
+  </si>
+  <si>
+    <t>20250911-15</t>
+  </si>
+  <si>
+    <t>2025-09-11T11:31:12Z</t>
+  </si>
+  <si>
+    <t>取消成功データ</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911-22</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>2025-09-11T13:59:39Z</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2025/09/11 13:59:58</t>
+  </si>
+  <si>
+    <t>2025/09/11 11:43:02</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>911135901</t>
+  </si>
+  <si>
+    <t>911114201</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20250911135939</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911143951</t>
+  </si>
+  <si>
+    <t>20250911-27</t>
+  </si>
+  <si>
+    <t>2025-09-11T14:39:51Z</t>
+  </si>
+  <si>
+    <t>取消失敗データ（別カードかざし）</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消失敗データ（タイムアウト等）</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレジット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911144835</t>
+  </si>
+  <si>
+    <t>20250911-28</t>
+  </si>
+  <si>
+    <t>2025-09-11T14:48:35Z</t>
+  </si>
+  <si>
+    <t>取消失敗データ（停止ボタン）</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911145053</t>
+  </si>
+  <si>
+    <t>20250911-29</t>
+  </si>
+  <si>
+    <t>2025-09-11T14:50:53Z</t>
   </si>
 </sst>
 </file>
@@ -1046,725 +1277,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EBE5E-74F7-42AB-A478-70FD4BF79FAC}">
-  <dimension ref="A2:FX6"/>
+  <dimension ref="A2:FY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="197" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1"/>
-    <col min="12" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" style="1"/>
-    <col min="27" max="27" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="255.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="20.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="33.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="27.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="25.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="22.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="19.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="109" width="8.6640625" style="1"/>
-    <col min="110" max="110" width="13.58203125" style="1" customWidth="1"/>
-    <col min="111" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="197" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" style="1"/>
+    <col min="13" max="13" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.19921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.69921875" style="1"/>
+    <col min="28" max="28" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="255.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="33.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="27.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="25.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="34.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="110" width="8.69921875" style="1"/>
+    <col min="111" max="111" width="13.59765625" style="1" customWidth="1"/>
+    <col min="112" max="125" width="8.69921875" style="1"/>
+    <col min="126" max="126" width="19.5" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:180">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:181">
+      <c r="C2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:180">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:181">
+      <c r="A3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BO3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BV3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CB3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CC3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="CL3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="CM3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="CN3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CO3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CP3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="CR3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="CS3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="CT3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CU3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="CY3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="DA3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DB3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DD3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DE3" s="3" t="s">
+      <c r="DF3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DG3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="DH3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DI3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DI3" s="3" t="s">
+      <c r="DJ3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DJ3" s="3" t="s">
+      <c r="DK3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="DK3" s="3" t="s">
+      <c r="DL3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="DL3" s="3" t="s">
+      <c r="DM3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="DN3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DO3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="DO3" s="3" t="s">
+      <c r="DP3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="DP3" s="3" t="s">
+      <c r="DQ3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="DQ3" s="3" t="s">
+      <c r="DR3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="DR3" s="3" t="s">
+      <c r="DS3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="DT3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="DU3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="DU3" s="3" t="s">
+      <c r="DV3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="DV3" s="3" t="s">
+      <c r="DW3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="DW3" s="3" t="s">
+      <c r="DX3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="DX3" s="3" t="s">
+      <c r="DY3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="DY3" s="3" t="s">
+      <c r="DZ3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="EA3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="EA3" s="3" t="s">
+      <c r="EB3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EB3" s="3" t="s">
+      <c r="EC3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="EC3" s="3" t="s">
+      <c r="ED3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="ED3" s="3" t="s">
+      <c r="EE3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="EE3" s="3" t="s">
+      <c r="EF3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="EG3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="EG3" s="3" t="s">
+      <c r="EH3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="EH3" s="3" t="s">
+      <c r="EI3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="EI3" s="3" t="s">
+      <c r="EJ3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="EJ3" s="3" t="s">
+      <c r="EK3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="EK3" s="3" t="s">
+      <c r="EL3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="EL3" s="3" t="s">
+      <c r="EM3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="EM3" s="3" t="s">
+      <c r="EN3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="EN3" s="3" t="s">
+      <c r="EO3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="EO3" s="3" t="s">
+      <c r="EP3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="EP3" s="3" t="s">
+      <c r="EQ3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="EQ3" s="3" t="s">
+      <c r="ER3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="ER3" s="3" t="s">
+      <c r="ES3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="ES3" s="3" t="s">
+      <c r="ET3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="ET3" s="3" t="s">
+      <c r="EU3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="EU3" s="3" t="s">
+      <c r="EV3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="EV3" s="3" t="s">
+      <c r="EW3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="EW3" s="3" t="s">
+      <c r="EX3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="EX3" s="3" t="s">
+      <c r="EY3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="EY3" s="3" t="s">
+      <c r="EZ3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="EZ3" s="3" t="s">
+      <c r="FA3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="FA3" s="3" t="s">
+      <c r="FB3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="FB3" s="3" t="s">
+      <c r="FC3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="FC3" s="3" t="s">
+      <c r="FD3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="FD3" s="3" t="s">
+      <c r="FE3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="FE3" s="3" t="s">
+      <c r="FF3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="FF3" s="3" t="s">
+      <c r="FG3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="FG3" s="3" t="s">
+      <c r="FH3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="FH3" s="3" t="s">
+      <c r="FI3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="FI3" s="3" t="s">
+      <c r="FJ3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="FJ3" s="3" t="s">
+      <c r="FK3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="FK3" s="3" t="s">
+      <c r="FL3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="FL3" s="3" t="s">
+      <c r="FM3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="FM3" s="3" t="s">
+      <c r="FN3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="FN3" s="3" t="s">
+      <c r="FO3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="FO3" s="3" t="s">
+      <c r="FP3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="FP3" s="3" t="s">
+      <c r="FQ3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="FQ3" s="3" t="s">
+      <c r="FR3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FR3" s="3" t="s">
+      <c r="FS3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="FS3" s="3" t="s">
+      <c r="FT3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="FT3" s="3" t="s">
+      <c r="FU3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="FU3" s="3" t="s">
+      <c r="FV3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="FV3" s="3" t="s">
+      <c r="FW3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="FW3" s="3" t="s">
+      <c r="FX3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="FX3" s="3" t="s">
+      <c r="FY3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:180">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:181">
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1772,31 +2006,31 @@
         <v>5</v>
       </c>
       <c r="X4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>5</v>
@@ -1810,79 +2044,81 @@
       <c r="AL4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AM4" s="2"/>
+      <c r="AM4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="AN4" s="2"/>
-      <c r="AO4" s="2" t="s">
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AP4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="AQ4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AU4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="2"/>
+      <c r="AV4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BA4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="BB4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="BC4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BD4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="BE4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="BF4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BI4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BI4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="BJ4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BK4" s="2" t="s">
+      <c r="BL4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BL4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="BM4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BN4" s="2" t="s">
+      <c r="BO4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
       <c r="BR4" s="2"/>
@@ -1923,19 +2159,17 @@
       <c r="DA4" s="2"/>
       <c r="DB4" s="2"/>
       <c r="DC4" s="2"/>
-      <c r="DE4" s="2" t="s">
+      <c r="DD4" s="2"/>
+      <c r="DF4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="DF4" s="2" t="s">
+      <c r="DG4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="DG4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DH4" s="2"/>
-      <c r="DI4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="DH4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI4" s="2"/>
       <c r="DJ4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,83 +2180,83 @@
         <v>5</v>
       </c>
       <c r="DM4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DN4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="DO4" s="2"/>
-      <c r="DP4" s="2" t="s">
+      <c r="DO4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="DQ4" s="2" t="s">
+      <c r="DR4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="DR4" s="2" t="s">
+      <c r="DS4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="DS4" s="2" t="s">
+      <c r="DT4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="DT4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="DU4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="DV4" s="2" t="s">
+      <c r="DW4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="DW4" s="2" t="s">
+      <c r="DX4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="DX4" s="2" t="s">
+      <c r="DY4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="DY4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="DZ4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="EA4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="EB4" s="2"/>
       <c r="EC4" s="2"/>
       <c r="ED4" s="2"/>
-      <c r="EE4" s="2" t="s">
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="EF4" s="2"/>
       <c r="EG4" s="2"/>
       <c r="EH4" s="2"/>
-      <c r="EI4" s="2" t="s">
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="EJ4" s="2" t="s">
+      <c r="EK4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="EK4" s="2"/>
       <c r="EL4" s="2"/>
       <c r="EM4" s="2"/>
       <c r="EN4" s="2"/>
       <c r="EO4" s="2"/>
       <c r="EP4" s="2"/>
-      <c r="EQ4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="EQ4" s="2"/>
       <c r="ER4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="ES4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="ET4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="EU4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EV4" s="2" t="s">
         <v>5</v>
@@ -2036,45 +2270,47 @@
       <c r="EY4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EZ4" s="2"/>
+      <c r="EZ4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="FA4" s="2"/>
       <c r="FB4" s="2"/>
-      <c r="FC4" s="2" t="s">
+      <c r="FC4" s="2"/>
+      <c r="FD4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="FD4" s="2" t="s">
+      <c r="FE4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="FE4" s="2" t="s">
+      <c r="FF4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="FF4" s="2" t="s">
+      <c r="FG4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="FG4" s="2" t="s">
+      <c r="FH4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FH4" s="2"/>
       <c r="FI4" s="2"/>
-      <c r="FJ4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="FJ4" s="2"/>
       <c r="FK4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="FL4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="FM4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="FN4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="FO4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FP4" s="2"/>
+      <c r="FP4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="FQ4" s="2"/>
       <c r="FR4" s="2"/>
       <c r="FS4" s="2"/>
@@ -2083,96 +2319,94 @@
       <c r="FV4" s="2"/>
       <c r="FW4" s="2"/>
       <c r="FX4" s="2"/>
+      <c r="FY4" s="2"/>
     </row>
-    <row r="5" spans="1:180">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:181">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="P5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>5</v>
@@ -2186,79 +2420,81 @@
       <c r="AL5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AM5" s="2"/>
+      <c r="AM5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="2" t="s">
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AP5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="AQ5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AT5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AU5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AU5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="2"/>
+      <c r="AV5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BA5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="BB5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="BC5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BD5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="BE5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="BF5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BG5" s="2" t="s">
+      <c r="BH5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BH5" s="2" t="s">
+      <c r="BI5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BI5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="BJ5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BK5" s="2" t="s">
+      <c r="BL5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BL5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="BM5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="2" t="s">
+      <c r="BO5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
       <c r="BQ5" s="2"/>
       <c r="BR5" s="2"/>
@@ -2299,104 +2535,102 @@
       <c r="DA5" s="2"/>
       <c r="DB5" s="2"/>
       <c r="DC5" s="2"/>
-      <c r="DE5" s="2" t="s">
+      <c r="DD5" s="2"/>
+      <c r="DF5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="DF5" s="2" t="s">
+      <c r="DG5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="DG5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DH5" s="2"/>
-      <c r="DI5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="DH5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI5" s="2"/>
       <c r="DJ5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="DK5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DL5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="DM5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DN5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="DN5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="DO5" s="2"/>
-      <c r="DP5" s="2" t="s">
+      <c r="DP5" s="2"/>
+      <c r="DQ5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="DQ5" s="2" t="s">
+      <c r="DR5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="DR5" s="2" t="s">
+      <c r="DS5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="DS5" s="2" t="s">
+      <c r="DT5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="DT5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="DU5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="DV5" s="2" t="s">
+      <c r="DW5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="DW5" s="2" t="s">
+      <c r="DX5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="DX5" s="2" t="s">
+      <c r="DY5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="DY5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="DZ5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="EA5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="EB5" s="2"/>
       <c r="EC5" s="2"/>
       <c r="ED5" s="2"/>
-      <c r="EE5" s="2" t="s">
+      <c r="EE5" s="2"/>
+      <c r="EF5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="EF5" s="2"/>
       <c r="EG5" s="2"/>
       <c r="EH5" s="2"/>
-      <c r="EI5" s="2" t="s">
+      <c r="EI5" s="2"/>
+      <c r="EJ5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="EJ5" s="2" t="s">
+      <c r="EK5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="EK5" s="2"/>
       <c r="EL5" s="2"/>
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
       <c r="EP5" s="2"/>
-      <c r="EQ5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="EQ5" s="2"/>
       <c r="ER5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="ES5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="ET5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="EU5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EV5" s="2" t="s">
         <v>5</v>
@@ -2410,41 +2644,43 @@
       <c r="EY5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EZ5" s="2"/>
+      <c r="EZ5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="FA5" s="2"/>
       <c r="FB5" s="2"/>
-      <c r="FC5" s="2" t="s">
+      <c r="FC5" s="2"/>
+      <c r="FD5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="FD5" s="2" t="s">
+      <c r="FE5" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="FE5" s="2" t="s">
+      <c r="FF5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="FF5" s="2" t="s">
+      <c r="FG5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="FG5" s="2" t="s">
+      <c r="FH5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="FH5" s="2"/>
       <c r="FI5" s="2"/>
-      <c r="FJ5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="FJ5" s="2"/>
       <c r="FK5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="FL5" s="2"/>
-      <c r="FM5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FN5" s="2"/>
-      <c r="FO5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FP5" s="2"/>
+      <c r="FL5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM5" s="2"/>
+      <c r="FN5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO5" s="2"/>
+      <c r="FP5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="FQ5" s="2"/>
       <c r="FR5" s="2"/>
       <c r="FS5" s="2"/>
@@ -2453,34 +2689,894 @@
       <c r="FV5" s="2"/>
       <c r="FW5" s="2"/>
       <c r="FX5" s="2"/>
+      <c r="FY5" s="2"/>
     </row>
-    <row r="6" spans="1:180">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:181">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="8" spans="1:181">
+      <c r="A8" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:181">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="CZ9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DF9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="DH9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI9" s="2"/>
+      <c r="DJ9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="DQ9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="DX9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="DY9" s="2"/>
+      <c r="DZ9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="EA9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="EB9" s="2"/>
+      <c r="EC9" s="2"/>
+      <c r="ED9" s="2"/>
+      <c r="EE9" s="2"/>
+      <c r="EF9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="EG9" s="2"/>
+      <c r="EH9" s="2"/>
+      <c r="EI9" s="2"/>
+      <c r="EJ9" s="2"/>
+      <c r="EK9" s="2"/>
+      <c r="EL9" s="2"/>
+      <c r="EM9" s="2"/>
+      <c r="EN9" s="2"/>
+      <c r="EO9" s="2"/>
+      <c r="EP9" s="2"/>
+      <c r="EQ9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="ER9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA9" s="2"/>
+      <c r="FB9" s="2"/>
+      <c r="FC9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="FD9" s="2"/>
+      <c r="FE9" s="2"/>
+      <c r="FF9" s="2"/>
+      <c r="FG9" s="2"/>
+      <c r="FH9" s="2"/>
+      <c r="FI9" s="2"/>
+      <c r="FJ9" s="2"/>
+      <c r="FK9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM9" s="2"/>
+      <c r="FN9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO9" s="2"/>
+      <c r="FP9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ9" s="2"/>
+      <c r="FR9" s="2"/>
+      <c r="FS9" s="2"/>
+      <c r="FT9" s="2"/>
+      <c r="FU9" s="2"/>
+      <c r="FV9" s="2"/>
+      <c r="FW9" s="2"/>
+      <c r="FX9" s="2"/>
+      <c r="FY9" s="2"/>
+    </row>
+    <row r="10" spans="1:181">
+      <c r="B10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:181">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:181">
+      <c r="B12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="14" spans="1:181">
+      <c r="B14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+      <c r="BV14" s="2"/>
+      <c r="BW14" s="2"/>
+      <c r="BX14" s="2"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="2"/>
+      <c r="CA14" s="2"/>
+      <c r="CB14" s="2"/>
+      <c r="CC14" s="2"/>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+      <c r="CF14" s="2"/>
+      <c r="CG14" s="2"/>
+      <c r="CH14" s="2"/>
+      <c r="CI14" s="2"/>
+      <c r="CJ14" s="2"/>
+      <c r="CK14" s="2"/>
+      <c r="CL14" s="2"/>
+      <c r="CM14" s="2"/>
+      <c r="CN14" s="2"/>
+      <c r="CO14" s="2"/>
+      <c r="CP14" s="2"/>
+      <c r="CQ14" s="2"/>
+      <c r="CR14" s="2"/>
+      <c r="CS14" s="2"/>
+      <c r="CT14" s="2"/>
+      <c r="CU14" s="2"/>
+      <c r="CV14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CW14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="CX14" s="2"/>
+      <c r="CY14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="CZ14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DA14" s="2"/>
+      <c r="DB14" s="2"/>
+      <c r="DC14" s="2"/>
+      <c r="DD14" s="2"/>
+      <c r="DF14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="DG14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="DH14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI14" s="2"/>
+      <c r="DJ14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO14" s="2"/>
+      <c r="DP14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="DQ14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="DX14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DY14" s="2"/>
+      <c r="DZ14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="EA14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="EB14" s="2"/>
+      <c r="EC14" s="2"/>
+      <c r="ED14" s="2"/>
+      <c r="EE14" s="2"/>
+      <c r="EF14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="EG14" s="2"/>
+      <c r="EH14" s="2"/>
+      <c r="EI14" s="2"/>
+      <c r="EJ14" s="2"/>
+      <c r="EK14" s="2"/>
+      <c r="EL14" s="2"/>
+      <c r="EM14" s="2"/>
+      <c r="EN14" s="2"/>
+      <c r="EO14" s="2"/>
+      <c r="EP14" s="2"/>
+      <c r="EQ14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="ER14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA14" s="2"/>
+      <c r="FB14" s="2"/>
+      <c r="FC14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="FD14" s="2"/>
+      <c r="FE14" s="2"/>
+      <c r="FF14" s="2"/>
+      <c r="FG14" s="2"/>
+      <c r="FH14" s="2"/>
+      <c r="FI14" s="2"/>
+      <c r="FJ14" s="2"/>
+      <c r="FK14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM14" s="2"/>
+      <c r="FN14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO14" s="2"/>
+      <c r="FP14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ14" s="2"/>
+      <c r="FR14" s="2"/>
+      <c r="FS14" s="2"/>
+      <c r="FT14" s="2"/>
+      <c r="FU14" s="2"/>
+      <c r="FV14" s="2"/>
+      <c r="FW14" s="2"/>
+      <c r="FX14" s="2"/>
+      <c r="FY14" s="2"/>
+    </row>
+    <row r="15" spans="1:181">
+      <c r="B15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:181">
+      <c r="B16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA42E2E-99A7-4C0F-926F-AAEEB5C92623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E03322-9778-4487-819A-9C23F5BCFF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="311">
   <si>
     <t>credit</t>
   </si>
@@ -623,18 +623,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>20250829142439</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2025-08-29T14:24:39Z</t>
-  </si>
-  <si>
-    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"23","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -656,18 +644,9 @@
     <t>2025-08-29T14:26:14Z</t>
   </si>
   <si>
-    <t>2025/08/29 14:24:46</t>
-  </si>
-  <si>
-    <t>7327</t>
-  </si>
-  <si>
     <t>052</t>
   </si>
   <si>
-    <t>485CF090F3AF1A1CA91EB5767D2C1FDDD58485900473569B8D8D312BB10189C6B03CB506E16BB3161CF6179D4674EB84088F4B8DDC09B5AE2404B14124B3D270F7B0EEBF094D71587A0A4783F8FBA803A986A7F083FDECA6F9A0538FA8FC86A38EB843CBF4A2E3B86EA41FFAB29CAE579F0F2175C0BF01AF23D596B7D827FA34853C4D767362F0EE365311A4DE2F9587792DD6A331BF249DAC4000293F625C8C4EAA7667AC9106CA3321E1855A85FA6840798CBC4B8C81BCB4FA36A99AFCAF2A164E6EB55ED3AC1955818280B55711801FE73737666F08C4DE83DDD0F24AC83E775B97FA8B5F6F5CF0EA6BF7924E5A2F5F53F97579A179F110BF3A5CCEB1CA843AA0442998699C9286C5EC22673E299ACC007CCCB8AD7C8FB9AC1C3467DB9085CF1DE883BF208D9DA01B98E6C8A3B92F3FADBCE2E6B8476E64DFF26265B4F4C4D691F9080BBFE5EBF7820CC8EC7A808B7D81BD4802886270C4C959B51F35B102ACB6B25C031F734DA1A6BDB936DF7D839B54C4C78317834AB37D5A85B76569CC</t>
-  </si>
-  <si>
     <t>2025/08/29 14:25:56</t>
   </si>
   <si>
@@ -675,9 +654,6 @@
   </si>
   <si>
     <t>2F2C5C0AA9F7478F4079803FECEFE14404811959F51F93214F97A26BF0CB2F5068B438331A54E6973499F78489309CCE073643238E49F9B0D3662B9C00F018DF443DA103AA0BA820A3A03FB9F1B4CC5F6832B3B2A6279F2E2D4B1FAC386BECB59B358024EE6991B179DCDD3A560D5FEB1B7277D0EBBC70B73BA98ED68B37E162E9B77D3A500E2A78CD2DFDA0AEB5C02F1CB2BFA0F832562EA2225275A75550C09CA7703A475FA1F80F2C744661FD1C07A460FBF3DBB85B85C065A8CBF936195EBE8DCC949CA46BF74CE043E3833925F07872BF7EC48D47FF0B64CB760EE604B2B7FA7B3659AB87A2F4073FE95C3292FED64444E7FCA27CA335B8D5AA6A9B425A3170841971A97103F514E76DD88D72595F07CB127A938CBDC083D0A37705F72288E280E008341E35A9AA7AA12A9A6A401D1FB20CFF78B115EF1F7446B97678440B15AB98DD72FBE6CAD32833F429790BA654AD822CA5F2F4AEC5BE322BFE71115725AFEC02C43E73E6712005F67EED4450A3341EF79D1A6FDD95AF4012F5DCF1</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>20250829142548</t>
@@ -913,6 +889,179 @@
   </si>
   <si>
     <t>2025-09-11T14:50:53Z</t>
+  </si>
+  <si>
+    <t>20250911153238</t>
+  </si>
+  <si>
+    <t>20250911-30</t>
+  </si>
+  <si>
+    <t>2025-09-11T15:32:38Z</t>
+  </si>
+  <si>
+    <t>suica</t>
+  </si>
+  <si>
+    <t>SUICA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911161010</t>
+  </si>
+  <si>
+    <t>20250911-32</t>
+  </si>
+  <si>
+    <t>2025-09-11T16:10:10Z</t>
+  </si>
+  <si>
+    <t>edy</t>
+  </si>
+  <si>
+    <t>失敗データ（不正カード）</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911163038</t>
+  </si>
+  <si>
+    <t>20250911-33</t>
+  </si>
+  <si>
+    <t>2025-09-11T16:30:38Z</t>
+  </si>
+  <si>
+    <t>nanaco</t>
+  </si>
+  <si>
+    <t>nanaco</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911-34</t>
+  </si>
+  <si>
+    <t>2025-09-11T16:38:44Z</t>
+  </si>
+  <si>
+    <t>20250911163844</t>
+  </si>
+  <si>
+    <t>waon</t>
+  </si>
+  <si>
+    <t>waon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911164736</t>
+  </si>
+  <si>
+    <t>20250911-35</t>
+  </si>
+  <si>
+    <t>2025-09-11T16:47:36Z</t>
+  </si>
+  <si>
+    <t>20250911174154</t>
+  </si>
+  <si>
+    <t>20250911-41</t>
+  </si>
+  <si>
+    <t>2025-09-11T17:41:54Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"86","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2025/09/11 17:42:26</t>
+  </si>
+  <si>
+    <t>35416</t>
+  </si>
+  <si>
+    <t>89380EC74B01C2CC8F039E3A9DEC85C35D7A4D8EE812EAF03AD97E8ED49787B36D6A9DD6CD4E529CFEEEAB6BA2C98B6FB0E85672393655110E526E9EE80BE2FD916605F4346C30B4627C0FC97B7EA4BA4BEC2AECB774007FB4D0A9E9C2B72924069564A3ABD3F451B3A368B2DA6F56537D488D1BD1C6F73A7F89296CC97415507E344087D95F07FA72A354380E3158027441F1A197BF3E21D462E73B3CA018285B7C0E9661A8B07A6E0D263A6A9450F747CEAC7D35183ADB45D02659A295081D298BFDE5C0EB64DE5BCAF1ACCF327DE4BEDA9543A0EA8CDA1B880E8266E59C4B1C8DE6F0F61E435BBB94F60DC1A65DBAE5C68C9DF116821C30901699A8200E53846200EF21543111563EBF00126C8FDAAACCD162037CF8879E3D9D0EB915A9E0CA6AE2A07C2D529B56E9732AD9F6C2CABB6755B47FB818C988AD30D81B8040F6C198068404FC8FC97C0337ECDD7D1447E9441CB01C9E71B5906E8437D1A5AFE06C66554CC164ADB494A828D4507B9CF689DA3B9FC3A67B6A6586437289D41E9B</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>20250911-42</t>
+  </si>
+  <si>
+    <t>2025-09-11T17:45:03Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"87","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>20250911174503</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0DD134DAD9CD5230FB92A3B191CBE4A30EC0212431C842C65505E8063858A0E4493B5A1C072B1F6DDFFB7429EF9369BCA145FD7D5CAD54DEAE00A6ED902BE48FA3C206FFC002F16AB3135F9A2A96FB14EB2432E3356A9F9F02C9E5279FEC90DAFE3D50EADF1E377B5993A7CE950BDB38142D9107128EA6AAD200C0953E78800159E49330C6C172D8671D29018AF9F1F0F660596F59712AB4E7DBE42610AB4D127A5C1B51C922E8A5C94FD81214BEE4C44CF3727A078E89951197FEC2E49AB8A82BEFD288CD555E37EB78B140B62658E1A61915F637A3A77077F0003CB0A39E42F02642AAF4ABDCEA407E809F9D2265E6C807581AB4A59DB41074AFDAD305E751D2CED8AFFDEF8CBB772B4CE8B4D6836CAF6A27FE4A4E22BFBDEBE5AFB0F02BD132F488AF003F6707604BE3781224059F891A8F197207031E93152CE16689370CC5CAB7BDD2A9C886F07EAEDB05443F9C0369E9EC91482320EACEC66DBAC61BEDFAEE361AD03CB6A529A3E6227F4892099545EC03A458CDBDCF93D066B7E12324</t>
+  </si>
+  <si>
+    <t>2025/09/11 17:45:10</t>
+  </si>
+  <si>
+    <t>8868</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>取消失敗データ（オーソリNG)</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250911180546</t>
+  </si>
+  <si>
+    <t>20250911-45</t>
+  </si>
+  <si>
+    <t>2025-09-11T18:05:46Z</t>
+  </si>
+  <si>
+    <t>20250911181025</t>
+  </si>
+  <si>
+    <t>20250911-47</t>
+  </si>
+  <si>
+    <t>2025-09-11T18:10:25Z</t>
   </si>
 </sst>
 </file>
@@ -950,7 +1099,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,6 +1109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,12 +1146,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1277,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EBE5E-74F7-42AB-A478-70FD4BF79FAC}">
-  <dimension ref="A2:FY17"/>
+  <dimension ref="A2:FY76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1411,7 +1568,7 @@
     </row>
     <row r="3" spans="1:181">
       <c r="A3" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>106</v>
@@ -1950,10 +2107,10 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -1965,19 +2122,19 @@
         <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>5</v>
@@ -1996,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
@@ -2009,7 +2166,7 @@
         <v>5</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -2050,22 +2207,22 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="AQ4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="AV4" s="2" t="s">
         <v>2</v>
@@ -2099,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="BJ4" s="2" t="s">
         <v>2</v>
@@ -2117,7 +2274,7 @@
         <v>20</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
@@ -2161,7 +2318,7 @@
       <c r="DC4" s="2"/>
       <c r="DD4" s="2"/>
       <c r="DF4" s="2" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="DG4" s="2" t="s">
         <v>19</v>
@@ -2208,10 +2365,10 @@
         <v>14</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="DX4" s="2" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="DY4" s="2" t="s">
         <v>13</v>
@@ -2229,7 +2386,7 @@
       <c r="ED4" s="2"/>
       <c r="EE4" s="2"/>
       <c r="EF4" s="2" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="EG4" s="2"/>
       <c r="EH4" s="2"/>
@@ -2306,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="FO4" s="2" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="FP4" s="2" t="s">
         <v>2</v>
@@ -2326,10 +2483,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -2341,7 +2498,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>0</v>
@@ -2350,10 +2507,10 @@
         <v>187</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>5</v>
@@ -2372,7 +2529,7 @@
         <v>19</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
@@ -2426,7 +2583,7 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AQ5" s="2" t="s">
         <v>5</v>
@@ -2475,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="BJ5" s="2" t="s">
         <v>2</v>
@@ -2493,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="BP5" s="2"/>
       <c r="BQ5" s="2"/>
@@ -2537,7 +2694,7 @@
       <c r="DC5" s="2"/>
       <c r="DD5" s="2"/>
       <c r="DF5" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="DG5" s="2" t="s">
         <v>19</v>
@@ -2585,7 +2742,7 @@
         <v>22</v>
       </c>
       <c r="DX5" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="DY5" s="2" t="s">
         <v>13</v>
@@ -2696,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -2711,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
@@ -2719,793 +2876,838 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
+    <row r="7" spans="1:181">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
     <row r="8" spans="1:181">
-      <c r="A8" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
+      <c r="DF8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="DG8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DH8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI8" s="2"/>
+      <c r="DJ8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO8" s="2"/>
+      <c r="DP8" s="2"/>
+      <c r="DQ8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="DX8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DY8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="DZ8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="EA8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC8" s="2"/>
+      <c r="ED8" s="2"/>
+      <c r="EE8" s="2"/>
+      <c r="EF8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EG8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="EH8" s="2"/>
+      <c r="EI8" s="2"/>
+      <c r="EJ8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="EK8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EL8" s="2"/>
+      <c r="EM8" s="2"/>
+      <c r="EN8" s="2"/>
+      <c r="EO8" s="2"/>
+      <c r="EP8" s="2"/>
+      <c r="EQ8" s="2"/>
+      <c r="ER8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA8" s="2"/>
+      <c r="FB8" s="2"/>
+      <c r="FC8" s="2"/>
+      <c r="FD8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FE8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FF8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="FH8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FI8" s="2"/>
+      <c r="FJ8" s="2"/>
+      <c r="FK8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FN8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="FP8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ8" s="2"/>
+      <c r="FR8" s="2"/>
+      <c r="FS8" s="2"/>
+      <c r="FT8" s="2"/>
+      <c r="FU8" s="2"/>
+      <c r="FV8" s="2"/>
+      <c r="FW8" s="2"/>
+      <c r="FX8" s="2"/>
+      <c r="FY8" s="2"/>
     </row>
     <row r="9" spans="1:181">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
-      <c r="CI9" s="2"/>
-      <c r="CJ9" s="2"/>
-      <c r="CK9" s="2"/>
-      <c r="CL9" s="2"/>
-      <c r="CM9" s="2"/>
-      <c r="CN9" s="2"/>
-      <c r="CO9" s="2"/>
-      <c r="CP9" s="2"/>
-      <c r="CQ9" s="2"/>
-      <c r="CR9" s="2"/>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-      <c r="CV9" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="CZ9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DF9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DG9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="DH9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="DQ9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DX9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="DY9" s="2"/>
-      <c r="DZ9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EB9" s="2"/>
-      <c r="EC9" s="2"/>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="2"/>
-      <c r="EF9" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="2"/>
-      <c r="EI9" s="2"/>
-      <c r="EJ9" s="2"/>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="2"/>
-      <c r="EM9" s="2"/>
-      <c r="EN9" s="2"/>
-      <c r="EO9" s="2"/>
-      <c r="EP9" s="2"/>
-      <c r="EQ9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="ER9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA9" s="2"/>
-      <c r="FB9" s="2"/>
-      <c r="FC9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="FD9" s="2"/>
-      <c r="FE9" s="2"/>
-      <c r="FF9" s="2"/>
-      <c r="FG9" s="2"/>
-      <c r="FH9" s="2"/>
-      <c r="FI9" s="2"/>
-      <c r="FJ9" s="2"/>
-      <c r="FK9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM9" s="2"/>
-      <c r="FN9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO9" s="2"/>
-      <c r="FP9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FQ9" s="2"/>
-      <c r="FR9" s="2"/>
-      <c r="FS9" s="2"/>
-      <c r="FT9" s="2"/>
-      <c r="FU9" s="2"/>
-      <c r="FV9" s="2"/>
-      <c r="FW9" s="2"/>
-      <c r="FX9" s="2"/>
-      <c r="FY9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:181">
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:181">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="2" t="s">
+    <row r="12" spans="1:181">
+      <c r="A12" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:181">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:181">
-      <c r="B12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="2"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="2"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="2"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2"/>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="2"/>
+      <c r="CK13" s="2"/>
+      <c r="CL13" s="2"/>
+      <c r="CM13" s="2"/>
+      <c r="CN13" s="2"/>
+      <c r="CO13" s="2"/>
+      <c r="CP13" s="2"/>
+      <c r="CQ13" s="2"/>
+      <c r="CR13" s="2"/>
+      <c r="CS13" s="2"/>
+      <c r="CT13" s="2"/>
+      <c r="CU13" s="2"/>
+      <c r="CV13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="CW13" s="2"/>
+      <c r="CX13" s="2"/>
+      <c r="CY13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="CZ13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="DA13" s="2"/>
+      <c r="DB13" s="2"/>
+      <c r="DC13" s="2"/>
+      <c r="DD13" s="2"/>
+      <c r="DF13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DG13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DH13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI13" s="2"/>
+      <c r="DJ13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="DQ13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DX13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY13" s="2"/>
+      <c r="DZ13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="EB13" s="2"/>
+      <c r="EC13" s="2"/>
+      <c r="ED13" s="2"/>
+      <c r="EE13" s="2"/>
+      <c r="EF13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="EG13" s="2"/>
+      <c r="EH13" s="2"/>
+      <c r="EI13" s="2"/>
+      <c r="EJ13" s="2"/>
+      <c r="EK13" s="2"/>
+      <c r="EL13" s="2"/>
+      <c r="EM13" s="2"/>
+      <c r="EN13" s="2"/>
+      <c r="EO13" s="2"/>
+      <c r="EP13" s="2"/>
+      <c r="EQ13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="ER13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA13" s="2"/>
+      <c r="FB13" s="2"/>
+      <c r="FC13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="FD13" s="2"/>
+      <c r="FE13" s="2"/>
+      <c r="FF13" s="2"/>
+      <c r="FG13" s="2"/>
+      <c r="FH13" s="2"/>
+      <c r="FI13" s="2"/>
+      <c r="FJ13" s="2"/>
+      <c r="FK13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM13" s="2"/>
+      <c r="FN13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO13" s="2"/>
+      <c r="FP13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ13" s="2"/>
+      <c r="FR13" s="2"/>
+      <c r="FS13" s="2"/>
+      <c r="FT13" s="2"/>
+      <c r="FU13" s="2"/>
+      <c r="FV13" s="2"/>
+      <c r="FW13" s="2"/>
+      <c r="FX13" s="2"/>
+      <c r="FY13" s="2"/>
     </row>
     <row r="14" spans="1:181">
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS14" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT14" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AU14" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AV14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="2"/>
-      <c r="BT14" s="2"/>
-      <c r="BU14" s="2"/>
-      <c r="BV14" s="2"/>
-      <c r="BW14" s="2"/>
-      <c r="BX14" s="2"/>
-      <c r="BY14" s="2"/>
-      <c r="BZ14" s="2"/>
-      <c r="CA14" s="2"/>
-      <c r="CB14" s="2"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="2"/>
-      <c r="CH14" s="2"/>
-      <c r="CI14" s="2"/>
-      <c r="CJ14" s="2"/>
-      <c r="CK14" s="2"/>
-      <c r="CL14" s="2"/>
-      <c r="CM14" s="2"/>
-      <c r="CN14" s="2"/>
-      <c r="CO14" s="2"/>
-      <c r="CP14" s="2"/>
-      <c r="CQ14" s="2"/>
-      <c r="CR14" s="2"/>
-      <c r="CS14" s="2"/>
-      <c r="CT14" s="2"/>
-      <c r="CU14" s="2"/>
-      <c r="CV14" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="CW14" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="CX14" s="2"/>
-      <c r="CY14" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="CZ14" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="DA14" s="2"/>
-      <c r="DB14" s="2"/>
-      <c r="DC14" s="2"/>
-      <c r="DD14" s="2"/>
-      <c r="DF14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="DG14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="DH14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DI14" s="2"/>
-      <c r="DJ14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO14" s="2"/>
-      <c r="DP14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DQ14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="DX14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DY14" s="2"/>
-      <c r="DZ14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EB14" s="2"/>
-      <c r="EC14" s="2"/>
-      <c r="ED14" s="2"/>
-      <c r="EE14" s="2"/>
-      <c r="EF14" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="EG14" s="2"/>
-      <c r="EH14" s="2"/>
-      <c r="EI14" s="2"/>
-      <c r="EJ14" s="2"/>
-      <c r="EK14" s="2"/>
-      <c r="EL14" s="2"/>
-      <c r="EM14" s="2"/>
-      <c r="EN14" s="2"/>
-      <c r="EO14" s="2"/>
-      <c r="EP14" s="2"/>
-      <c r="EQ14" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="ER14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EV14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA14" s="2"/>
-      <c r="FB14" s="2"/>
-      <c r="FC14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="FD14" s="2"/>
-      <c r="FE14" s="2"/>
-      <c r="FF14" s="2"/>
-      <c r="FG14" s="2"/>
-      <c r="FH14" s="2"/>
-      <c r="FI14" s="2"/>
-      <c r="FJ14" s="2"/>
-      <c r="FK14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM14" s="2"/>
-      <c r="FN14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO14" s="2"/>
-      <c r="FP14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FQ14" s="2"/>
-      <c r="FR14" s="2"/>
-      <c r="FS14" s="2"/>
-      <c r="FT14" s="2"/>
-      <c r="FU14" s="2"/>
-      <c r="FV14" s="2"/>
-      <c r="FW14" s="2"/>
-      <c r="FX14" s="2"/>
-      <c r="FY14" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:181">
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>2</v>
@@ -3514,69 +3716,918 @@
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:181">
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:181">
+      <c r="B18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="2"/>
+      <c r="CI18" s="2"/>
+      <c r="CJ18" s="2"/>
+      <c r="CK18" s="2"/>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="2"/>
+      <c r="CN18" s="2"/>
+      <c r="CO18" s="2"/>
+      <c r="CP18" s="2"/>
+      <c r="CQ18" s="2"/>
+      <c r="CR18" s="2"/>
+      <c r="CS18" s="2"/>
+      <c r="CT18" s="2"/>
+      <c r="CU18" s="2"/>
+      <c r="CV18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CW18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="CX18" s="2"/>
+      <c r="CY18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="CZ18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DA18" s="2"/>
+      <c r="DB18" s="2"/>
+      <c r="DC18" s="2"/>
+      <c r="DD18" s="2"/>
+      <c r="DF18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="DG18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DH18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI18" s="2"/>
+      <c r="DJ18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO18" s="2"/>
+      <c r="DP18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="DQ18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="DX18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="DY18" s="2"/>
+      <c r="DZ18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="EB18" s="2"/>
+      <c r="EC18" s="2"/>
+      <c r="ED18" s="2"/>
+      <c r="EE18" s="2"/>
+      <c r="EF18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="EG18" s="2"/>
+      <c r="EH18" s="2"/>
+      <c r="EI18" s="2"/>
+      <c r="EJ18" s="2"/>
+      <c r="EK18" s="2"/>
+      <c r="EL18" s="2"/>
+      <c r="EM18" s="2"/>
+      <c r="EN18" s="2"/>
+      <c r="EO18" s="2"/>
+      <c r="EP18" s="2"/>
+      <c r="EQ18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="ER18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA18" s="2"/>
+      <c r="FB18" s="2"/>
+      <c r="FC18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="FD18" s="2"/>
+      <c r="FE18" s="2"/>
+      <c r="FF18" s="2"/>
+      <c r="FG18" s="2"/>
+      <c r="FH18" s="2"/>
+      <c r="FI18" s="2"/>
+      <c r="FJ18" s="2"/>
+      <c r="FK18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM18" s="2"/>
+      <c r="FN18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO18" s="2"/>
+      <c r="FP18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ18" s="2"/>
+      <c r="FR18" s="2"/>
+      <c r="FS18" s="2"/>
+      <c r="FT18" s="2"/>
+      <c r="FU18" s="2"/>
+      <c r="FV18" s="2"/>
+      <c r="FW18" s="2"/>
+      <c r="FX18" s="2"/>
+      <c r="FY18" s="2"/>
+    </row>
+    <row r="19" spans="1:181">
+      <c r="B19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:181">
+      <c r="B20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:181">
+      <c r="B21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="23" spans="1:181">
+      <c r="A23" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="24" spans="1:181">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="25" spans="1:181">
+      <c r="B25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:181">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:181">
+      <c r="B27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:181">
+      <c r="B29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:181">
+      <c r="B30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:181">
+      <c r="B31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:181">
+      <c r="B32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="s">
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4"/>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="B75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E03322-9778-4487-819A-9C23F5BCFF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05165805-55F0-4C8A-BCAD-415DCEEDF25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
+    <workbookView xWindow="-28935" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="340">
   <si>
     <t>credit</t>
   </si>
@@ -1062,6 +1062,119 @@
   </si>
   <si>
     <t>2025-09-11T18:10:25Z</t>
+  </si>
+  <si>
+    <t>QR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250912-01</t>
+  </si>
+  <si>
+    <t>2025-09-12T10:12:32Z</t>
+  </si>
+  <si>
+    <t>qr</t>
+  </si>
+  <si>
+    <t>20250912101232</t>
+  </si>
+  <si>
+    <t>失敗データ（停止ボタン）</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250912-02</t>
+  </si>
+  <si>
+    <t>2025-09-12T10:37:27Z</t>
+  </si>
+  <si>
+    <t>{"brand":"PayPay"}</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>コード決済</t>
+  </si>
+  <si>
+    <t>2025/09/12 10:37:41</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>02100007121037400024</t>
+  </si>
+  <si>
+    <t>PayPay</t>
+  </si>
+  <si>
+    <t>20250912103727</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250912-03</t>
+  </si>
+  <si>
+    <t>2025-09-12T10:41:51Z</t>
+  </si>
+  <si>
+    <t>20250912104151</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2025/09/12 10:41:52</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>02100007121041510025</t>
+  </si>
+  <si>
+    <t>20250912114107</t>
+  </si>
+  <si>
+    <t>20250912-10</t>
+  </si>
+  <si>
+    <t>2025-09-12T11:41:07Z</t>
+  </si>
+  <si>
+    <t>失敗データ（残高不足）</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消失敗データ（</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1434,10 +1547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EBE5E-74F7-42AB-A478-70FD4BF79FAC}">
-  <dimension ref="A2:FY76"/>
+  <dimension ref="A2:FY84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -2876,17 +2990,6 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:181">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
     <row r="8" spans="1:181">
       <c r="B8" s="1" t="s">
         <v>232</v>
@@ -4532,7 +4635,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:181">
       <c r="B65" s="1" t="s">
         <v>256</v>
       </c>
@@ -4540,12 +4643,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:181">
       <c r="A67" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:181">
       <c r="B68" s="1" t="s">
         <v>34</v>
       </c>
@@ -4553,7 +4656,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:181">
       <c r="B69" s="1" t="s">
         <v>271</v>
       </c>
@@ -4581,7 +4684,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:181">
       <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
@@ -4589,7 +4692,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:181">
       <c r="B71" s="1" t="s">
         <v>228</v>
       </c>
@@ -4597,7 +4700,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:181">
       <c r="B73" s="1" t="s">
         <v>232</v>
       </c>
@@ -4605,7 +4708,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:181">
       <c r="B74" s="1" t="s">
         <v>250</v>
       </c>
@@ -4613,7 +4716,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:181">
       <c r="B75" s="1" t="s">
         <v>251</v>
       </c>
@@ -4621,12 +4724,896 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:181">
       <c r="B76" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:181">
+      <c r="A78" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN78" s="2"/>
+      <c r="AO78" s="2"/>
+      <c r="AP78" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AQ78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU78" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW78" s="2"/>
+      <c r="AX78" s="2"/>
+      <c r="AY78" s="2"/>
+      <c r="AZ78" s="2"/>
+      <c r="BA78" s="2"/>
+      <c r="BB78" s="2"/>
+      <c r="BC78" s="2"/>
+      <c r="BD78" s="2"/>
+      <c r="BE78" s="2"/>
+      <c r="BF78" s="2"/>
+      <c r="BG78" s="2"/>
+      <c r="BH78" s="2"/>
+      <c r="BI78" s="2"/>
+      <c r="BJ78" s="2"/>
+      <c r="BK78" s="2"/>
+      <c r="BL78" s="2"/>
+      <c r="BM78" s="2"/>
+      <c r="BN78" s="2"/>
+      <c r="BO78" s="2"/>
+      <c r="BP78" s="2"/>
+      <c r="BQ78" s="2"/>
+      <c r="BR78" s="2"/>
+      <c r="BS78" s="2"/>
+      <c r="BT78" s="2"/>
+      <c r="BU78" s="2"/>
+      <c r="BV78" s="2"/>
+      <c r="BW78" s="2"/>
+      <c r="BX78" s="2"/>
+      <c r="BY78" s="2"/>
+      <c r="BZ78" s="2"/>
+      <c r="CA78" s="2"/>
+      <c r="CB78" s="2"/>
+      <c r="CC78" s="2"/>
+      <c r="CD78" s="2"/>
+      <c r="CE78" s="2"/>
+      <c r="CF78" s="2"/>
+      <c r="CG78" s="2"/>
+      <c r="CH78" s="2"/>
+      <c r="CI78" s="2"/>
+      <c r="CJ78" s="2"/>
+      <c r="CK78" s="2"/>
+      <c r="CL78" s="2"/>
+      <c r="CM78" s="2"/>
+      <c r="CN78" s="2"/>
+      <c r="CO78" s="2"/>
+      <c r="CP78" s="2"/>
+      <c r="CQ78" s="2"/>
+      <c r="CR78" s="2"/>
+      <c r="CS78" s="2"/>
+      <c r="CT78" s="2"/>
+      <c r="CU78" s="2"/>
+      <c r="CV78" s="2"/>
+      <c r="CW78" s="2"/>
+      <c r="CX78" s="2"/>
+      <c r="CY78" s="2"/>
+      <c r="CZ78" s="2"/>
+      <c r="DA78" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="DB78" s="2"/>
+      <c r="DC78" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD78" s="2"/>
+      <c r="DF78" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="DG78" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI78" s="2"/>
+      <c r="DJ78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP78" s="2"/>
+      <c r="DQ78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW78" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DX78" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="DY78" s="2"/>
+      <c r="DZ78" s="2"/>
+      <c r="EA78" s="2"/>
+      <c r="EB78" s="2"/>
+      <c r="EC78" s="2"/>
+      <c r="ED78" s="2"/>
+      <c r="EE78" s="2"/>
+      <c r="EF78" s="2"/>
+      <c r="EG78" s="2"/>
+      <c r="EH78" s="2"/>
+      <c r="EI78" s="2"/>
+      <c r="EJ78" s="2"/>
+      <c r="EK78" s="2"/>
+      <c r="EL78" s="2"/>
+      <c r="EM78" s="2"/>
+      <c r="EN78" s="2"/>
+      <c r="EO78" s="2"/>
+      <c r="EP78" s="2"/>
+      <c r="EQ78" s="2"/>
+      <c r="ER78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA78" s="2"/>
+      <c r="FB78" s="2"/>
+      <c r="FC78" s="2"/>
+      <c r="FD78" s="2"/>
+      <c r="FE78" s="2"/>
+      <c r="FF78" s="2"/>
+      <c r="FG78" s="2"/>
+      <c r="FH78" s="2"/>
+      <c r="FI78" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FJ78" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FK78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM78" s="2"/>
+      <c r="FN78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO78" s="2"/>
+      <c r="FP78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ78" s="2"/>
+      <c r="FR78" s="2"/>
+      <c r="FS78" s="2"/>
+      <c r="FT78" s="2"/>
+      <c r="FU78" s="2"/>
+      <c r="FV78" s="2"/>
+      <c r="FW78" s="2"/>
+      <c r="FX78" s="2"/>
+      <c r="FY78" s="2"/>
+    </row>
+    <row r="79" spans="1:181">
+      <c r="B79" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="6"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="6"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="6"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="6"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="6"/>
+      <c r="BB79" s="6"/>
+      <c r="BC79" s="6"/>
+      <c r="BD79" s="6"/>
+      <c r="BE79" s="6"/>
+      <c r="BF79" s="6"/>
+      <c r="BG79" s="6"/>
+      <c r="BH79" s="6"/>
+      <c r="BI79" s="6"/>
+      <c r="BJ79" s="6"/>
+      <c r="BK79" s="6"/>
+      <c r="BL79" s="6"/>
+      <c r="BM79" s="6"/>
+      <c r="BN79" s="6"/>
+      <c r="BO79" s="6"/>
+      <c r="BP79" s="6"/>
+      <c r="BQ79" s="6"/>
+      <c r="BR79" s="6"/>
+      <c r="BS79" s="6"/>
+      <c r="BT79" s="6"/>
+      <c r="BU79" s="6"/>
+      <c r="BV79" s="6"/>
+      <c r="BW79" s="6"/>
+      <c r="BX79" s="6"/>
+      <c r="BY79" s="6"/>
+      <c r="BZ79" s="6"/>
+      <c r="CA79" s="6"/>
+      <c r="CB79" s="6"/>
+      <c r="CC79" s="6"/>
+      <c r="CD79" s="6"/>
+      <c r="CE79" s="6"/>
+      <c r="CF79" s="6"/>
+      <c r="CG79" s="6"/>
+      <c r="CH79" s="6"/>
+      <c r="CI79" s="6"/>
+      <c r="CJ79" s="6"/>
+      <c r="CK79" s="6"/>
+      <c r="CL79" s="6"/>
+      <c r="CM79" s="6"/>
+      <c r="CN79" s="6"/>
+      <c r="CO79" s="6"/>
+      <c r="CP79" s="6"/>
+      <c r="CQ79" s="6"/>
+      <c r="CR79" s="6"/>
+      <c r="CS79" s="6"/>
+      <c r="CT79" s="6"/>
+      <c r="CU79" s="6"/>
+      <c r="CV79" s="6"/>
+      <c r="CW79" s="6"/>
+      <c r="CX79" s="6"/>
+      <c r="CY79" s="6"/>
+      <c r="CZ79" s="6"/>
+      <c r="DA79" s="6"/>
+      <c r="DB79" s="6"/>
+      <c r="DC79" s="6"/>
+      <c r="DD79" s="6"/>
+      <c r="DF79" s="6"/>
+      <c r="DG79" s="6"/>
+      <c r="DH79" s="6"/>
+      <c r="DI79" s="6"/>
+      <c r="DJ79" s="6"/>
+      <c r="DK79" s="6"/>
+      <c r="DL79" s="6"/>
+      <c r="DM79" s="6"/>
+      <c r="DN79" s="6"/>
+      <c r="DO79" s="6"/>
+      <c r="DP79" s="6"/>
+      <c r="DQ79" s="6"/>
+      <c r="DR79" s="6"/>
+      <c r="DS79" s="6"/>
+      <c r="DT79" s="6"/>
+      <c r="DU79" s="6"/>
+      <c r="DV79" s="6"/>
+      <c r="DW79" s="6"/>
+      <c r="DX79" s="6"/>
+      <c r="DY79" s="6"/>
+      <c r="DZ79" s="6"/>
+      <c r="EA79" s="6"/>
+      <c r="EB79" s="6"/>
+      <c r="EC79" s="6"/>
+      <c r="ED79" s="6"/>
+      <c r="EE79" s="6"/>
+      <c r="EF79" s="6"/>
+      <c r="EG79" s="6"/>
+      <c r="EH79" s="6"/>
+      <c r="EI79" s="6"/>
+      <c r="EJ79" s="6"/>
+      <c r="EK79" s="6"/>
+      <c r="EL79" s="6"/>
+      <c r="EM79" s="6"/>
+      <c r="EN79" s="6"/>
+      <c r="EO79" s="6"/>
+      <c r="EP79" s="6"/>
+      <c r="EQ79" s="6"/>
+      <c r="ER79" s="6"/>
+      <c r="ES79" s="6"/>
+      <c r="ET79" s="6"/>
+      <c r="EU79" s="6"/>
+      <c r="EV79" s="6"/>
+      <c r="EW79" s="6"/>
+      <c r="EX79" s="6"/>
+      <c r="EY79" s="6"/>
+      <c r="EZ79" s="6"/>
+      <c r="FA79" s="6"/>
+      <c r="FB79" s="6"/>
+      <c r="FC79" s="6"/>
+      <c r="FD79" s="6"/>
+      <c r="FE79" s="6"/>
+      <c r="FF79" s="6"/>
+      <c r="FG79" s="6"/>
+      <c r="FH79" s="6"/>
+      <c r="FI79" s="6"/>
+      <c r="FJ79" s="6"/>
+      <c r="FK79" s="6"/>
+      <c r="FL79" s="6"/>
+      <c r="FM79" s="6"/>
+      <c r="FN79" s="6"/>
+      <c r="FO79" s="6"/>
+      <c r="FP79" s="6"/>
+      <c r="FQ79" s="6"/>
+      <c r="FR79" s="6"/>
+      <c r="FS79" s="6"/>
+      <c r="FT79" s="6"/>
+      <c r="FU79" s="6"/>
+      <c r="FV79" s="6"/>
+      <c r="FW79" s="6"/>
+      <c r="FX79" s="6"/>
+      <c r="FY79" s="6"/>
+    </row>
+    <row r="80" spans="1:181">
+      <c r="B80" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="83" spans="2:181">
+      <c r="B83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AQ83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="2"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="2"/>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="2"/>
+      <c r="BK83" s="2"/>
+      <c r="BL83" s="2"/>
+      <c r="BM83" s="2"/>
+      <c r="BN83" s="2"/>
+      <c r="BO83" s="2"/>
+      <c r="BP83" s="2"/>
+      <c r="BQ83" s="2"/>
+      <c r="BR83" s="2"/>
+      <c r="BS83" s="2"/>
+      <c r="BT83" s="2"/>
+      <c r="BU83" s="2"/>
+      <c r="BV83" s="2"/>
+      <c r="BW83" s="2"/>
+      <c r="BX83" s="2"/>
+      <c r="BY83" s="2"/>
+      <c r="BZ83" s="2"/>
+      <c r="CA83" s="2"/>
+      <c r="CB83" s="2"/>
+      <c r="CC83" s="2"/>
+      <c r="CD83" s="2"/>
+      <c r="CE83" s="2"/>
+      <c r="CF83" s="2"/>
+      <c r="CG83" s="2"/>
+      <c r="CH83" s="2"/>
+      <c r="CI83" s="2"/>
+      <c r="CJ83" s="2"/>
+      <c r="CK83" s="2"/>
+      <c r="CL83" s="2"/>
+      <c r="CM83" s="2"/>
+      <c r="CN83" s="2"/>
+      <c r="CO83" s="2"/>
+      <c r="CP83" s="2"/>
+      <c r="CQ83" s="2"/>
+      <c r="CR83" s="2"/>
+      <c r="CS83" s="2"/>
+      <c r="CT83" s="2"/>
+      <c r="CU83" s="2"/>
+      <c r="CV83" s="2"/>
+      <c r="CW83" s="2"/>
+      <c r="CX83" s="2"/>
+      <c r="CY83" s="2"/>
+      <c r="CZ83" s="2"/>
+      <c r="DA83" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DB83" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="DC83" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD83" s="2"/>
+      <c r="DF83" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="DG83" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI83" s="2"/>
+      <c r="DJ83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO83" s="2"/>
+      <c r="DP83" s="2"/>
+      <c r="DQ83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="DX83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="DY83" s="2"/>
+      <c r="DZ83" s="2"/>
+      <c r="EA83" s="2"/>
+      <c r="EB83" s="2"/>
+      <c r="EC83" s="2"/>
+      <c r="ED83" s="2"/>
+      <c r="EE83" s="2"/>
+      <c r="EF83" s="2"/>
+      <c r="EG83" s="2"/>
+      <c r="EH83" s="2"/>
+      <c r="EI83" s="2"/>
+      <c r="EJ83" s="2"/>
+      <c r="EK83" s="2"/>
+      <c r="EL83" s="2"/>
+      <c r="EM83" s="2"/>
+      <c r="EN83" s="2"/>
+      <c r="EO83" s="2"/>
+      <c r="EP83" s="2"/>
+      <c r="EQ83" s="2"/>
+      <c r="ER83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA83" s="2"/>
+      <c r="FB83" s="2"/>
+      <c r="FC83" s="2"/>
+      <c r="FD83" s="2"/>
+      <c r="FE83" s="2"/>
+      <c r="FF83" s="2"/>
+      <c r="FG83" s="2"/>
+      <c r="FH83" s="2"/>
+      <c r="FI83" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="FJ83" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FK83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM83" s="2"/>
+      <c r="FN83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO83" s="2"/>
+      <c r="FP83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ83" s="2"/>
+      <c r="FR83" s="2"/>
+      <c r="FS83" s="2"/>
+      <c r="FT83" s="2"/>
+      <c r="FU83" s="2"/>
+      <c r="FV83" s="2"/>
+      <c r="FW83" s="2"/>
+      <c r="FX83" s="2"/>
+      <c r="FY83" s="2"/>
+    </row>
+    <row r="84" spans="2:181">
+      <c r="B84" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05165805-55F0-4C8A-BCAD-415DCEEDF25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27213A-57BC-4BDE-AE3B-E9DD81D08416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="401">
   <si>
     <t>credit</t>
   </si>
@@ -1167,12 +1167,257 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>取消失敗データ（</t>
+    <t>20250912135126</t>
+  </si>
+  <si>
+    <t>20250912-14</t>
+  </si>
+  <si>
+    <t>2025-09-12T13:51:26Z</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2025/09/12 13:51:37</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>26156</t>
+  </si>
+  <si>
+    <t>02100007121351360031</t>
+  </si>
+  <si>
+    <t>処理未了データ</t>
+    <rPh sb="0" eb="4">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250912141019</t>
+  </si>
+  <si>
+    <t>20250912-16</t>
+  </si>
+  <si>
+    <t>2025-09-12T14:10:19Z</t>
+  </si>
+  <si>
+    <t>2025/09/12 14:10:31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>113462</t>
+  </si>
+  <si>
+    <t>02100007121410300033</t>
+  </si>
+  <si>
+    <t>stopped</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250912-20</t>
+  </si>
+  <si>
+    <t>2025-09-12T15:02:56Z</t>
+  </si>
+  <si>
+    <t>成功データ（再照会後）</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>失敗データ（残高不足：再照会後）</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250912150256</t>
+  </si>
+  <si>
+    <t>20250912150806</t>
+  </si>
+  <si>
+    <t>20250912-21</t>
+  </si>
+  <si>
+    <t>2025-09-12T15:08:06Z</t>
+  </si>
+  <si>
+    <t>取消失敗データ</t>
     <rPh sb="0" eb="2">
       <t>トリケシ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消成功データ（再照会後）</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250912152312</t>
+  </si>
+  <si>
+    <t>20250912-28</t>
+  </si>
+  <si>
+    <t>2025-09-12T15:23:12Z</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2025/09/12 15:23:13</t>
+  </si>
+  <si>
+    <t>2025/09/12 15:23:00</t>
+  </si>
+  <si>
+    <t>8816</t>
+  </si>
+  <si>
+    <t>02100007121523130038</t>
+  </si>
+  <si>
+    <t>02100007121522590037</t>
+  </si>
+  <si>
+    <t>20250912152826</t>
+  </si>
+  <si>
+    <t>20250912-33</t>
+  </si>
+  <si>
+    <t>2025-09-12T15:28:26Z</t>
+  </si>
+  <si>
+    <t>20250912152953</t>
+  </si>
+  <si>
+    <t>20250912-34</t>
+  </si>
+  <si>
+    <t>2025-09-12T15:29:53Z</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2025/09/12 15:29:54</t>
+  </si>
+  <si>
+    <t>2025/09/12 14:06:29</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>02100007121529530041</t>
+  </si>
+  <si>
+    <t>02100007121406280032</t>
+  </si>
+  <si>
+    <t>20250912182216</t>
+  </si>
+  <si>
+    <t>20250912-49</t>
+  </si>
+  <si>
+    <t>2025-09-12T18:22:16Z</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>取消成功データ（再照会後）改修後</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カイシュウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025/09/12 18:22:18</t>
+  </si>
+  <si>
+    <t>2025/09/12 18:21:07</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>19967</t>
+  </si>
+  <si>
+    <t>02100007121822170048</t>
+  </si>
+  <si>
+    <t>02100007121821060047</t>
+  </si>
+  <si>
+    <t>02100007121822170048</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消成功データ（再照会後）バグあり</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1212,7 +1457,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,6 +1473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,14 +1510,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1547,17 +1799,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EBE5E-74F7-42AB-A478-70FD4BF79FAC}">
-  <dimension ref="A2:FY84"/>
+  <dimension ref="A2:FY90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.296875" style="1" bestFit="1" customWidth="1"/>
@@ -1664,7 +1916,9 @@
     <col min="107" max="107" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="108" max="110" width="8.69921875" style="1"/>
     <col min="111" max="111" width="13.59765625" style="1" customWidth="1"/>
-    <col min="112" max="125" width="8.69921875" style="1"/>
+    <col min="112" max="114" width="8.69921875" style="1"/>
+    <col min="115" max="115" width="16.59765625" style="1" customWidth="1"/>
+    <col min="116" max="125" width="8.69921875" style="1"/>
     <col min="126" max="126" width="19.5" style="1" customWidth="1"/>
     <col min="127" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -5061,13 +5315,13 @@
     </row>
     <row r="79" spans="1:181">
       <c r="B79" s="1" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>3</v>
@@ -5076,194 +5330,322 @@
         <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
-      <c r="AI79" s="6"/>
-      <c r="AJ79" s="6"/>
-      <c r="AK79" s="6"/>
-      <c r="AL79" s="6"/>
-      <c r="AM79" s="6"/>
-      <c r="AN79" s="6"/>
-      <c r="AO79" s="6"/>
-      <c r="AP79" s="6"/>
-      <c r="AQ79" s="6"/>
-      <c r="AR79" s="6"/>
-      <c r="AS79" s="6"/>
-      <c r="AT79" s="6"/>
-      <c r="AU79" s="6"/>
-      <c r="AV79" s="6"/>
-      <c r="AW79" s="6"/>
-      <c r="AX79" s="6"/>
-      <c r="AY79" s="6"/>
-      <c r="AZ79" s="6"/>
-      <c r="BA79" s="6"/>
-      <c r="BB79" s="6"/>
-      <c r="BC79" s="6"/>
-      <c r="BD79" s="6"/>
-      <c r="BE79" s="6"/>
-      <c r="BF79" s="6"/>
-      <c r="BG79" s="6"/>
-      <c r="BH79" s="6"/>
-      <c r="BI79" s="6"/>
-      <c r="BJ79" s="6"/>
-      <c r="BK79" s="6"/>
-      <c r="BL79" s="6"/>
-      <c r="BM79" s="6"/>
-      <c r="BN79" s="6"/>
-      <c r="BO79" s="6"/>
-      <c r="BP79" s="6"/>
-      <c r="BQ79" s="6"/>
-      <c r="BR79" s="6"/>
-      <c r="BS79" s="6"/>
-      <c r="BT79" s="6"/>
-      <c r="BU79" s="6"/>
-      <c r="BV79" s="6"/>
-      <c r="BW79" s="6"/>
-      <c r="BX79" s="6"/>
-      <c r="BY79" s="6"/>
-      <c r="BZ79" s="6"/>
-      <c r="CA79" s="6"/>
-      <c r="CB79" s="6"/>
-      <c r="CC79" s="6"/>
-      <c r="CD79" s="6"/>
-      <c r="CE79" s="6"/>
-      <c r="CF79" s="6"/>
-      <c r="CG79" s="6"/>
-      <c r="CH79" s="6"/>
-      <c r="CI79" s="6"/>
-      <c r="CJ79" s="6"/>
-      <c r="CK79" s="6"/>
-      <c r="CL79" s="6"/>
-      <c r="CM79" s="6"/>
-      <c r="CN79" s="6"/>
-      <c r="CO79" s="6"/>
-      <c r="CP79" s="6"/>
-      <c r="CQ79" s="6"/>
-      <c r="CR79" s="6"/>
-      <c r="CS79" s="6"/>
-      <c r="CT79" s="6"/>
-      <c r="CU79" s="6"/>
-      <c r="CV79" s="6"/>
-      <c r="CW79" s="6"/>
-      <c r="CX79" s="6"/>
-      <c r="CY79" s="6"/>
-      <c r="CZ79" s="6"/>
-      <c r="DA79" s="6"/>
-      <c r="DB79" s="6"/>
-      <c r="DC79" s="6"/>
-      <c r="DD79" s="6"/>
-      <c r="DF79" s="6"/>
-      <c r="DG79" s="6"/>
-      <c r="DH79" s="6"/>
-      <c r="DI79" s="6"/>
-      <c r="DJ79" s="6"/>
-      <c r="DK79" s="6"/>
-      <c r="DL79" s="6"/>
-      <c r="DM79" s="6"/>
-      <c r="DN79" s="6"/>
-      <c r="DO79" s="6"/>
-      <c r="DP79" s="6"/>
-      <c r="DQ79" s="6"/>
-      <c r="DR79" s="6"/>
-      <c r="DS79" s="6"/>
-      <c r="DT79" s="6"/>
-      <c r="DU79" s="6"/>
-      <c r="DV79" s="6"/>
-      <c r="DW79" s="6"/>
-      <c r="DX79" s="6"/>
-      <c r="DY79" s="6"/>
-      <c r="DZ79" s="6"/>
-      <c r="EA79" s="6"/>
-      <c r="EB79" s="6"/>
-      <c r="EC79" s="6"/>
-      <c r="ED79" s="6"/>
-      <c r="EE79" s="6"/>
-      <c r="EF79" s="6"/>
-      <c r="EG79" s="6"/>
-      <c r="EH79" s="6"/>
-      <c r="EI79" s="6"/>
-      <c r="EJ79" s="6"/>
-      <c r="EK79" s="6"/>
-      <c r="EL79" s="6"/>
-      <c r="EM79" s="6"/>
-      <c r="EN79" s="6"/>
-      <c r="EO79" s="6"/>
-      <c r="EP79" s="6"/>
-      <c r="EQ79" s="6"/>
-      <c r="ER79" s="6"/>
-      <c r="ES79" s="6"/>
-      <c r="ET79" s="6"/>
-      <c r="EU79" s="6"/>
-      <c r="EV79" s="6"/>
-      <c r="EW79" s="6"/>
-      <c r="EX79" s="6"/>
-      <c r="EY79" s="6"/>
-      <c r="EZ79" s="6"/>
-      <c r="FA79" s="6"/>
-      <c r="FB79" s="6"/>
-      <c r="FC79" s="6"/>
-      <c r="FD79" s="6"/>
-      <c r="FE79" s="6"/>
-      <c r="FF79" s="6"/>
-      <c r="FG79" s="6"/>
-      <c r="FH79" s="6"/>
-      <c r="FI79" s="6"/>
-      <c r="FJ79" s="6"/>
-      <c r="FK79" s="6"/>
-      <c r="FL79" s="6"/>
-      <c r="FM79" s="6"/>
-      <c r="FN79" s="6"/>
-      <c r="FO79" s="6"/>
-      <c r="FP79" s="6"/>
-      <c r="FQ79" s="6"/>
-      <c r="FR79" s="6"/>
-      <c r="FS79" s="6"/>
-      <c r="FT79" s="6"/>
-      <c r="FU79" s="6"/>
-      <c r="FV79" s="6"/>
-      <c r="FW79" s="6"/>
-      <c r="FX79" s="6"/>
-      <c r="FY79" s="6"/>
+      <c r="J79" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y79" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN79" s="2"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW79" s="2"/>
+      <c r="AX79" s="2"/>
+      <c r="AY79" s="2"/>
+      <c r="AZ79" s="2"/>
+      <c r="BA79" s="2"/>
+      <c r="BB79" s="2"/>
+      <c r="BC79" s="2"/>
+      <c r="BD79" s="2"/>
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="2"/>
+      <c r="BG79" s="2"/>
+      <c r="BH79" s="2"/>
+      <c r="BI79" s="2"/>
+      <c r="BJ79" s="2"/>
+      <c r="BK79" s="2"/>
+      <c r="BL79" s="2"/>
+      <c r="BM79" s="2"/>
+      <c r="BN79" s="2"/>
+      <c r="BO79" s="2"/>
+      <c r="BP79" s="2"/>
+      <c r="BQ79" s="2"/>
+      <c r="BR79" s="2"/>
+      <c r="BS79" s="2"/>
+      <c r="BT79" s="2"/>
+      <c r="BU79" s="2"/>
+      <c r="BV79" s="2"/>
+      <c r="BW79" s="2"/>
+      <c r="BX79" s="2"/>
+      <c r="BY79" s="2"/>
+      <c r="BZ79" s="2"/>
+      <c r="CA79" s="2"/>
+      <c r="CB79" s="2"/>
+      <c r="CC79" s="2"/>
+      <c r="CD79" s="2"/>
+      <c r="CE79" s="2"/>
+      <c r="CF79" s="2"/>
+      <c r="CG79" s="2"/>
+      <c r="CH79" s="2"/>
+      <c r="CI79" s="2"/>
+      <c r="CJ79" s="2"/>
+      <c r="CK79" s="2"/>
+      <c r="CL79" s="2"/>
+      <c r="CM79" s="2"/>
+      <c r="CN79" s="2"/>
+      <c r="CO79" s="2"/>
+      <c r="CP79" s="2"/>
+      <c r="CQ79" s="2"/>
+      <c r="CR79" s="2"/>
+      <c r="CS79" s="2"/>
+      <c r="CT79" s="2"/>
+      <c r="CU79" s="2"/>
+      <c r="CV79" s="2"/>
+      <c r="CW79" s="2"/>
+      <c r="CX79" s="2"/>
+      <c r="CY79" s="2"/>
+      <c r="CZ79" s="2"/>
+      <c r="DA79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="DB79" s="2"/>
+      <c r="DC79" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD79" s="2"/>
+      <c r="DF79" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DG79" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI79" s="2"/>
+      <c r="DJ79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DL79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP79" s="2"/>
+      <c r="DQ79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW79" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="DX79" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="DY79" s="2"/>
+      <c r="DZ79" s="2"/>
+      <c r="EA79" s="2"/>
+      <c r="EB79" s="2"/>
+      <c r="EC79" s="2"/>
+      <c r="ED79" s="2"/>
+      <c r="EE79" s="2"/>
+      <c r="EF79" s="2"/>
+      <c r="EG79" s="2"/>
+      <c r="EH79" s="2"/>
+      <c r="EI79" s="2"/>
+      <c r="EJ79" s="2"/>
+      <c r="EK79" s="2"/>
+      <c r="EL79" s="2"/>
+      <c r="EM79" s="2"/>
+      <c r="EN79" s="2"/>
+      <c r="EO79" s="2"/>
+      <c r="EP79" s="2"/>
+      <c r="EQ79" s="2"/>
+      <c r="ER79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA79" s="2"/>
+      <c r="FB79" s="2"/>
+      <c r="FC79" s="2"/>
+      <c r="FD79" s="2"/>
+      <c r="FE79" s="2"/>
+      <c r="FF79" s="2"/>
+      <c r="FG79" s="2"/>
+      <c r="FH79" s="2"/>
+      <c r="FI79" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="FJ79" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FK79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM79" s="2"/>
+      <c r="FN79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO79" s="2"/>
+      <c r="FP79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ79" s="2"/>
+      <c r="FR79" s="2"/>
+      <c r="FS79" s="2"/>
+      <c r="FT79" s="2"/>
+      <c r="FU79" s="2"/>
+      <c r="FV79" s="2"/>
+      <c r="FW79" s="2"/>
+      <c r="FX79" s="2"/>
+      <c r="FY79" s="2"/>
     </row>
     <row r="80" spans="1:181">
       <c r="B80" s="1" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>3</v>
@@ -5272,10 +5654,10 @@
         <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>314</v>
@@ -5283,18 +5665,74 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
+    <row r="81" spans="2:181">
+      <c r="B81" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="2:181">
+      <c r="B82" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
     <row r="83" spans="2:181">
       <c r="B83" s="1" t="s">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>2</v>
@@ -5303,19 +5741,17 @@
         <v>33</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>5</v>
@@ -5334,26 +5770,22 @@
         <v>321</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="U83" s="2" t="s">
-        <v>322</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="U83" s="2"/>
       <c r="V83" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z83" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
@@ -5370,7 +5802,7 @@
         <v>5</v>
       </c>
       <c r="AH83" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI83" s="2" t="s">
         <v>5</v>
@@ -5390,7 +5822,7 @@
       <c r="AN83" s="2"/>
       <c r="AO83" s="2"/>
       <c r="AP83" s="2" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="AQ83" s="2" t="s">
         <v>5</v>
@@ -5467,30 +5899,26 @@
       <c r="CY83" s="2"/>
       <c r="CZ83" s="2"/>
       <c r="DA83" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="DB83" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="DC83" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="DB83" s="2"/>
+      <c r="DC83" s="2"/>
       <c r="DD83" s="2"/>
       <c r="DF83" s="2" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="DG83" s="2" t="s">
         <v>321</v>
       </c>
       <c r="DH83" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DI83" s="2"/>
       <c r="DJ83" s="2" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="DK83" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="DL83" s="2" t="s">
         <v>5</v>
@@ -5522,10 +5950,10 @@
         <v>14</v>
       </c>
       <c r="DW83" s="2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="DX83" s="2" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="DY83" s="2"/>
       <c r="DZ83" s="2"/>
@@ -5556,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="EU83" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EV83" s="2" t="s">
         <v>5</v>
@@ -5582,11 +6010,9 @@
       <c r="FG83" s="2"/>
       <c r="FH83" s="2"/>
       <c r="FI83" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="FJ83" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="FJ83" s="2"/>
       <c r="FK83" s="2" t="s">
         <v>5</v>
       </c>
@@ -5611,10 +6037,1365 @@
       <c r="FX83" s="2"/>
       <c r="FY83" s="2"/>
     </row>
-    <row r="84" spans="2:181">
-      <c r="B84" s="1" t="s">
-        <v>339</v>
-      </c>
+    <row r="85" spans="2:181">
+      <c r="B85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y85" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z85" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN85" s="2"/>
+      <c r="AO85" s="2"/>
+      <c r="AP85" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AQ85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR85" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT85" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU85" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW85" s="2"/>
+      <c r="AX85" s="2"/>
+      <c r="AY85" s="2"/>
+      <c r="AZ85" s="2"/>
+      <c r="BA85" s="2"/>
+      <c r="BB85" s="2"/>
+      <c r="BC85" s="2"/>
+      <c r="BD85" s="2"/>
+      <c r="BE85" s="2"/>
+      <c r="BF85" s="2"/>
+      <c r="BG85" s="2"/>
+      <c r="BH85" s="2"/>
+      <c r="BI85" s="2"/>
+      <c r="BJ85" s="2"/>
+      <c r="BK85" s="2"/>
+      <c r="BL85" s="2"/>
+      <c r="BM85" s="2"/>
+      <c r="BN85" s="2"/>
+      <c r="BO85" s="2"/>
+      <c r="BP85" s="2"/>
+      <c r="BQ85" s="2"/>
+      <c r="BR85" s="2"/>
+      <c r="BS85" s="2"/>
+      <c r="BT85" s="2"/>
+      <c r="BU85" s="2"/>
+      <c r="BV85" s="2"/>
+      <c r="BW85" s="2"/>
+      <c r="BX85" s="2"/>
+      <c r="BY85" s="2"/>
+      <c r="BZ85" s="2"/>
+      <c r="CA85" s="2"/>
+      <c r="CB85" s="2"/>
+      <c r="CC85" s="2"/>
+      <c r="CD85" s="2"/>
+      <c r="CE85" s="2"/>
+      <c r="CF85" s="2"/>
+      <c r="CG85" s="2"/>
+      <c r="CH85" s="2"/>
+      <c r="CI85" s="2"/>
+      <c r="CJ85" s="2"/>
+      <c r="CK85" s="2"/>
+      <c r="CL85" s="2"/>
+      <c r="CM85" s="2"/>
+      <c r="CN85" s="2"/>
+      <c r="CO85" s="2"/>
+      <c r="CP85" s="2"/>
+      <c r="CQ85" s="2"/>
+      <c r="CR85" s="2"/>
+      <c r="CS85" s="2"/>
+      <c r="CT85" s="2"/>
+      <c r="CU85" s="2"/>
+      <c r="CV85" s="2"/>
+      <c r="CW85" s="2"/>
+      <c r="CX85" s="2"/>
+      <c r="CY85" s="2"/>
+      <c r="CZ85" s="2"/>
+      <c r="DA85" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DB85" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="DC85" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD85" s="2"/>
+      <c r="DF85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="DG85" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI85" s="2"/>
+      <c r="DJ85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO85" s="2"/>
+      <c r="DP85" s="2"/>
+      <c r="DQ85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW85" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="DX85" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="DY85" s="2"/>
+      <c r="DZ85" s="2"/>
+      <c r="EA85" s="2"/>
+      <c r="EB85" s="2"/>
+      <c r="EC85" s="2"/>
+      <c r="ED85" s="2"/>
+      <c r="EE85" s="2"/>
+      <c r="EF85" s="2"/>
+      <c r="EG85" s="2"/>
+      <c r="EH85" s="2"/>
+      <c r="EI85" s="2"/>
+      <c r="EJ85" s="2"/>
+      <c r="EK85" s="2"/>
+      <c r="EL85" s="2"/>
+      <c r="EM85" s="2"/>
+      <c r="EN85" s="2"/>
+      <c r="EO85" s="2"/>
+      <c r="EP85" s="2"/>
+      <c r="EQ85" s="2"/>
+      <c r="ER85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA85" s="2"/>
+      <c r="FB85" s="2"/>
+      <c r="FC85" s="2"/>
+      <c r="FD85" s="2"/>
+      <c r="FE85" s="2"/>
+      <c r="FF85" s="2"/>
+      <c r="FG85" s="2"/>
+      <c r="FH85" s="2"/>
+      <c r="FI85" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="FJ85" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FK85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM85" s="2"/>
+      <c r="FN85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO85" s="2"/>
+      <c r="FP85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ85" s="2"/>
+      <c r="FR85" s="2"/>
+      <c r="FS85" s="2"/>
+      <c r="FT85" s="2"/>
+      <c r="FU85" s="2"/>
+      <c r="FV85" s="2"/>
+      <c r="FW85" s="2"/>
+      <c r="FX85" s="2"/>
+      <c r="FY85" s="2"/>
+    </row>
+    <row r="86" spans="2:181" s="6" customFormat="1">
+      <c r="B86" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="T86" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="U86" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="V86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X86" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y86" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR86" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS86" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT86" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU86" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW86" s="7"/>
+      <c r="AX86" s="7"/>
+      <c r="AY86" s="7"/>
+      <c r="AZ86" s="7"/>
+      <c r="BA86" s="7"/>
+      <c r="BB86" s="7"/>
+      <c r="BC86" s="7"/>
+      <c r="BD86" s="7"/>
+      <c r="BE86" s="7"/>
+      <c r="BF86" s="7"/>
+      <c r="BG86" s="7"/>
+      <c r="BH86" s="7"/>
+      <c r="BI86" s="7"/>
+      <c r="BJ86" s="7"/>
+      <c r="BK86" s="7"/>
+      <c r="BL86" s="7"/>
+      <c r="BM86" s="7"/>
+      <c r="BN86" s="7"/>
+      <c r="BO86" s="7"/>
+      <c r="BP86" s="7"/>
+      <c r="BQ86" s="7"/>
+      <c r="BR86" s="7"/>
+      <c r="BS86" s="7"/>
+      <c r="BT86" s="7"/>
+      <c r="BU86" s="7"/>
+      <c r="BV86" s="7"/>
+      <c r="BW86" s="7"/>
+      <c r="BX86" s="7"/>
+      <c r="BY86" s="7"/>
+      <c r="BZ86" s="7"/>
+      <c r="CA86" s="7"/>
+      <c r="CB86" s="7"/>
+      <c r="CC86" s="7"/>
+      <c r="CD86" s="7"/>
+      <c r="CE86" s="7"/>
+      <c r="CF86" s="7"/>
+      <c r="CG86" s="7"/>
+      <c r="CH86" s="7"/>
+      <c r="CI86" s="7"/>
+      <c r="CJ86" s="7"/>
+      <c r="CK86" s="7"/>
+      <c r="CL86" s="7"/>
+      <c r="CM86" s="7"/>
+      <c r="CN86" s="7"/>
+      <c r="CO86" s="7"/>
+      <c r="CP86" s="7"/>
+      <c r="CQ86" s="7"/>
+      <c r="CR86" s="7"/>
+      <c r="CS86" s="7"/>
+      <c r="CT86" s="7"/>
+      <c r="CU86" s="7"/>
+      <c r="CV86" s="7"/>
+      <c r="CW86" s="7"/>
+      <c r="CX86" s="7"/>
+      <c r="CY86" s="7"/>
+      <c r="CZ86" s="7"/>
+      <c r="DA86" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="DB86" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="DC86" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD86" s="7"/>
+      <c r="DF86" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="DG86" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI86" s="7"/>
+      <c r="DJ86" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="DK86" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="DL86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO86" s="7"/>
+      <c r="DP86" s="7"/>
+      <c r="DQ86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS86" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT86" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="DX86" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="DY86" s="7"/>
+      <c r="DZ86" s="7"/>
+      <c r="EA86" s="7"/>
+      <c r="EB86" s="7"/>
+      <c r="EC86" s="7"/>
+      <c r="ED86" s="7"/>
+      <c r="EE86" s="7"/>
+      <c r="EF86" s="7"/>
+      <c r="EG86" s="7"/>
+      <c r="EH86" s="7"/>
+      <c r="EI86" s="7"/>
+      <c r="EJ86" s="7"/>
+      <c r="EK86" s="7"/>
+      <c r="EL86" s="7"/>
+      <c r="EM86" s="7"/>
+      <c r="EN86" s="7"/>
+      <c r="EO86" s="7"/>
+      <c r="EP86" s="7"/>
+      <c r="EQ86" s="7"/>
+      <c r="ER86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA86" s="7"/>
+      <c r="FB86" s="7"/>
+      <c r="FC86" s="7"/>
+      <c r="FD86" s="7"/>
+      <c r="FE86" s="7"/>
+      <c r="FF86" s="7"/>
+      <c r="FG86" s="7"/>
+      <c r="FH86" s="7"/>
+      <c r="FI86" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="FJ86" s="7"/>
+      <c r="FK86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM86" s="7"/>
+      <c r="FN86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO86" s="7"/>
+      <c r="FP86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ86" s="7"/>
+      <c r="FR86" s="7"/>
+      <c r="FS86" s="7"/>
+      <c r="FT86" s="7"/>
+      <c r="FU86" s="7"/>
+      <c r="FV86" s="7"/>
+      <c r="FW86" s="7"/>
+      <c r="FX86" s="7"/>
+      <c r="FY86" s="7"/>
+    </row>
+    <row r="87" spans="2:181">
+      <c r="B87" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y87" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z87" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN87" s="2"/>
+      <c r="AO87" s="2"/>
+      <c r="AP87" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AQ87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU87" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW87" s="2"/>
+      <c r="AX87" s="2"/>
+      <c r="AY87" s="2"/>
+      <c r="AZ87" s="2"/>
+      <c r="BA87" s="2"/>
+      <c r="BB87" s="2"/>
+      <c r="BC87" s="2"/>
+      <c r="BD87" s="2"/>
+      <c r="BE87" s="2"/>
+      <c r="BF87" s="2"/>
+      <c r="BG87" s="2"/>
+      <c r="BH87" s="2"/>
+      <c r="BI87" s="2"/>
+      <c r="BJ87" s="2"/>
+      <c r="BK87" s="2"/>
+      <c r="BL87" s="2"/>
+      <c r="BM87" s="2"/>
+      <c r="BN87" s="2"/>
+      <c r="BO87" s="2"/>
+      <c r="BP87" s="2"/>
+      <c r="BQ87" s="2"/>
+      <c r="BR87" s="2"/>
+      <c r="BS87" s="2"/>
+      <c r="BT87" s="2"/>
+      <c r="BU87" s="2"/>
+      <c r="BV87" s="2"/>
+      <c r="BW87" s="2"/>
+      <c r="BX87" s="2"/>
+      <c r="BY87" s="2"/>
+      <c r="BZ87" s="2"/>
+      <c r="CA87" s="2"/>
+      <c r="CB87" s="2"/>
+      <c r="CC87" s="2"/>
+      <c r="CD87" s="2"/>
+      <c r="CE87" s="2"/>
+      <c r="CF87" s="2"/>
+      <c r="CG87" s="2"/>
+      <c r="CH87" s="2"/>
+      <c r="CI87" s="2"/>
+      <c r="CJ87" s="2"/>
+      <c r="CK87" s="2"/>
+      <c r="CL87" s="2"/>
+      <c r="CM87" s="2"/>
+      <c r="CN87" s="2"/>
+      <c r="CO87" s="2"/>
+      <c r="CP87" s="2"/>
+      <c r="CQ87" s="2"/>
+      <c r="CR87" s="2"/>
+      <c r="CS87" s="2"/>
+      <c r="CT87" s="2"/>
+      <c r="CU87" s="2"/>
+      <c r="CV87" s="2"/>
+      <c r="CW87" s="2"/>
+      <c r="CX87" s="2"/>
+      <c r="CY87" s="2"/>
+      <c r="CZ87" s="2"/>
+      <c r="DA87" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="DB87" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="DC87" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="DD87" s="2"/>
+      <c r="DF87" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="DG87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI87" s="2"/>
+      <c r="DJ87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DL87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO87" s="2"/>
+      <c r="DP87" s="2"/>
+      <c r="DQ87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW87" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="DX87" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="DY87" s="2"/>
+      <c r="DZ87" s="2"/>
+      <c r="EA87" s="2"/>
+      <c r="EB87" s="2"/>
+      <c r="EC87" s="2"/>
+      <c r="ED87" s="2"/>
+      <c r="EE87" s="2"/>
+      <c r="EF87" s="2"/>
+      <c r="EG87" s="2"/>
+      <c r="EH87" s="2"/>
+      <c r="EI87" s="2"/>
+      <c r="EJ87" s="2"/>
+      <c r="EK87" s="2"/>
+      <c r="EL87" s="2"/>
+      <c r="EM87" s="2"/>
+      <c r="EN87" s="2"/>
+      <c r="EO87" s="2"/>
+      <c r="EP87" s="2"/>
+      <c r="EQ87" s="2"/>
+      <c r="ER87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA87" s="2"/>
+      <c r="FB87" s="2"/>
+      <c r="FC87" s="2"/>
+      <c r="FD87" s="2"/>
+      <c r="FE87" s="2"/>
+      <c r="FF87" s="2"/>
+      <c r="FG87" s="2"/>
+      <c r="FH87" s="2"/>
+      <c r="FI87" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="FJ87" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FK87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM87" s="2"/>
+      <c r="FN87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO87" s="2"/>
+      <c r="FP87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ87" s="2"/>
+      <c r="FR87" s="2"/>
+      <c r="FS87" s="2"/>
+      <c r="FT87" s="2"/>
+      <c r="FU87" s="2"/>
+      <c r="FV87" s="2"/>
+      <c r="FW87" s="2"/>
+      <c r="FX87" s="2"/>
+      <c r="FY87" s="2"/>
+    </row>
+    <row r="88" spans="2:181">
+      <c r="B88" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="2:181">
+      <c r="B89" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="2:181">
+      <c r="B90" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN90" s="2"/>
+      <c r="AO90" s="2"/>
+      <c r="AP90" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW90" s="2"/>
+      <c r="AX90" s="2"/>
+      <c r="AY90" s="2"/>
+      <c r="AZ90" s="2"/>
+      <c r="BA90" s="2"/>
+      <c r="BB90" s="2"/>
+      <c r="BC90" s="2"/>
+      <c r="BD90" s="2"/>
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+      <c r="BJ90" s="2"/>
+      <c r="BK90" s="2"/>
+      <c r="BL90" s="2"/>
+      <c r="BM90" s="2"/>
+      <c r="BN90" s="2"/>
+      <c r="BO90" s="2"/>
+      <c r="BP90" s="2"/>
+      <c r="BQ90" s="2"/>
+      <c r="BR90" s="2"/>
+      <c r="BS90" s="2"/>
+      <c r="BT90" s="2"/>
+      <c r="BU90" s="2"/>
+      <c r="BV90" s="2"/>
+      <c r="BW90" s="2"/>
+      <c r="BX90" s="2"/>
+      <c r="BY90" s="2"/>
+      <c r="BZ90" s="2"/>
+      <c r="CA90" s="2"/>
+      <c r="CB90" s="2"/>
+      <c r="CC90" s="2"/>
+      <c r="CD90" s="2"/>
+      <c r="CE90" s="2"/>
+      <c r="CF90" s="2"/>
+      <c r="CG90" s="2"/>
+      <c r="CH90" s="2"/>
+      <c r="CI90" s="2"/>
+      <c r="CJ90" s="2"/>
+      <c r="CK90" s="2"/>
+      <c r="CL90" s="2"/>
+      <c r="CM90" s="2"/>
+      <c r="CN90" s="2"/>
+      <c r="CO90" s="2"/>
+      <c r="CP90" s="2"/>
+      <c r="CQ90" s="2"/>
+      <c r="CR90" s="2"/>
+      <c r="CS90" s="2"/>
+      <c r="CT90" s="2"/>
+      <c r="CU90" s="2"/>
+      <c r="CV90" s="2"/>
+      <c r="CW90" s="2"/>
+      <c r="CX90" s="2"/>
+      <c r="CY90" s="2"/>
+      <c r="CZ90" s="2"/>
+      <c r="DA90" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB90" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="DC90" s="2"/>
+      <c r="DD90" s="2"/>
+      <c r="DF90" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DG90" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI90" s="2"/>
+      <c r="DJ90" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DK90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DL90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO90" s="2"/>
+      <c r="DP90" s="2"/>
+      <c r="DQ90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="DX90" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DY90" s="2"/>
+      <c r="DZ90" s="2"/>
+      <c r="EA90" s="2"/>
+      <c r="EB90" s="2"/>
+      <c r="EC90" s="2"/>
+      <c r="ED90" s="2"/>
+      <c r="EE90" s="2"/>
+      <c r="EF90" s="2"/>
+      <c r="EG90" s="2"/>
+      <c r="EH90" s="2"/>
+      <c r="EI90" s="2"/>
+      <c r="EJ90" s="2"/>
+      <c r="EK90" s="2"/>
+      <c r="EL90" s="2"/>
+      <c r="EM90" s="2"/>
+      <c r="EN90" s="2"/>
+      <c r="EO90" s="2"/>
+      <c r="EP90" s="2"/>
+      <c r="EQ90" s="2"/>
+      <c r="ER90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA90" s="2"/>
+      <c r="FB90" s="2"/>
+      <c r="FC90" s="2"/>
+      <c r="FD90" s="2"/>
+      <c r="FE90" s="2"/>
+      <c r="FF90" s="2"/>
+      <c r="FG90" s="2"/>
+      <c r="FH90" s="2"/>
+      <c r="FI90" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ90" s="2"/>
+      <c r="FK90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM90" s="2"/>
+      <c r="FN90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO90" s="2"/>
+      <c r="FP90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ90" s="2"/>
+      <c r="FR90" s="2"/>
+      <c r="FS90" s="2"/>
+      <c r="FT90" s="2"/>
+      <c r="FU90" s="2"/>
+      <c r="FV90" s="2"/>
+      <c r="FW90" s="2"/>
+      <c r="FX90" s="2"/>
+      <c r="FY90" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27213A-57BC-4BDE-AE3B-E9DD81D08416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FCF2C-6753-42B8-A137-BF0D261F9974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="472">
   <si>
     <t>credit</t>
   </si>
@@ -120,15 +120,6 @@
     <t>20032</t>
   </si>
   <si>
-    <t>LTE</t>
-  </si>
-  <si>
-    <t>131.60259217</t>
-  </si>
-  <si>
-    <t>33.22932968</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -617,24 +608,12 @@
     <t>2</t>
   </si>
   <si>
-    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"","arc":"01","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2025-08-29T14:25:48Z</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>20250829142614</t>
   </si>
   <si>
@@ -645,19 +624,6 @@
   </si>
   <si>
     <t>052</t>
-  </si>
-  <si>
-    <t>2025/08/29 14:25:56</t>
-  </si>
-  <si>
-    <t>9749</t>
-  </si>
-  <si>
-    <t>2F2C5C0AA9F7478F4079803FECEFE14404811959F51F93214F97A26BF0CB2F5068B438331A54E6973499F78489309CCE073643238E49F9B0D3662B9C00F018DF443DA103AA0BA820A3A03FB9F1B4CC5F6832B3B2A6279F2E2D4B1FAC386BECB59B358024EE6991B179DCDD3A560D5FEB1B7277D0EBBC70B73BA98ED68B37E162E9B77D3A500E2A78CD2DFDA0AEB5C02F1CB2BFA0F832562EA2225275A75550C09CA7703A475FA1F80F2C744661FD1C07A460FBF3DBB85B85C065A8CBF936195EBE8DCC949CA46BF74CE043E3833925F07872BF7EC48D47FF0B64CB760EE604B2B7FA7B3659AB87A2F4073FE95C3292FED64444E7FCA27CA335B8D5AA6A9B425A3170841971A97103F514E76DD88D72595F07CB127A938CBDC083D0A37705F72288E280E008341E35A9AA7AA12A9A6A401D1FB20CFF78B115EF1F7446B97678440B15AB98DD72FBE6CAD32833F429790BA654AD822CA5F2F4AEC5BE322BFE71115725AFEC02C43E73E6712005F67EED4450A3341EF79D1A6FDD95AF4012F5DCF1</t>
-  </si>
-  <si>
-    <t>20250829142548</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20250911-02</t>
@@ -982,58 +948,10 @@
     <t>2025-09-11T16:47:36Z</t>
   </si>
   <si>
-    <t>20250911174154</t>
-  </si>
-  <si>
-    <t>20250911-41</t>
-  </si>
-  <si>
-    <t>2025-09-11T17:41:54Z</t>
-  </si>
-  <si>
-    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"86","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>2025/09/11 17:42:26</t>
-  </si>
-  <si>
-    <t>35416</t>
-  </si>
-  <si>
-    <t>89380EC74B01C2CC8F039E3A9DEC85C35D7A4D8EE812EAF03AD97E8ED49787B36D6A9DD6CD4E529CFEEEAB6BA2C98B6FB0E85672393655110E526E9EE80BE2FD916605F4346C30B4627C0FC97B7EA4BA4BEC2AECB774007FB4D0A9E9C2B72924069564A3ABD3F451B3A368B2DA6F56537D488D1BD1C6F73A7F89296CC97415507E344087D95F07FA72A354380E3158027441F1A197BF3E21D462E73B3CA018285B7C0E9661A8B07A6E0D263A6A9450F747CEAC7D35183ADB45D02659A295081D298BFDE5C0EB64DE5BCAF1ACCF327DE4BEDA9543A0EA8CDA1B880E8266E59C4B1C8DE6F0F61E435BBB94F60DC1A65DBAE5C68C9DF116821C30901699A8200E53846200EF21543111563EBF00126C8FDAAACCD162037CF8879E3D9D0EB915A9E0CA6AE2A07C2D529B56E9732AD9F6C2CABB6755B47FB818C988AD30D81B8040F6C198068404FC8FC97C0337ECDD7D1447E9441CB01C9E71B5906E8437D1A5AFE06C66554CC164ADB494A828D4507B9CF689DA3B9FC3A67B6A6586437289D41E9B</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>20250911-42</t>
-  </si>
-  <si>
-    <t>2025-09-11T17:45:03Z</t>
-  </si>
-  <si>
-    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"87","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
-  </si>
-  <si>
-    <t>20250911174503</t>
-  </si>
-  <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>0DD134DAD9CD5230FB92A3B191CBE4A30EC0212431C842C65505E8063858A0E4493B5A1C072B1F6DDFFB7429EF9369BCA145FD7D5CAD54DEAE00A6ED902BE48FA3C206FFC002F16AB3135F9A2A96FB14EB2432E3356A9F9F02C9E5279FEC90DAFE3D50EADF1E377B5993A7CE950BDB38142D9107128EA6AAD200C0953E78800159E49330C6C172D8671D29018AF9F1F0F660596F59712AB4E7DBE42610AB4D127A5C1B51C922E8A5C94FD81214BEE4C44CF3727A078E89951197FEC2E49AB8A82BEFD288CD555E37EB78B140B62658E1A61915F637A3A77077F0003CB0A39E42F02642AAF4ABDCEA407E809F9D2265E6C807581AB4A59DB41074AFDAD305E751D2CED8AFFDEF8CBB772B4CE8B4D6836CAF6A27FE4A4E22BFBDEBE5AFB0F02BD132F488AF003F6707604BE3781224059F891A8F197207031E93152CE16689370CC5CAB7BDD2A9C886F07EAEDB05443F9C0369E9EC91482320EACEC66DBAC61BEDFAEE361AD03CB6A529A3E6227F4892099545EC03A458CDBDCF93D066B7E12324</t>
-  </si>
-  <si>
-    <t>2025/09/11 17:45:10</t>
-  </si>
-  <si>
-    <t>8868</t>
-  </si>
-  <si>
-    <t>87</t>
   </si>
   <si>
     <t>取消失敗データ（オーソリNG)</t>
@@ -1044,15 +962,6 @@
       <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20250911180546</t>
-  </si>
-  <si>
-    <t>20250911-45</t>
-  </si>
-  <si>
-    <t>2025-09-11T18:05:46Z</t>
   </si>
   <si>
     <t>20250911181025</t>
@@ -1420,6 +1329,313 @@
       <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250917140501</t>
+  </si>
+  <si>
+    <t>20250917-02</t>
+  </si>
+  <si>
+    <t>2025-09-17T14:05:01Z</t>
+  </si>
+  <si>
+    <t>{"after_balance":4581,"before_balance":4582,"card_no":"************7697","edy_transaction_no":"917140501"}</t>
+  </si>
+  <si>
+    <t>楽天Edy</t>
+  </si>
+  <si>
+    <t>2025/09/17 14:05:03</t>
+  </si>
+  <si>
+    <t>917140501</t>
+  </si>
+  <si>
+    <t>92BAFEC8596CF4123518DFD7232E0272CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>4582</t>
+  </si>
+  <si>
+    <t>4581</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>G0017236</t>
+  </si>
+  <si>
+    <t>20250917141438</t>
+  </si>
+  <si>
+    <t>20250917-03</t>
+  </si>
+  <si>
+    <t>2025-09-17T14:14:38Z</t>
+  </si>
+  <si>
+    <t>{"card_exp_date":"XX/XX","card_no":"6900112000000***"}</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>iD</t>
+  </si>
+  <si>
+    <t>2025/09/17 14:14:45</t>
+  </si>
+  <si>
+    <t>917141400</t>
+  </si>
+  <si>
+    <t>C36DED50B81EC2013CFD572284E99CB5CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>641419302E55F66B9A034B923461A7CACA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>20250917142503</t>
+  </si>
+  <si>
+    <t>20250917-04</t>
+  </si>
+  <si>
+    <t>2025-09-17T14:25:03Z</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8704658035F1CD3CFE5D7E6BC715FC98CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>2025/09/17 14:25:07</t>
+  </si>
+  <si>
+    <t>917142501</t>
+  </si>
+  <si>
+    <t>20856</t>
+  </si>
+  <si>
+    <t>20855</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>01300079300001200068</t>
+  </si>
+  <si>
+    <t>3BE84FD6541EA4F6A65BCF77EF13A4C1CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>{"after_balance":20855,"before_balance":20856,"card_no":"769000000034****"}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250917-05</t>
+  </si>
+  <si>
+    <t>2025-09-17T14:37:17Z</t>
+  </si>
+  <si>
+    <t>{"after_balance":15669,"before_balance":15670,"card_no":"JK***********0020"}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通系電子マネー</t>
+  </si>
+  <si>
+    <t>2025/09/17 14:37:24</t>
+  </si>
+  <si>
+    <t>917143700</t>
+  </si>
+  <si>
+    <t>3A5B89D01EBE16576E1BB1743AB6564278D10C4E586D2A06B1DEF9574BD87AF9</t>
+  </si>
+  <si>
+    <t>15670</t>
+  </si>
+  <si>
+    <t>15669</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>34E4D6A83E43E198D18C69DB815F7E70CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>JE10710805376</t>
+  </si>
+  <si>
+    <t>11402</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>11401</t>
+  </si>
+  <si>
+    <t>20250917143717</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250917145415</t>
+  </si>
+  <si>
+    <t>20250917-06</t>
+  </si>
+  <si>
+    <t>2025-09-17T14:54:15Z</t>
+  </si>
+  <si>
+    <t>{"after_balance":9707,"before_balance":9708,"card_no":"****170036476621"}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WAON</t>
+  </si>
+  <si>
+    <t>2025/09/17 14:54:16</t>
+  </si>
+  <si>
+    <t>917145400</t>
+  </si>
+  <si>
+    <t>C02B555A70100862ED7E824FDCCA9693CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>9708</t>
+  </si>
+  <si>
+    <t>9707</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>696D22E77AC4E6D410594B9CFCF99FAECA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>CEAA4929723357F2DF4F7F1A79735F37CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>FFACCEB27875545C6225980F5199382ACA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>20250917155850</t>
+  </si>
+  <si>
+    <t>20250917-12</t>
+  </si>
+  <si>
+    <t>2025-09-17T15:58:50Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"91","arc":"00","brand":"AMEX","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2025/09/17 15:59:06</t>
+  </si>
+  <si>
+    <t>23016</t>
+  </si>
+  <si>
+    <t>BC33B329A086C5B3A7E6E71A4D6CBB0683684B127F0919189A792A6B5D1AC0FFB0DBF29206581CD6A0576A23726032CA9992AA3D6A2F0A102775A1974BCB1D0C756476AB310C7E4443D13609A81DB2EAE81B68079F44B809566AAC2B61A33002EEE2BC05594B94DEC914519D553246D53AE53347E1C14B5A091F63154D4F6603C56EEE85CEA5F7B770620539D8516FEEB5E8143DD7AE050249384789F9B62672BF50A0B83B0D3DC3EC2DC862873E652D1B0C963B948E2168591E865E149EC3CA5C2EC7F738AB59E5672BDFDED2553C18A58B6D264ADAFF996E2247402924849218020DB50A7E21AB32FC3CBC1154B0BDBEB5CBC767FA390AEAC44B40D7E7039086E815B26BFBAE2CAE9CE5CFB7F3B69F21CE3CC7F4C6CC63D88DDC052FAD03861BE871AEBDFB1E6A9EBC62C3ED4C2FC9982EF376C03F05235CEF6540F2536781C9234B8B96F4310A0A95FCDB036C2447017F305D0267E2DE90D2261379D7100C9890243A274D23E2A8E36483534AE1577BBF7D8166952CAE2D74BCA93DFFA11B</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>20250917160136</t>
+  </si>
+  <si>
+    <t>20250917-13</t>
+  </si>
+  <si>
+    <t>2025-09-17T16:01:36Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"92","arc":"00","brand":"AMEX","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>2025/09/17 16:01:44</t>
+  </si>
+  <si>
+    <t>7917</t>
+  </si>
+  <si>
+    <t>50AD35B877CB420860325396D3C5C9DA9347C698F84012A1A0C7BD9C343EF5F7F073339291191329EAF42F4DEBAE75C1C839819439F2A003BE496B21E2A5829B21CAD10236576C137CEC3298D9C9D75DAC3735F4A5C058010F25C923D62490FD12F2895F885EE3F67F143D8A921AE068B766BE7ACEF6AE1325EA7FE5D0081806F3B7C1DF86B9667DC13DE849CB9E86AD585BEC08624B74CE69F0274DB888D456A6FBE1612DCE611384A68EE6CE59639C10E663470F307459F4AF79E88CF6637ECB7F153C0CC8C7CBAE27A54E44815B7198B4C4EE1BCA18FE6E768506938F485A599B19DD9367425FA2405CE4B57F929303F76FC146398EA5D1BEE6F3CAEA7FFDA8B356B5DAF3268E60D8FB812ADB5D4E43E61CD27A31331F45B7BC2D57CF4E7FCAB0C4C47DB7FB3EC449A6F3BAFFF141A77BCDE15B3EC90D8A0CB5667151534CB699F4CF2248CE7122948FBA62D7E717B46D8A975E7BB7869D0B874973890751552BEEC8C0DE47D17105A6E97DE4C4947AD4FD8D28FFF720F449021B64CD6248</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>20250917163011</t>
+  </si>
+  <si>
+    <t>20250917-14</t>
+  </si>
+  <si>
+    <t>2025-09-17T16:30:11Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"","arc":"01","brand":"AMEX","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>2025/09/17 16:30:22</t>
+  </si>
+  <si>
+    <t>11312</t>
+  </si>
+  <si>
+    <t>5F148F57BD1BA9B6A2C61877404830583939DC62ECE0AEABA792DE1057AD6F715D8CF905E927A779B8CF8555EEBBE7E334D216A48E276E673431120E7570FD9CC2DB2FB7AFD34E6B3B032439C67255B23D8AB63E54ABB34B72ECACDA511193D6260B872E2ED0CE0838BEB77A0805FBAE61D02EF49B7375DAD54C63E165B05BF12903CBD473213ADCEB04FBD527F2A3B1920A0D113B052B66AFAA06AC678C0079BC895BEC2D8DA79A74DE53C9D96609B6C32D2D603EC35A8358E59142E2BBA0E3BBF53C838DAFB484D0B005D57E0998EEE3C7E519352ED097A7CE9FA662E07EC1F2D6467F7E0DEF72528C62FC3EE203BE17C67895F19B44BFEAD74E8AD61F4951A2ED4A91818BCCCC17A14E3ED5A0E7B7980244032AF0D9CD09A2F2137643198C51FDF60235C40543892CCE71032EACB7D29E4BD1FDE6ABC086FAB96F1367B7F79F0F7C0F44BF11E104D0795C3CB9E88B4CE2EA7DED7F8D84943A8340FB671E11F83A82C976714BAAE5263EF197F41C440C1E6B6B9B7E01618C3A90B2290E7D95</t>
+  </si>
+  <si>
+    <t>20250917-17</t>
+  </si>
+  <si>
+    <t>2025-09-17T16:34:03Z</t>
+  </si>
+  <si>
+    <t>20250917163403</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1519,6 +1735,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1802,8 +2019,8 @@
   <dimension ref="A2:FY90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1925,560 +2142,560 @@
   <sheetData>
     <row r="2" spans="1:181">
       <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:181">
       <c r="A3" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="DM3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="DR3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="DS3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="DT3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="DV3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="DW3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="DX3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="DY3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="DZ3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="EA3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="EB3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="ED3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="EE3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="EF3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="EG3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="EH3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="EI3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="EK3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="EL3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="EM3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="EN3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="EO3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="EP3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="EQ3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="ER3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="ES3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="ET3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="EU3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="EV3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="EW3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="EX3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="EY3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="EZ3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BH3" s="3" t="s">
+      <c r="FA3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="FB3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="FC3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BI3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="DA3" s="3" t="s">
+      <c r="FD3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="FE3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="FF3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="DB3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="DC3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="DM3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="DO3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="DS3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="DT3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="DU3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="DX3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="DY3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="DZ3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="EA3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="EB3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="EC3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="ED3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="EE3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="EF3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="EG3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="EH3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="EI3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="EJ3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="EK3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="EL3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="EM3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="EN3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="EO3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="EP3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="EQ3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="ER3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="ES3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="ET3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="EU3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="EV3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="EW3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="EX3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="EY3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="EZ3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="FA3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="FB3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="FC3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="FD3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="FE3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="FF3" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="FG3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="FH3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="FI3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="FJ3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="FK3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="FL3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="FM3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="FN3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="FO3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="FP3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="FQ3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="FR3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="FS3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="FT3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="FU3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="FV3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="FW3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="FX3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="FY3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:181">
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>286</v>
+        <v>445</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>287</v>
+        <v>446</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -2487,22 +2704,22 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>288</v>
+        <v>447</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>5</v>
@@ -2521,7 +2738,7 @@
         <v>19</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
@@ -2534,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -2543,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>2</v>
@@ -2575,22 +2792,22 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2" t="s">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="AQ4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV4" s="2" t="s">
         <v>2</v>
@@ -2624,7 +2841,7 @@
         <v>7</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="BJ4" s="2" t="s">
         <v>2</v>
@@ -2642,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>293</v>
+        <v>452</v>
       </c>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
@@ -2686,7 +2903,7 @@
       <c r="DC4" s="2"/>
       <c r="DD4" s="2"/>
       <c r="DF4" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="DG4" s="2" t="s">
         <v>19</v>
@@ -2733,10 +2950,10 @@
         <v>14</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="DX4" s="2" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="DY4" s="2" t="s">
         <v>13</v>
@@ -2754,7 +2971,7 @@
       <c r="ED4" s="2"/>
       <c r="EE4" s="2"/>
       <c r="EF4" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="EG4" s="2"/>
       <c r="EH4" s="2"/>
@@ -2805,7 +3022,7 @@
         <v>8</v>
       </c>
       <c r="FE4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="FF4" s="2" t="s">
         <v>7</v>
@@ -2814,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="FH4" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="FI4" s="2"/>
       <c r="FJ4" s="2"/>
@@ -2825,13 +3042,13 @@
         <v>5</v>
       </c>
       <c r="FM4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="FN4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="FO4" s="2" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="FP4" s="2" t="s">
         <v>2</v>
@@ -2848,13 +3065,13 @@
     </row>
     <row r="5" spans="1:181">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>462</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>190</v>
+        <v>463</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -2863,22 +3080,22 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>191</v>
+        <v>464</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>5</v>
@@ -2897,7 +3114,7 @@
         <v>19</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>197</v>
+        <v>466</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
@@ -2910,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -2919,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>2</v>
@@ -2951,22 +3168,22 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2" t="s">
-        <v>198</v>
+        <v>467</v>
       </c>
       <c r="AQ5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="AV5" s="2" t="s">
         <v>2</v>
@@ -3000,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="BJ5" s="2" t="s">
         <v>2</v>
@@ -3018,7 +3235,7 @@
         <v>20</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>199</v>
+        <v>468</v>
       </c>
       <c r="BP5" s="2"/>
       <c r="BQ5" s="2"/>
@@ -3062,7 +3279,7 @@
       <c r="DC5" s="2"/>
       <c r="DD5" s="2"/>
       <c r="DF5" s="2" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="DG5" s="2" t="s">
         <v>19</v>
@@ -3107,10 +3324,10 @@
         <v>14</v>
       </c>
       <c r="DW5" s="2" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="DX5" s="2" t="s">
-        <v>197</v>
+        <v>466</v>
       </c>
       <c r="DY5" s="2" t="s">
         <v>13</v>
@@ -3128,7 +3345,7 @@
       <c r="ED5" s="2"/>
       <c r="EE5" s="2"/>
       <c r="EF5" s="2" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="EG5" s="2"/>
       <c r="EH5" s="2"/>
@@ -3179,7 +3396,7 @@
         <v>8</v>
       </c>
       <c r="FE5" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="FF5" s="2" t="s">
         <v>7</v>
@@ -3188,7 +3405,7 @@
         <v>6</v>
       </c>
       <c r="FH5" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="FI5" s="2"/>
       <c r="FJ5" s="2"/>
@@ -3221,10 +3438,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -3236,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
@@ -3246,37 +3463,37 @@
     </row>
     <row r="8" spans="1:181">
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>298</v>
+        <v>454</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>295</v>
+        <v>455</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>296</v>
+        <v>456</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>297</v>
+        <v>457</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>5</v>
@@ -3295,10 +3512,10 @@
         <v>19</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>301</v>
+        <v>458</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>291</v>
+        <v>450</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>2</v>
@@ -3310,10 +3527,10 @@
         <v>5</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -3321,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>2</v>
@@ -3353,22 +3570,22 @@
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2" t="s">
-        <v>302</v>
+        <v>459</v>
       </c>
       <c r="AQ8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV8" s="2" t="s">
         <v>2</v>
@@ -3402,7 +3619,7 @@
         <v>7</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="BJ8" s="2" t="s">
         <v>2</v>
@@ -3420,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2"/>
@@ -3464,7 +3681,7 @@
       <c r="DC8" s="2"/>
       <c r="DD8" s="2"/>
       <c r="DF8" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="DG8" s="2" t="s">
         <v>19</v>
@@ -3509,10 +3726,10 @@
         <v>14</v>
       </c>
       <c r="DW8" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="DX8" s="2" t="s">
-        <v>301</v>
+        <v>458</v>
       </c>
       <c r="DY8" s="2" t="s">
         <v>13</v>
@@ -3530,10 +3747,10 @@
       <c r="ED8" s="2"/>
       <c r="EE8" s="2"/>
       <c r="EF8" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="EG8" s="2" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="EH8" s="2"/>
       <c r="EI8" s="2"/>
@@ -3583,7 +3800,7 @@
         <v>8</v>
       </c>
       <c r="FE8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="FF8" s="2" t="s">
         <v>7</v>
@@ -3603,13 +3820,13 @@
         <v>5</v>
       </c>
       <c r="FM8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="FN8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="FO8" s="2" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="FP8" s="2" t="s">
         <v>2</v>
@@ -3626,25 +3843,25 @@
     </row>
     <row r="9" spans="1:181">
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>305</v>
+        <v>471</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>306</v>
+        <v>469</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>307</v>
+        <v>470</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
@@ -3654,16 +3871,16 @@
     </row>
     <row r="10" spans="1:181">
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
@@ -3672,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -3682,18 +3899,18 @@
     </row>
     <row r="12" spans="1:181">
       <c r="A12" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:181">
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
@@ -3702,22 +3919,22 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>5</v>
@@ -3732,13 +3949,13 @@
         <v>14</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
@@ -3751,18 +3968,18 @@
         <v>5</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>2</v>
@@ -3794,22 +4011,22 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AQ13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV13" s="2" t="s">
         <v>2</v>
@@ -3866,25 +4083,25 @@
       <c r="CT13" s="2"/>
       <c r="CU13" s="2"/>
       <c r="CV13" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="CW13" s="2"/>
       <c r="CX13" s="2"/>
       <c r="CY13" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="CZ13" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="DA13" s="2"/>
       <c r="DB13" s="2"/>
       <c r="DC13" s="2"/>
       <c r="DD13" s="2"/>
       <c r="DF13" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="DG13" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="DH13" s="2" t="s">
         <v>5</v>
@@ -3909,7 +4126,7 @@
         <v>2</v>
       </c>
       <c r="DP13" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="DQ13" s="2" t="s">
         <v>18</v>
@@ -3930,24 +4147,24 @@
         <v>14</v>
       </c>
       <c r="DW13" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="DX13" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="DY13" s="2"/>
       <c r="DZ13" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="EA13" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="EB13" s="2"/>
       <c r="EC13" s="2"/>
       <c r="ED13" s="2"/>
       <c r="EE13" s="2"/>
       <c r="EF13" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="EG13" s="2"/>
       <c r="EH13" s="2"/>
@@ -3960,7 +4177,7 @@
       <c r="EO13" s="2"/>
       <c r="EP13" s="2"/>
       <c r="EQ13" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="ER13" s="2" t="s">
         <v>2</v>
@@ -3992,7 +4209,7 @@
       <c r="FA13" s="2"/>
       <c r="FB13" s="2"/>
       <c r="FC13" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="FD13" s="2"/>
       <c r="FE13" s="2"/>
@@ -4027,13 +4244,13 @@
     </row>
     <row r="14" spans="1:181">
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
@@ -4042,13 +4259,13 @@
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -4058,10 +4275,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>3</v>
@@ -4070,26 +4287,26 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:181">
       <c r="B16" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>3</v>
@@ -4101,47 +4318,47 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="18" spans="1:181">
       <c r="B18" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>5</v>
@@ -4156,16 +4373,16 @@
         <v>14</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>2</v>
@@ -4177,22 +4394,22 @@
         <v>5</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE18" s="2" t="s">
         <v>2</v>
@@ -4224,22 +4441,22 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="AQ18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV18" s="2" t="s">
         <v>2</v>
@@ -4296,27 +4513,27 @@
       <c r="CT18" s="2"/>
       <c r="CU18" s="2"/>
       <c r="CV18" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="CW18" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="CX18" s="2"/>
       <c r="CY18" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="CZ18" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="DA18" s="2"/>
       <c r="DB18" s="2"/>
       <c r="DC18" s="2"/>
       <c r="DD18" s="2"/>
       <c r="DF18" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="DG18" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="DH18" s="2" t="s">
         <v>2</v>
@@ -4339,7 +4556,7 @@
       </c>
       <c r="DO18" s="2"/>
       <c r="DP18" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="DQ18" s="2" t="s">
         <v>18</v>
@@ -4360,24 +4577,24 @@
         <v>14</v>
       </c>
       <c r="DW18" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="DX18" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="DY18" s="2"/>
       <c r="DZ18" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="EA18" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="EB18" s="2"/>
       <c r="EC18" s="2"/>
       <c r="ED18" s="2"/>
       <c r="EE18" s="2"/>
       <c r="EF18" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="EG18" s="2"/>
       <c r="EH18" s="2"/>
@@ -4390,7 +4607,7 @@
       <c r="EO18" s="2"/>
       <c r="EP18" s="2"/>
       <c r="EQ18" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="ER18" s="2" t="s">
         <v>2</v>
@@ -4422,7 +4639,7 @@
       <c r="FA18" s="2"/>
       <c r="FB18" s="2"/>
       <c r="FC18" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="FD18" s="2"/>
       <c r="FE18" s="2"/>
@@ -4457,72 +4674,72 @@
     </row>
     <row r="19" spans="1:181">
       <c r="B19" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:181">
       <c r="B20" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:181">
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>2</v>
@@ -4531,37 +4748,383 @@
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="23" spans="1:181">
       <c r="A23" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:181">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>265</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BR24" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="BS24" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="BT24" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="BU24" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="BV24" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BW24" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="BX24" s="2"/>
+      <c r="BY24" s="2"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="2"/>
+      <c r="CB24" s="2"/>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+      <c r="CF24" s="2"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
+      <c r="CJ24" s="2"/>
+      <c r="CK24" s="2"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2"/>
+      <c r="CN24" s="2"/>
+      <c r="CO24" s="2"/>
+      <c r="CP24" s="2"/>
+      <c r="CQ24" s="2"/>
+      <c r="CR24" s="2"/>
+      <c r="CS24" s="2"/>
+      <c r="CT24" s="2"/>
+      <c r="CU24" s="2"/>
+      <c r="CV24" s="2"/>
+      <c r="CW24" s="2"/>
+      <c r="CX24" s="2"/>
+      <c r="CY24" s="2"/>
+      <c r="CZ24" s="2"/>
+      <c r="DA24" s="2"/>
+      <c r="DB24" s="2"/>
+      <c r="DC24" s="2"/>
+      <c r="DD24" s="2"/>
+      <c r="DF24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="DG24" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="DH24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI24" s="2"/>
+      <c r="DJ24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP24" s="2"/>
+      <c r="DQ24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="DX24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="DY24" s="2"/>
+      <c r="DZ24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="EA24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="EB24" s="2"/>
+      <c r="EC24" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="ED24" s="2"/>
+      <c r="EE24" s="2"/>
+      <c r="EF24" s="2"/>
+      <c r="EG24" s="2"/>
+      <c r="EH24" s="2"/>
+      <c r="EI24" s="2"/>
+      <c r="EJ24" s="2"/>
+      <c r="EK24" s="2"/>
+      <c r="EL24" s="2"/>
+      <c r="EM24" s="2"/>
+      <c r="EN24" s="2"/>
+      <c r="EO24" s="2"/>
+      <c r="EP24" s="2"/>
+      <c r="EQ24" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="ER24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="FB24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="FC24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD24" s="2"/>
+      <c r="FE24" s="2"/>
+      <c r="FF24" s="2"/>
+      <c r="FG24" s="2"/>
+      <c r="FH24" s="2"/>
+      <c r="FI24" s="2"/>
+      <c r="FJ24" s="2"/>
+      <c r="FK24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM24" s="2"/>
+      <c r="FN24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO24" s="2"/>
+      <c r="FP24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ24" s="2"/>
+      <c r="FR24" s="2"/>
+      <c r="FS24" s="2"/>
+      <c r="FT24" s="2"/>
+      <c r="FU24" s="2"/>
+      <c r="FV24" s="2"/>
+      <c r="FW24" s="2"/>
+      <c r="FX24" s="2"/>
+      <c r="FY24" s="2"/>
     </row>
     <row r="25" spans="1:181">
       <c r="B25" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>3</v>
@@ -4570,13 +5133,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -4586,72 +5149,412 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:181">
       <c r="B27" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:181">
       <c r="B29" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:181">
       <c r="B30" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:181">
       <c r="B31" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:181">
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:181">
       <c r="A34" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:181">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>265</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO35" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="2"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="2"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="2"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="2"/>
+      <c r="CM35" s="2"/>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="2"/>
+      <c r="CQ35" s="2"/>
+      <c r="CR35" s="2"/>
+      <c r="CS35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CU35" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CV35" s="2"/>
+      <c r="CW35" s="2"/>
+      <c r="CX35" s="2"/>
+      <c r="CY35" s="2"/>
+      <c r="CZ35" s="2"/>
+      <c r="DA35" s="2"/>
+      <c r="DB35" s="2"/>
+      <c r="DC35" s="2"/>
+      <c r="DD35" s="2"/>
+      <c r="DF35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="DG35" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="DH35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI35" s="2"/>
+      <c r="DJ35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO35" s="2"/>
+      <c r="DP35" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="DQ35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="DX35" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="DY35" s="2"/>
+      <c r="DZ35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EA35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EB35" s="2"/>
+      <c r="EC35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="ED35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="EE35" s="2"/>
+      <c r="EF35" s="2"/>
+      <c r="EG35" s="2"/>
+      <c r="EH35" s="2"/>
+      <c r="EI35" s="2"/>
+      <c r="EJ35" s="2"/>
+      <c r="EK35" s="2"/>
+      <c r="EL35" s="2"/>
+      <c r="EM35" s="2"/>
+      <c r="EN35" s="2"/>
+      <c r="EO35" s="2"/>
+      <c r="EP35" s="2"/>
+      <c r="EQ35" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="ER35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA35" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="FB35" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="FC35" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD35" s="2"/>
+      <c r="FE35" s="2"/>
+      <c r="FF35" s="2"/>
+      <c r="FG35" s="2"/>
+      <c r="FH35" s="2"/>
+      <c r="FI35" s="2"/>
+      <c r="FJ35" s="2"/>
+      <c r="FK35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM35" s="2"/>
+      <c r="FN35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO35" s="2"/>
+      <c r="FP35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ35" s="2"/>
+      <c r="FR35" s="2"/>
+      <c r="FS35" s="2"/>
+      <c r="FT35" s="2"/>
+      <c r="FU35" s="2"/>
+      <c r="FV35" s="2"/>
+      <c r="FW35" s="2"/>
+      <c r="FX35" s="2"/>
+      <c r="FY35" s="2"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:181">
       <c r="B36" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>3</v>
@@ -4660,87 +5563,419 @@
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:181">
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:181">
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:181">
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:181">
       <c r="B41" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:181">
       <c r="B42" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:181">
       <c r="B43" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:181">
       <c r="A45" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:181">
       <c r="B46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>265</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+      <c r="BQ46" s="2"/>
+      <c r="BR46" s="2"/>
+      <c r="BS46" s="2"/>
+      <c r="BT46" s="2"/>
+      <c r="BU46" s="2"/>
+      <c r="BV46" s="2"/>
+      <c r="BW46" s="2"/>
+      <c r="BX46" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="BY46" s="2"/>
+      <c r="BZ46" s="2"/>
+      <c r="CA46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CB46" s="2"/>
+      <c r="CC46" s="2"/>
+      <c r="CD46" s="2"/>
+      <c r="CE46" s="2"/>
+      <c r="CF46" s="2"/>
+      <c r="CG46" s="2"/>
+      <c r="CH46" s="2"/>
+      <c r="CI46" s="2"/>
+      <c r="CJ46" s="2"/>
+      <c r="CK46" s="2"/>
+      <c r="CL46" s="2"/>
+      <c r="CM46" s="2"/>
+      <c r="CN46" s="2"/>
+      <c r="CO46" s="2"/>
+      <c r="CP46" s="2"/>
+      <c r="CQ46" s="2"/>
+      <c r="CR46" s="2"/>
+      <c r="CS46" s="2"/>
+      <c r="CT46" s="2"/>
+      <c r="CU46" s="2"/>
+      <c r="CV46" s="2"/>
+      <c r="CW46" s="2"/>
+      <c r="CX46" s="2"/>
+      <c r="CY46" s="2"/>
+      <c r="CZ46" s="2"/>
+      <c r="DA46" s="2"/>
+      <c r="DB46" s="2"/>
+      <c r="DC46" s="2"/>
+      <c r="DD46" s="2"/>
+      <c r="DF46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="DG46" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="DH46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI46" s="2"/>
+      <c r="DJ46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP46" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="DQ46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW46" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="DX46" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="DY46" s="2"/>
+      <c r="DZ46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="EA46" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="EB46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC46" s="2"/>
+      <c r="ED46" s="2"/>
+      <c r="EE46" s="2"/>
+      <c r="EF46" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="EG46" s="2"/>
+      <c r="EH46" s="2"/>
+      <c r="EI46" s="2"/>
+      <c r="EJ46" s="2"/>
+      <c r="EK46" s="2"/>
+      <c r="EL46" s="2"/>
+      <c r="EM46" s="2"/>
+      <c r="EN46" s="2"/>
+      <c r="EO46" s="2"/>
+      <c r="EP46" s="2"/>
+      <c r="EQ46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="ER46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA46" s="2"/>
+      <c r="FB46" s="2"/>
+      <c r="FC46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD46" s="2"/>
+      <c r="FE46" s="2"/>
+      <c r="FF46" s="2"/>
+      <c r="FG46" s="2"/>
+      <c r="FH46" s="2"/>
+      <c r="FI46" s="2"/>
+      <c r="FJ46" s="2"/>
+      <c r="FK46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM46" s="2"/>
+      <c r="FN46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO46" s="2"/>
+      <c r="FP46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ46" s="2"/>
+      <c r="FR46" s="2"/>
+      <c r="FS46" s="2"/>
+      <c r="FT46" s="2"/>
+      <c r="FU46" s="2"/>
+      <c r="FV46" s="2"/>
+      <c r="FW46" s="2"/>
+      <c r="FX46" s="2"/>
+      <c r="FY46" s="2"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:181">
       <c r="B47" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>3</v>
@@ -4749,87 +5984,427 @@
         <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:181">
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:181">
+      <c r="B49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:181">
+      <c r="B51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:181">
+      <c r="B52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:181">
+      <c r="B53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:181">
+      <c r="B54" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:181">
+      <c r="A56" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:181">
+      <c r="B57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>265</v>
       </c>
+      <c r="J57" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN57" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO57" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP57" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT57" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="2"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="2"/>
+      <c r="BK57" s="2"/>
+      <c r="BL57" s="2"/>
+      <c r="BM57" s="2"/>
+      <c r="BN57" s="2"/>
+      <c r="BO57" s="2"/>
+      <c r="BP57" s="2"/>
+      <c r="BQ57" s="2"/>
+      <c r="BR57" s="2"/>
+      <c r="BS57" s="2"/>
+      <c r="BT57" s="2"/>
+      <c r="BU57" s="2"/>
+      <c r="BV57" s="2"/>
+      <c r="BW57" s="2"/>
+      <c r="BX57" s="2"/>
+      <c r="BY57" s="2"/>
+      <c r="BZ57" s="2"/>
+      <c r="CA57" s="2"/>
+      <c r="CB57" s="2"/>
+      <c r="CC57" s="2"/>
+      <c r="CD57" s="2"/>
+      <c r="CE57" s="2"/>
+      <c r="CF57" s="2"/>
+      <c r="CG57" s="2"/>
+      <c r="CH57" s="2"/>
+      <c r="CI57" s="2"/>
+      <c r="CJ57" s="2"/>
+      <c r="CK57" s="2"/>
+      <c r="CL57" s="2"/>
+      <c r="CM57" s="2"/>
+      <c r="CN57" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="CO57" s="2"/>
+      <c r="CP57" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="CQ57" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CR57" s="2"/>
+      <c r="CS57" s="2"/>
+      <c r="CT57" s="2"/>
+      <c r="CU57" s="2"/>
+      <c r="CV57" s="2"/>
+      <c r="CW57" s="2"/>
+      <c r="CX57" s="2"/>
+      <c r="CY57" s="2"/>
+      <c r="CZ57" s="2"/>
+      <c r="DA57" s="2"/>
+      <c r="DB57" s="2"/>
+      <c r="DC57" s="2"/>
+      <c r="DD57" s="2"/>
+      <c r="DF57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="DG57" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="DH57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI57" s="2"/>
+      <c r="DJ57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO57" s="2"/>
+      <c r="DP57" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="DQ57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="DX57" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="DY57" s="2"/>
+      <c r="DZ57" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="EA57" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="EB57" s="2"/>
+      <c r="EC57" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="ED57" s="2"/>
+      <c r="EE57" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="EF57" s="2"/>
+      <c r="EG57" s="2"/>
+      <c r="EH57" s="2"/>
+      <c r="EI57" s="2"/>
+      <c r="EJ57" s="2"/>
+      <c r="EK57" s="2"/>
+      <c r="EL57" s="2"/>
+      <c r="EM57" s="2"/>
+      <c r="EN57" s="2"/>
+      <c r="EO57" s="2"/>
+      <c r="EP57" s="2"/>
+      <c r="EQ57" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="ER57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA57" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="FB57" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="FC57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD57" s="2"/>
+      <c r="FE57" s="2"/>
+      <c r="FF57" s="2"/>
+      <c r="FG57" s="2"/>
+      <c r="FH57" s="2"/>
+      <c r="FI57" s="2"/>
+      <c r="FJ57" s="2"/>
+      <c r="FK57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM57" s="2"/>
+      <c r="FN57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO57" s="2"/>
+      <c r="FP57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ57" s="2"/>
+      <c r="FR57" s="2"/>
+      <c r="FS57" s="2"/>
+      <c r="FT57" s="2"/>
+      <c r="FU57" s="2"/>
+      <c r="FV57" s="2"/>
+      <c r="FW57" s="2"/>
+      <c r="FX57" s="2"/>
+      <c r="FY57" s="2"/>
     </row>
-    <row r="49" spans="1:11">
-      <c r="B49" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="B57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:181">
       <c r="B58" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>3</v>
@@ -4841,84 +6416,440 @@
         <v>1</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:181">
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:181">
       <c r="B60" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:181">
       <c r="B62" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:181">
       <c r="B63" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:181">
       <c r="B64" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:181">
       <c r="B65" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:181">
       <c r="A67" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:181">
       <c r="B68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>265</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN68" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO68" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AP68" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AQ68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW68" s="2"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2"/>
+      <c r="BE68" s="2"/>
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+      <c r="BJ68" s="2"/>
+      <c r="BK68" s="2"/>
+      <c r="BL68" s="2"/>
+      <c r="BM68" s="2"/>
+      <c r="BN68" s="2"/>
+      <c r="BO68" s="2"/>
+      <c r="BP68" s="2"/>
+      <c r="BQ68" s="2"/>
+      <c r="BR68" s="2"/>
+      <c r="BS68" s="2"/>
+      <c r="BT68" s="2"/>
+      <c r="BU68" s="2"/>
+      <c r="BV68" s="2"/>
+      <c r="BW68" s="2"/>
+      <c r="BX68" s="2"/>
+      <c r="BY68" s="2"/>
+      <c r="BZ68" s="2"/>
+      <c r="CA68" s="2"/>
+      <c r="CB68" s="2"/>
+      <c r="CC68" s="2"/>
+      <c r="CD68" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="CE68" s="2"/>
+      <c r="CF68" s="2"/>
+      <c r="CG68" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="CH68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="CI68" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="CJ68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM68" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CN68" s="2"/>
+      <c r="CO68" s="2"/>
+      <c r="CP68" s="2"/>
+      <c r="CQ68" s="2"/>
+      <c r="CR68" s="2"/>
+      <c r="CS68" s="2"/>
+      <c r="CT68" s="2"/>
+      <c r="CU68" s="2"/>
+      <c r="CV68" s="2"/>
+      <c r="CW68" s="2"/>
+      <c r="CX68" s="2"/>
+      <c r="CY68" s="2"/>
+      <c r="CZ68" s="2"/>
+      <c r="DA68" s="2"/>
+      <c r="DB68" s="2"/>
+      <c r="DC68" s="2"/>
+      <c r="DD68" s="2"/>
+      <c r="DF68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="DG68" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="DH68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI68" s="2"/>
+      <c r="DJ68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP68" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="DQ68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="DX68" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="DY68" s="2"/>
+      <c r="DZ68" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="EA68" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="EB68" s="2"/>
+      <c r="EC68" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="ED68" s="2"/>
+      <c r="EE68" s="2"/>
+      <c r="EF68" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="EG68" s="2"/>
+      <c r="EH68" s="2"/>
+      <c r="EI68" s="2"/>
+      <c r="EJ68" s="2"/>
+      <c r="EK68" s="2"/>
+      <c r="EL68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EN68" s="2"/>
+      <c r="EO68" s="2"/>
+      <c r="EP68" s="2"/>
+      <c r="EQ68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="ER68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA68" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="FB68" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="FC68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FD68" s="2"/>
+      <c r="FE68" s="2"/>
+      <c r="FF68" s="2"/>
+      <c r="FG68" s="2"/>
+      <c r="FH68" s="2"/>
+      <c r="FI68" s="2"/>
+      <c r="FJ68" s="2"/>
+      <c r="FK68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM68" s="2"/>
+      <c r="FN68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO68" s="2"/>
+      <c r="FP68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ68" s="2"/>
+      <c r="FR68" s="2"/>
+      <c r="FS68" s="2"/>
+      <c r="FT68" s="2"/>
+      <c r="FU68" s="2"/>
+      <c r="FV68" s="2"/>
+      <c r="FW68" s="2"/>
+      <c r="FX68" s="2"/>
+      <c r="FY68" s="2"/>
     </row>
     <row r="69" spans="1:181">
       <c r="B69" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>3</v>
@@ -4927,13 +6858,13 @@
         <v>2</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -4943,61 +6874,61 @@
         <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:181">
       <c r="B71" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:181">
       <c r="B73" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:181">
       <c r="B74" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:181">
       <c r="B75" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:181">
       <c r="B76" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:181">
       <c r="A78" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>3</v>
@@ -5006,22 +6937,22 @@
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>5</v>
@@ -5037,10 +6968,10 @@
       </c>
       <c r="R78" s="2"/>
       <c r="S78" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="U78" s="2"/>
       <c r="V78" s="2" t="s">
@@ -5053,14 +6984,14 @@
         <v>5</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
       <c r="AD78" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE78" s="2" t="s">
         <v>2</v>
@@ -5092,22 +7023,22 @@
       <c r="AN78" s="2"/>
       <c r="AO78" s="2"/>
       <c r="AP78" s="2" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="AQ78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR78" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS78" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT78" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU78" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV78" s="2" t="s">
         <v>2</v>
@@ -5169,18 +7100,18 @@
       <c r="CY78" s="2"/>
       <c r="CZ78" s="2"/>
       <c r="DA78" s="2" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="DB78" s="2"/>
       <c r="DC78" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="DD78" s="2"/>
       <c r="DF78" s="2" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="DG78" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="DH78" s="2" t="s">
         <v>5</v>
@@ -5224,10 +7155,10 @@
         <v>14</v>
       </c>
       <c r="DW78" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="DX78" s="2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="DY78" s="2"/>
       <c r="DZ78" s="2"/>
@@ -5284,10 +7215,10 @@
       <c r="FG78" s="2"/>
       <c r="FH78" s="2"/>
       <c r="FI78" s="2" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="FJ78" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="FK78" s="2" t="s">
         <v>5</v>
@@ -5315,13 +7246,13 @@
     </row>
     <row r="79" spans="1:181">
       <c r="B79" s="1" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>3</v>
@@ -5330,22 +7261,22 @@
         <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>5</v>
@@ -5361,10 +7292,10 @@
       </c>
       <c r="R79" s="2"/>
       <c r="S79" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2" t="s">
@@ -5374,17 +7305,17 @@
         <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
       <c r="AD79" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE79" s="2" t="s">
         <v>2</v>
@@ -5416,22 +7347,22 @@
       <c r="AN79" s="2"/>
       <c r="AO79" s="2"/>
       <c r="AP79" s="2" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="AQ79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS79" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT79" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU79" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV79" s="2" t="s">
         <v>2</v>
@@ -5493,18 +7424,18 @@
       <c r="CY79" s="2"/>
       <c r="CZ79" s="2"/>
       <c r="DA79" s="2" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="DB79" s="2"/>
       <c r="DC79" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="DD79" s="2"/>
       <c r="DF79" s="2" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="DG79" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="DH79" s="2" t="s">
         <v>5</v>
@@ -5514,7 +7445,7 @@
         <v>5</v>
       </c>
       <c r="DK79" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="DL79" s="2" t="s">
         <v>5</v>
@@ -5548,10 +7479,10 @@
         <v>14</v>
       </c>
       <c r="DW79" s="2" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="DX79" s="2" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="DY79" s="2"/>
       <c r="DZ79" s="2"/>
@@ -5608,10 +7539,10 @@
       <c r="FG79" s="2"/>
       <c r="FH79" s="2"/>
       <c r="FI79" s="2" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="FJ79" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="FK79" s="2" t="s">
         <v>5</v>
@@ -5639,13 +7570,13 @@
     </row>
     <row r="80" spans="1:181">
       <c r="B80" s="1" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>3</v>
@@ -5654,26 +7585,26 @@
         <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="2:181">
       <c r="B81" s="1" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>3</v>
@@ -5682,26 +7613,26 @@
         <v>2</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="2:181">
       <c r="B82" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>3</v>
@@ -5710,26 +7641,26 @@
         <v>2</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="2:181">
       <c r="B83" s="1" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>3</v>
@@ -5738,20 +7669,20 @@
         <v>2</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>5</v>
@@ -5767,30 +7698,30 @@
       </c>
       <c r="R83" s="2"/>
       <c r="S83" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="T83" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="U83" s="2"/>
       <c r="V83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE83" s="2" t="s">
         <v>2</v>
@@ -5822,22 +7753,22 @@
       <c r="AN83" s="2"/>
       <c r="AO83" s="2"/>
       <c r="AP83" s="2" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="AQ83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR83" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS83" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT83" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU83" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV83" s="2" t="s">
         <v>2</v>
@@ -5899,26 +7830,26 @@
       <c r="CY83" s="2"/>
       <c r="CZ83" s="2"/>
       <c r="DA83" s="2" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="DB83" s="2"/>
       <c r="DC83" s="2"/>
       <c r="DD83" s="2"/>
       <c r="DF83" s="2" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="DG83" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="DH83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="DI83" s="2"/>
       <c r="DJ83" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="DK83" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="DL83" s="2" t="s">
         <v>5</v>
@@ -5950,10 +7881,10 @@
         <v>14</v>
       </c>
       <c r="DW83" s="2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="DX83" s="2" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="DY83" s="2"/>
       <c r="DZ83" s="2"/>
@@ -6010,7 +7941,7 @@
       <c r="FG83" s="2"/>
       <c r="FH83" s="2"/>
       <c r="FI83" s="2" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="FJ83" s="2"/>
       <c r="FK83" s="2" t="s">
@@ -6039,37 +7970,37 @@
     </row>
     <row r="85" spans="2:181">
       <c r="B85" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>5</v>
@@ -6085,13 +8016,13 @@
       </c>
       <c r="R85" s="2"/>
       <c r="S85" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>2</v>
@@ -6103,16 +8034,16 @@
         <v>5</v>
       </c>
       <c r="Y85" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
       <c r="AD85" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE85" s="2" t="s">
         <v>2</v>
@@ -6144,22 +8075,22 @@
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
       <c r="AP85" s="2" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AQ85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR85" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS85" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT85" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU85" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV85" s="2" t="s">
         <v>2</v>
@@ -6221,20 +8152,20 @@
       <c r="CY85" s="2"/>
       <c r="CZ85" s="2"/>
       <c r="DA85" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="DB85" s="2" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="DC85" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="DD85" s="2"/>
       <c r="DF85" s="2" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="DG85" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="DH85" s="2" t="s">
         <v>2</v>
@@ -6276,10 +8207,10 @@
         <v>14</v>
       </c>
       <c r="DW85" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="DX85" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="DY85" s="2"/>
       <c r="DZ85" s="2"/>
@@ -6336,10 +8267,10 @@
       <c r="FG85" s="2"/>
       <c r="FH85" s="2"/>
       <c r="FI85" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="FJ85" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="FK85" s="2" t="s">
         <v>5</v>
@@ -6367,37 +8298,37 @@
     </row>
     <row r="86" spans="2:181" s="6" customFormat="1">
       <c r="B86" s="6" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="N86" s="7" t="s">
         <v>5</v>
@@ -6413,13 +8344,13 @@
       </c>
       <c r="R86" s="7"/>
       <c r="S86" s="7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="U86" s="7" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="V86" s="7" t="s">
         <v>2</v>
@@ -6428,10 +8359,10 @@
         <v>5</v>
       </c>
       <c r="X86" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Y86" s="7" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="Z86" s="7" t="s">
         <v>21</v>
@@ -6440,7 +8371,7 @@
       <c r="AB86" s="7"/>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE86" s="7" t="s">
         <v>2</v>
@@ -6472,22 +8403,22 @@
       <c r="AN86" s="7"/>
       <c r="AO86" s="7"/>
       <c r="AP86" s="7" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="AQ86" s="7" t="s">
         <v>5</v>
       </c>
       <c r="AR86" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS86" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT86" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU86" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV86" s="7" t="s">
         <v>2</v>
@@ -6549,30 +8480,30 @@
       <c r="CY86" s="7"/>
       <c r="CZ86" s="7"/>
       <c r="DA86" s="7" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="DB86" s="7" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="DC86" s="7" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="DD86" s="7"/>
       <c r="DF86" s="7" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="DG86" s="7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="DH86" s="7" t="s">
         <v>2</v>
       </c>
       <c r="DI86" s="7"/>
       <c r="DJ86" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="DK86" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="DL86" s="7" t="s">
         <v>5</v>
@@ -6607,7 +8538,7 @@
         <v>21</v>
       </c>
       <c r="DX86" s="7" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="DY86" s="7"/>
       <c r="DZ86" s="7"/>
@@ -6664,7 +8595,7 @@
       <c r="FG86" s="7"/>
       <c r="FH86" s="7"/>
       <c r="FI86" s="7" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="FJ86" s="7"/>
       <c r="FK86" s="7" t="s">
@@ -6693,37 +8624,37 @@
     </row>
     <row r="87" spans="2:181">
       <c r="B87" s="1" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>5</v>
@@ -6739,13 +8670,13 @@
       </c>
       <c r="R87" s="2"/>
       <c r="S87" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="T87" s="2" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="V87" s="2" t="s">
         <v>2</v>
@@ -6754,19 +8685,19 @@
         <v>5</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Y87" s="2" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
       <c r="AD87" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE87" s="2" t="s">
         <v>2</v>
@@ -6798,22 +8729,22 @@
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
       <c r="AP87" s="2" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="AQ87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR87" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS87" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT87" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU87" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV87" s="2" t="s">
         <v>2</v>
@@ -6875,20 +8806,20 @@
       <c r="CY87" s="2"/>
       <c r="CZ87" s="2"/>
       <c r="DA87" s="2" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="DB87" s="2" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="DC87" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="DD87" s="2"/>
       <c r="DF87" s="2" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="DG87" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="DH87" s="2" t="s">
         <v>2</v>
@@ -6898,7 +8829,7 @@
         <v>5</v>
       </c>
       <c r="DK87" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="DL87" s="2" t="s">
         <v>5</v>
@@ -6930,10 +8861,10 @@
         <v>14</v>
       </c>
       <c r="DW87" s="2" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="DX87" s="2" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="DY87" s="2"/>
       <c r="DZ87" s="2"/>
@@ -6990,10 +8921,10 @@
       <c r="FG87" s="2"/>
       <c r="FH87" s="2"/>
       <c r="FI87" s="2" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="FJ87" s="2" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="FK87" s="2" t="s">
         <v>5</v>
@@ -7021,91 +8952,91 @@
     </row>
     <row r="88" spans="2:181">
       <c r="B88" s="1" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="2:181">
       <c r="B89" s="1" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="2:181">
       <c r="B90" s="1" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>5</v>
@@ -7121,34 +9052,34 @@
       </c>
       <c r="R90" s="2"/>
       <c r="S90" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="V90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="Z90" s="2" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
       <c r="AD90" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE90" s="2" t="s">
         <v>2</v>
@@ -7180,22 +9111,22 @@
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
       <c r="AP90" s="2" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="AQ90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR90" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AS90" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AT90" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AU90" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AV90" s="2" t="s">
         <v>2</v>
@@ -7257,28 +9188,28 @@
       <c r="CY90" s="2"/>
       <c r="CZ90" s="2"/>
       <c r="DA90" s="2" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="DB90" s="2" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="DC90" s="2"/>
       <c r="DD90" s="2"/>
       <c r="DF90" s="2" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="DG90" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="DH90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="DI90" s="2"/>
       <c r="DJ90" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="DK90" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="DL90" s="2" t="s">
         <v>5</v>
@@ -7310,10 +9241,10 @@
         <v>14</v>
       </c>
       <c r="DW90" s="2" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="DX90" s="2" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="DY90" s="2"/>
       <c r="DZ90" s="2"/>
@@ -7370,7 +9301,7 @@
       <c r="FG90" s="2"/>
       <c r="FH90" s="2"/>
       <c r="FI90" s="2" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="FJ90" s="2"/>
       <c r="FK90" s="2" t="s">

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FCF2C-6753-42B8-A137-BF0D261F9974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EB1E8B-CE8D-41AE-8C50-4B5615177C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="508">
   <si>
     <t>credit</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>20250829142614</t>
@@ -1455,54 +1458,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>20250917-05</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:37:17Z</t>
-  </si>
-  <si>
-    <t>{"after_balance":15669,"before_balance":15670,"card_no":"JK***********0020"}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>交通系電子マネー</t>
   </si>
   <si>
-    <t>2025/09/17 14:37:24</t>
-  </si>
-  <si>
-    <t>917143700</t>
-  </si>
-  <si>
-    <t>3A5B89D01EBE16576E1BB1743AB6564278D10C4E586D2A06B1DEF9574BD87AF9</t>
-  </si>
-  <si>
-    <t>15670</t>
-  </si>
-  <si>
-    <t>15669</t>
-  </si>
-  <si>
-    <t>751</t>
-  </si>
-  <si>
-    <t>34E4D6A83E43E198D18C69DB815F7E70CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
-  </si>
-  <si>
     <t>JE10710805376</t>
-  </si>
-  <si>
-    <t>11402</t>
-  </si>
-  <si>
-    <t>1727</t>
-  </si>
-  <si>
-    <t>11401</t>
-  </si>
-  <si>
-    <t>20250917143717</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>20250917145415</t>
@@ -1608,34 +1567,186 @@
     <t>92</t>
   </si>
   <si>
+    <t>20250917-14</t>
+  </si>
+  <si>
+    <t>2025-09-17T16:30:11Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"","arc":"01","brand":"AMEX","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>2025/09/17 16:30:22</t>
+  </si>
+  <si>
+    <t>11312</t>
+  </si>
+  <si>
+    <t>5F148F57BD1BA9B6A2C61877404830583939DC62ECE0AEABA792DE1057AD6F715D8CF905E927A779B8CF8555EEBBE7E334D216A48E276E673431120E7570FD9CC2DB2FB7AFD34E6B3B032439C67255B23D8AB63E54ABB34B72ECACDA511193D6260B872E2ED0CE0838BEB77A0805FBAE61D02EF49B7375DAD54C63E165B05BF12903CBD473213ADCEB04FBD527F2A3B1920A0D113B052B66AFAA06AC678C0079BC895BEC2D8DA79A74DE53C9D96609B6C32D2D603EC35A8358E59142E2BBA0E3BBF53C838DAFB484D0B005D57E0998EEE3C7E519352ED097A7CE9FA662E07EC1F2D6467F7E0DEF72528C62FC3EE203BE17C67895F19B44BFEAD74E8AD61F4951A2ED4A91818BCCCC17A14E3ED5A0E7B7980244032AF0D9CD09A2F2137643198C51FDF60235C40543892CCE71032EACB7D29E4BD1FDE6ABC086FAB96F1367B7F79F0F7C0F44BF11E104D0795C3CB9E88B4CE2EA7DED7F8D84943A8340FB671E11F83A82C976714BAAE5263EF197F41C440C1E6B6B9B7E01618C3A90B2290E7D95</t>
+  </si>
+  <si>
+    <t>20250917-17</t>
+  </si>
+  <si>
+    <t>2025-09-17T16:34:03Z</t>
+  </si>
+  <si>
+    <t>20250917163403</t>
+  </si>
+  <si>
     <t>20250917163011</t>
-  </si>
-  <si>
-    <t>20250917-14</t>
-  </si>
-  <si>
-    <t>2025-09-17T16:30:11Z</t>
-  </si>
-  <si>
-    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"","arc":"01","brand":"AMEX","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
-  </si>
-  <si>
-    <t>2025/09/17 16:30:22</t>
-  </si>
-  <si>
-    <t>11312</t>
-  </si>
-  <si>
-    <t>5F148F57BD1BA9B6A2C61877404830583939DC62ECE0AEABA792DE1057AD6F715D8CF905E927A779B8CF8555EEBBE7E334D216A48E276E673431120E7570FD9CC2DB2FB7AFD34E6B3B032439C67255B23D8AB63E54ABB34B72ECACDA511193D6260B872E2ED0CE0838BEB77A0805FBAE61D02EF49B7375DAD54C63E165B05BF12903CBD473213ADCEB04FBD527F2A3B1920A0D113B052B66AFAA06AC678C0079BC895BEC2D8DA79A74DE53C9D96609B6C32D2D603EC35A8358E59142E2BBA0E3BBF53C838DAFB484D0B005D57E0998EEE3C7E519352ED097A7CE9FA662E07EC1F2D6467F7E0DEF72528C62FC3EE203BE17C67895F19B44BFEAD74E8AD61F4951A2ED4A91818BCCCC17A14E3ED5A0E7B7980244032AF0D9CD09A2F2137643198C51FDF60235C40543892CCE71032EACB7D29E4BD1FDE6ABC086FAB96F1367B7F79F0F7C0F44BF11E104D0795C3CB9E88B4CE2EA7DED7F8D84943A8340FB671E11F83A82C976714BAAE5263EF197F41C440C1E6B6B9B7E01618C3A90B2290E7D95</t>
-  </si>
-  <si>
-    <t>20250917-17</t>
-  </si>
-  <si>
-    <t>2025-09-17T16:34:03Z</t>
-  </si>
-  <si>
-    <t>20250917163403</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{"after_balance":19157,"before_balance":19156,"card_no":"JK***********0021"}</t>
+  </si>
+  <si>
+    <t>20250919130419</t>
+  </si>
+  <si>
+    <t>20250919-11</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:04:19Z</t>
+  </si>
+  <si>
+    <t>{"after_balance":19156,"before_balance":19157,"card_no":"JK***********0021"}</t>
+  </si>
+  <si>
+    <t>2025/09/19 13:04:30</t>
+  </si>
+  <si>
+    <t>919130402</t>
+  </si>
+  <si>
+    <t>3A5B89D01EBE16576E1BB1743AB6564236E2CCB0722D459A0CF88FF2536B55F3</t>
+  </si>
+  <si>
+    <t>19157</t>
+  </si>
+  <si>
+    <t>19156</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>23030C654E410B59722D61CDAF28B287CA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>4141</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>4140</t>
+  </si>
+  <si>
+    <t>20250919130608</t>
+  </si>
+  <si>
+    <t>20250919-12</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:06:08Z</t>
+  </si>
+  <si>
+    <t>2025/09/19 13:06:14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>919130603</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>4142</t>
+  </si>
+  <si>
+    <t>1735</t>
+  </si>
+  <si>
+    <t>20250919130836</t>
+  </si>
+  <si>
+    <t>20250919-13</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:08:36Z</t>
+  </si>
+  <si>
+    <t>20250919131009</t>
+  </si>
+  <si>
+    <t>20250919-14</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:10:09Z</t>
+  </si>
+  <si>
+    <t>20250919131124</t>
+  </si>
+  <si>
+    <t>20250919-16</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:11:24Z</t>
+  </si>
+  <si>
+    <t>20250919131231</t>
+  </si>
+  <si>
+    <t>20250919-17</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:12:31Z</t>
+  </si>
+  <si>
+    <t>20250919131423</t>
+  </si>
+  <si>
+    <t>20250919-18</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:14:23Z</t>
+  </si>
+  <si>
+    <t>20250919132417</t>
+  </si>
+  <si>
+    <t>20250919-21</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>2025-09-19T13:24:17Z</t>
+  </si>
+  <si>
+    <t>処理未了</t>
+    <rPh sb="0" eb="4">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025/09/19 13:25:00</t>
+  </si>
+  <si>
+    <t>919132412</t>
+  </si>
+  <si>
+    <t>32384</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>C6AFECA2B1C2D263D9F6411C5AD39E4136E2CCB0722D459A0CF88FF2536B55F3</t>
   </si>
 </sst>
 </file>
@@ -2016,11 +2127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EBE5E-74F7-42AB-A478-70FD4BF79FAC}">
-  <dimension ref="A2:FY90"/>
+  <dimension ref="A2:FY91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:K9"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -2153,7 +2264,7 @@
     </row>
     <row r="3" spans="1:181">
       <c r="A3" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>103</v>
@@ -2692,10 +2803,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -2707,19 +2818,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>5</v>
@@ -2738,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
@@ -2751,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -2792,22 +2903,22 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AQ4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AV4" s="2" t="s">
         <v>2</v>
@@ -2841,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BJ4" s="2" t="s">
         <v>2</v>
@@ -2859,7 +2970,7 @@
         <v>20</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
@@ -2903,7 +3014,7 @@
       <c r="DC4" s="2"/>
       <c r="DD4" s="2"/>
       <c r="DF4" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="DG4" s="2" t="s">
         <v>19</v>
@@ -2950,10 +3061,10 @@
         <v>14</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="DX4" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="DY4" s="2" t="s">
         <v>13</v>
@@ -2971,7 +3082,7 @@
       <c r="ED4" s="2"/>
       <c r="EE4" s="2"/>
       <c r="EF4" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="EG4" s="2"/>
       <c r="EH4" s="2"/>
@@ -3048,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="FO4" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="FP4" s="2" t="s">
         <v>2</v>
@@ -3068,10 +3179,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -3083,19 +3194,19 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>5</v>
@@ -3114,7 +3225,7 @@
         <v>19</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
@@ -3127,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -3168,22 +3279,22 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="AQ5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AV5" s="2" t="s">
         <v>2</v>
@@ -3217,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BJ5" s="2" t="s">
         <v>2</v>
@@ -3235,7 +3346,7 @@
         <v>20</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="BP5" s="2"/>
       <c r="BQ5" s="2"/>
@@ -3279,7 +3390,7 @@
       <c r="DC5" s="2"/>
       <c r="DD5" s="2"/>
       <c r="DF5" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DG5" s="2" t="s">
         <v>19</v>
@@ -3324,10 +3435,10 @@
         <v>14</v>
       </c>
       <c r="DW5" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DX5" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="DY5" s="2" t="s">
         <v>13</v>
@@ -3345,7 +3456,7 @@
       <c r="ED5" s="2"/>
       <c r="EE5" s="2"/>
       <c r="EF5" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EG5" s="2"/>
       <c r="EH5" s="2"/>
@@ -3438,10 +3549,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -3453,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
@@ -3463,16 +3574,16 @@
     </row>
     <row r="8" spans="1:181">
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
@@ -3481,19 +3592,19 @@
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>5</v>
@@ -3512,10 +3623,10 @@
         <v>19</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>2</v>
@@ -3527,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -3570,22 +3681,22 @@
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="AQ8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AV8" s="2" t="s">
         <v>2</v>
@@ -3619,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BJ8" s="2" t="s">
         <v>2</v>
@@ -3637,7 +3748,7 @@
         <v>20</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2"/>
@@ -3681,7 +3792,7 @@
       <c r="DC8" s="2"/>
       <c r="DD8" s="2"/>
       <c r="DF8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="DG8" s="2" t="s">
         <v>19</v>
@@ -3726,10 +3837,10 @@
         <v>14</v>
       </c>
       <c r="DW8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="DX8" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="DY8" s="2" t="s">
         <v>13</v>
@@ -3747,10 +3858,10 @@
       <c r="ED8" s="2"/>
       <c r="EE8" s="2"/>
       <c r="EF8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="EG8" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="EH8" s="2"/>
       <c r="EI8" s="2"/>
@@ -3826,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="FO8" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="FP8" s="2" t="s">
         <v>2</v>
@@ -3843,16 +3954,16 @@
     </row>
     <row r="9" spans="1:181">
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
@@ -3861,7 +3972,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
@@ -3871,16 +3982,16 @@
     </row>
     <row r="10" spans="1:181">
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
@@ -3889,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -3899,7 +4010,7 @@
     </row>
     <row r="12" spans="1:181">
       <c r="A12" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:181">
@@ -3907,10 +4018,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
@@ -3922,19 +4033,19 @@
         <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>5</v>
@@ -3949,13 +4060,13 @@
         <v>14</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
@@ -3968,15 +4079,15 @@
         <v>5</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>25</v>
@@ -4011,22 +4122,22 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AQ13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AV13" s="2" t="s">
         <v>2</v>
@@ -4083,12 +4194,12 @@
       <c r="CT13" s="2"/>
       <c r="CU13" s="2"/>
       <c r="CV13" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CW13" s="2"/>
       <c r="CX13" s="2"/>
       <c r="CY13" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CZ13" s="2" t="s">
         <v>185</v>
@@ -4098,10 +4209,10 @@
       <c r="DC13" s="2"/>
       <c r="DD13" s="2"/>
       <c r="DF13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DG13" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DH13" s="2" t="s">
         <v>5</v>
@@ -4126,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="DP13" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="DQ13" s="2" t="s">
         <v>18</v>
@@ -4147,24 +4258,24 @@
         <v>14</v>
       </c>
       <c r="DW13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DX13" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DY13" s="2"/>
       <c r="DZ13" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EA13" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EB13" s="2"/>
       <c r="EC13" s="2"/>
       <c r="ED13" s="2"/>
       <c r="EE13" s="2"/>
       <c r="EF13" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="EG13" s="2"/>
       <c r="EH13" s="2"/>
@@ -4177,7 +4288,7 @@
       <c r="EO13" s="2"/>
       <c r="EP13" s="2"/>
       <c r="EQ13" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="ER13" s="2" t="s">
         <v>2</v>
@@ -4209,7 +4320,7 @@
       <c r="FA13" s="2"/>
       <c r="FB13" s="2"/>
       <c r="FC13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="FD13" s="2"/>
       <c r="FE13" s="2"/>
@@ -4244,13 +4355,13 @@
     </row>
     <row r="14" spans="1:181">
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
@@ -4262,10 +4373,10 @@
         <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -4275,10 +4386,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>3</v>
@@ -4290,23 +4401,23 @@
         <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:181">
       <c r="B16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>3</v>
@@ -4318,26 +4429,26 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="18" spans="1:181">
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>2</v>
@@ -4346,19 +4457,19 @@
         <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>5</v>
@@ -4373,40 +4484,40 @@
         <v>14</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="Z18" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>25</v>
@@ -4441,22 +4552,22 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AQ18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AV18" s="2" t="s">
         <v>2</v>
@@ -4513,27 +4624,27 @@
       <c r="CT18" s="2"/>
       <c r="CU18" s="2"/>
       <c r="CV18" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CW18" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CX18" s="2"/>
       <c r="CY18" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CZ18" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="DA18" s="2"/>
       <c r="DB18" s="2"/>
       <c r="DC18" s="2"/>
       <c r="DD18" s="2"/>
       <c r="DF18" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DG18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DH18" s="2" t="s">
         <v>2</v>
@@ -4556,7 +4667,7 @@
       </c>
       <c r="DO18" s="2"/>
       <c r="DP18" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DQ18" s="2" t="s">
         <v>18</v>
@@ -4577,24 +4688,24 @@
         <v>14</v>
       </c>
       <c r="DW18" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DX18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DY18" s="2"/>
       <c r="DZ18" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="EA18" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="EB18" s="2"/>
       <c r="EC18" s="2"/>
       <c r="ED18" s="2"/>
       <c r="EE18" s="2"/>
       <c r="EF18" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="EG18" s="2"/>
       <c r="EH18" s="2"/>
@@ -4607,7 +4718,7 @@
       <c r="EO18" s="2"/>
       <c r="EP18" s="2"/>
       <c r="EQ18" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="ER18" s="2" t="s">
         <v>2</v>
@@ -4639,7 +4750,7 @@
       <c r="FA18" s="2"/>
       <c r="FB18" s="2"/>
       <c r="FC18" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="FD18" s="2"/>
       <c r="FE18" s="2"/>
@@ -4674,16 +4785,16 @@
     </row>
     <row r="19" spans="1:181">
       <c r="B19" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>2</v>
@@ -4692,26 +4803,26 @@
         <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:181">
       <c r="B20" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -4720,26 +4831,26 @@
         <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:181">
       <c r="B21" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>2</v>
@@ -4748,17 +4859,17 @@
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="23" spans="1:181">
       <c r="A23" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:181">
@@ -4767,10 +4878,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>3</v>
@@ -4782,19 +4893,19 @@
         <v>30</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>5</v>
@@ -4809,13 +4920,13 @@
         <v>14</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
@@ -4828,15 +4939,15 @@
         <v>5</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="AD24" s="2" t="s">
         <v>25</v>
@@ -4869,28 +4980,28 @@
         <v>5</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="AP24" s="2" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="AQ24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AS24" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AT24" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AV24" s="2" t="s">
         <v>2</v>
@@ -4916,25 +5027,25 @@
       <c r="BO24" s="2"/>
       <c r="BP24" s="2"/>
       <c r="BQ24" s="2" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="BR24" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="BS24" s="2" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="BT24" s="2" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="BU24" s="2" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="BV24" s="2" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="BW24" s="2" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="BX24" s="2"/>
       <c r="BY24" s="2"/>
@@ -4970,10 +5081,10 @@
       <c r="DC24" s="2"/>
       <c r="DD24" s="2"/>
       <c r="DF24" s="2" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="DG24" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="DH24" s="2" t="s">
         <v>5</v>
@@ -5017,21 +5128,21 @@
         <v>14</v>
       </c>
       <c r="DW24" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="DX24" s="2" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="DY24" s="2"/>
       <c r="DZ24" s="2" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="EA24" s="2" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="EB24" s="2"/>
       <c r="EC24" s="2" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="ED24" s="2"/>
       <c r="EE24" s="2"/>
@@ -5047,7 +5158,7 @@
       <c r="EO24" s="2"/>
       <c r="EP24" s="2"/>
       <c r="EQ24" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="ER24" s="2" t="s">
         <v>2</v>
@@ -5077,13 +5188,13 @@
         <v>5</v>
       </c>
       <c r="FA24" s="2" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="FB24" s="2" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="FC24" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="FD24" s="2"/>
       <c r="FE24" s="2"/>
@@ -5118,13 +5229,13 @@
     </row>
     <row r="25" spans="1:181">
       <c r="B25" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>3</v>
@@ -5136,10 +5247,10 @@
         <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5148,413 +5259,849 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>254</v>
-      </c>
+      <c r="C26" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:181">
       <c r="B27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
-    <row r="29" spans="1:181">
-      <c r="B29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>254</v>
-      </c>
+    <row r="28" spans="1:181">
+      <c r="B28" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="BQ28" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BR28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="2"/>
+      <c r="BY28" s="2"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+      <c r="CF28" s="2"/>
+      <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="2"/>
+      <c r="CJ28" s="2"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="2"/>
+      <c r="CN28" s="2"/>
+      <c r="CO28" s="2"/>
+      <c r="CP28" s="2"/>
+      <c r="CQ28" s="2"/>
+      <c r="CR28" s="2"/>
+      <c r="CS28" s="2"/>
+      <c r="CT28" s="2"/>
+      <c r="CU28" s="2"/>
+      <c r="CV28" s="2"/>
+      <c r="CW28" s="2"/>
+      <c r="CX28" s="2"/>
+      <c r="CY28" s="2"/>
+      <c r="CZ28" s="2"/>
+      <c r="DA28" s="2"/>
+      <c r="DB28" s="2"/>
+      <c r="DC28" s="2"/>
+      <c r="DD28" s="2"/>
+      <c r="DF28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DG28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DH28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI28" s="2"/>
+      <c r="DJ28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DK28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO28" s="2"/>
+      <c r="DP28" s="2"/>
+      <c r="DQ28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="DX28" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="DY28" s="2"/>
+      <c r="DZ28" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="EA28" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="EB28" s="2"/>
+      <c r="EC28" s="2"/>
+      <c r="ED28" s="2"/>
+      <c r="EE28" s="2"/>
+      <c r="EF28" s="2"/>
+      <c r="EG28" s="2"/>
+      <c r="EH28" s="2"/>
+      <c r="EI28" s="2"/>
+      <c r="EJ28" s="2"/>
+      <c r="EK28" s="2"/>
+      <c r="EL28" s="2"/>
+      <c r="EM28" s="2"/>
+      <c r="EN28" s="2"/>
+      <c r="EO28" s="2"/>
+      <c r="EP28" s="2"/>
+      <c r="EQ28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="ER28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA28" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="FB28" s="2"/>
+      <c r="FC28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FD28" s="2"/>
+      <c r="FE28" s="2"/>
+      <c r="FF28" s="2"/>
+      <c r="FG28" s="2"/>
+      <c r="FH28" s="2"/>
+      <c r="FI28" s="2"/>
+      <c r="FJ28" s="2"/>
+      <c r="FK28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM28" s="2"/>
+      <c r="FN28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO28" s="2"/>
+      <c r="FP28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ28" s="2"/>
+      <c r="FR28" s="2"/>
+      <c r="FS28" s="2"/>
+      <c r="FT28" s="2"/>
+      <c r="FU28" s="2"/>
+      <c r="FV28" s="2"/>
+      <c r="FW28" s="2"/>
+      <c r="FX28" s="2"/>
+      <c r="FY28" s="2"/>
     </row>
     <row r="30" spans="1:181">
       <c r="B30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN30" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="BR30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="BS30" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BT30" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="BU30" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BV30" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BW30" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="BX30" s="2"/>
+      <c r="BY30" s="2"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+      <c r="CF30" s="2"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2"/>
+      <c r="CN30" s="2"/>
+      <c r="CO30" s="2"/>
+      <c r="CP30" s="2"/>
+      <c r="CQ30" s="2"/>
+      <c r="CR30" s="2"/>
+      <c r="CS30" s="2"/>
+      <c r="CT30" s="2"/>
+      <c r="CU30" s="2"/>
+      <c r="CV30" s="2"/>
+      <c r="CW30" s="2"/>
+      <c r="CX30" s="2"/>
+      <c r="CY30" s="2"/>
+      <c r="CZ30" s="2"/>
+      <c r="DA30" s="2"/>
+      <c r="DB30" s="2"/>
+      <c r="DC30" s="2"/>
+      <c r="DD30" s="2"/>
+      <c r="DF30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DH30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI30" s="2"/>
+      <c r="DJ30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO30" s="2"/>
+      <c r="DP30" s="2"/>
+      <c r="DQ30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW30" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="DX30" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="DY30" s="2"/>
+      <c r="DZ30" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="EA30" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="EB30" s="2"/>
+      <c r="EC30" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="ED30" s="2"/>
+      <c r="EE30" s="2"/>
+      <c r="EF30" s="2"/>
+      <c r="EG30" s="2"/>
+      <c r="EH30" s="2"/>
+      <c r="EI30" s="2"/>
+      <c r="EJ30" s="2"/>
+      <c r="EK30" s="2"/>
+      <c r="EL30" s="2"/>
+      <c r="EM30" s="2"/>
+      <c r="EN30" s="2"/>
+      <c r="EO30" s="2"/>
+      <c r="EP30" s="2"/>
+      <c r="EQ30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="ER30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA30" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="FB30" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="FC30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FD30" s="2"/>
+      <c r="FE30" s="2"/>
+      <c r="FF30" s="2"/>
+      <c r="FG30" s="2"/>
+      <c r="FH30" s="2"/>
+      <c r="FI30" s="2"/>
+      <c r="FJ30" s="2"/>
+      <c r="FK30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM30" s="2"/>
+      <c r="FN30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO30" s="2"/>
+      <c r="FP30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ30" s="2"/>
+      <c r="FR30" s="2"/>
+      <c r="FS30" s="2"/>
+      <c r="FT30" s="2"/>
+      <c r="FU30" s="2"/>
+      <c r="FV30" s="2"/>
+      <c r="FW30" s="2"/>
+      <c r="FX30" s="2"/>
+      <c r="FY30" s="2"/>
     </row>
     <row r="31" spans="1:181">
       <c r="B31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>254</v>
-      </c>
+      <c r="C31" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:181">
       <c r="B32" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
-    <row r="34" spans="1:181">
-      <c r="A34" s="4" t="s">
-        <v>255</v>
-      </c>
+    <row r="33" spans="1:181">
+      <c r="B33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="35" spans="1:181">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN35" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="AO35" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP35" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR35" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS35" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="2"/>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="2"/>
-      <c r="BJ35" s="2"/>
-      <c r="BK35" s="2"/>
-      <c r="BL35" s="2"/>
-      <c r="BM35" s="2"/>
-      <c r="BN35" s="2"/>
-      <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
-      <c r="BQ35" s="2"/>
-      <c r="BR35" s="2"/>
-      <c r="BS35" s="2"/>
-      <c r="BT35" s="2"/>
-      <c r="BU35" s="2"/>
-      <c r="BV35" s="2"/>
-      <c r="BW35" s="2"/>
-      <c r="BX35" s="2"/>
-      <c r="BY35" s="2"/>
-      <c r="BZ35" s="2"/>
-      <c r="CA35" s="2"/>
-      <c r="CB35" s="2"/>
-      <c r="CC35" s="2"/>
-      <c r="CD35" s="2"/>
-      <c r="CE35" s="2"/>
-      <c r="CF35" s="2"/>
-      <c r="CG35" s="2"/>
-      <c r="CH35" s="2"/>
-      <c r="CI35" s="2"/>
-      <c r="CJ35" s="2"/>
-      <c r="CK35" s="2"/>
-      <c r="CL35" s="2"/>
-      <c r="CM35" s="2"/>
-      <c r="CN35" s="2"/>
-      <c r="CO35" s="2"/>
-      <c r="CP35" s="2"/>
-      <c r="CQ35" s="2"/>
-      <c r="CR35" s="2"/>
-      <c r="CS35" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="CT35" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="CU35" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="CV35" s="2"/>
-      <c r="CW35" s="2"/>
-      <c r="CX35" s="2"/>
-      <c r="CY35" s="2"/>
-      <c r="CZ35" s="2"/>
-      <c r="DA35" s="2"/>
-      <c r="DB35" s="2"/>
-      <c r="DC35" s="2"/>
-      <c r="DD35" s="2"/>
-      <c r="DF35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="DG35" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="DH35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI35" s="2"/>
-      <c r="DJ35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO35" s="2"/>
-      <c r="DP35" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="DQ35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="DX35" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="DY35" s="2"/>
-      <c r="DZ35" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="EA35" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="EB35" s="2"/>
-      <c r="EC35" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="ED35" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="EE35" s="2"/>
-      <c r="EF35" s="2"/>
-      <c r="EG35" s="2"/>
-      <c r="EH35" s="2"/>
-      <c r="EI35" s="2"/>
-      <c r="EJ35" s="2"/>
-      <c r="EK35" s="2"/>
-      <c r="EL35" s="2"/>
-      <c r="EM35" s="2"/>
-      <c r="EN35" s="2"/>
-      <c r="EO35" s="2"/>
-      <c r="EP35" s="2"/>
-      <c r="EQ35" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="ER35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA35" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="FB35" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="FC35" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="FD35" s="2"/>
-      <c r="FE35" s="2"/>
-      <c r="FF35" s="2"/>
-      <c r="FG35" s="2"/>
-      <c r="FH35" s="2"/>
-      <c r="FI35" s="2"/>
-      <c r="FJ35" s="2"/>
-      <c r="FK35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM35" s="2"/>
-      <c r="FN35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO35" s="2"/>
-      <c r="FP35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FQ35" s="2"/>
-      <c r="FR35" s="2"/>
-      <c r="FS35" s="2"/>
-      <c r="FT35" s="2"/>
-      <c r="FU35" s="2"/>
-      <c r="FV35" s="2"/>
-      <c r="FW35" s="2"/>
-      <c r="FX35" s="2"/>
-      <c r="FY35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="36" spans="1:181">
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>256</v>
+        <v>31</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>257</v>
+        <v>373</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>3</v>
@@ -5563,47 +6110,387 @@
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2"/>
+      <c r="BW36" s="2"/>
+      <c r="BX36" s="2"/>
+      <c r="BY36" s="2"/>
+      <c r="BZ36" s="2"/>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="2"/>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+      <c r="CF36" s="2"/>
+      <c r="CG36" s="2"/>
+      <c r="CH36" s="2"/>
+      <c r="CI36" s="2"/>
+      <c r="CJ36" s="2"/>
+      <c r="CK36" s="2"/>
+      <c r="CL36" s="2"/>
+      <c r="CM36" s="2"/>
+      <c r="CN36" s="2"/>
+      <c r="CO36" s="2"/>
+      <c r="CP36" s="2"/>
+      <c r="CQ36" s="2"/>
+      <c r="CR36" s="2"/>
+      <c r="CS36" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CT36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CU36" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CV36" s="2"/>
+      <c r="CW36" s="2"/>
+      <c r="CX36" s="2"/>
+      <c r="CY36" s="2"/>
+      <c r="CZ36" s="2"/>
+      <c r="DA36" s="2"/>
+      <c r="DB36" s="2"/>
+      <c r="DC36" s="2"/>
+      <c r="DD36" s="2"/>
+      <c r="DF36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="DG36" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="DH36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI36" s="2"/>
+      <c r="DJ36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO36" s="2"/>
+      <c r="DP36" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DQ36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="DX36" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="DY36" s="2"/>
+      <c r="DZ36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="EA36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="EB36" s="2"/>
+      <c r="EC36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="ED36" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="EE36" s="2"/>
+      <c r="EF36" s="2"/>
+      <c r="EG36" s="2"/>
+      <c r="EH36" s="2"/>
+      <c r="EI36" s="2"/>
+      <c r="EJ36" s="2"/>
+      <c r="EK36" s="2"/>
+      <c r="EL36" s="2"/>
+      <c r="EM36" s="2"/>
+      <c r="EN36" s="2"/>
+      <c r="EO36" s="2"/>
+      <c r="EP36" s="2"/>
+      <c r="EQ36" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="ER36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA36" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="FB36" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="FC36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FD36" s="2"/>
+      <c r="FE36" s="2"/>
+      <c r="FF36" s="2"/>
+      <c r="FG36" s="2"/>
+      <c r="FH36" s="2"/>
+      <c r="FI36" s="2"/>
+      <c r="FJ36" s="2"/>
+      <c r="FK36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM36" s="2"/>
+      <c r="FN36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO36" s="2"/>
+      <c r="FP36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ36" s="2"/>
+      <c r="FR36" s="2"/>
+      <c r="FS36" s="2"/>
+      <c r="FT36" s="2"/>
+      <c r="FU36" s="2"/>
+      <c r="FV36" s="2"/>
+      <c r="FW36" s="2"/>
+      <c r="FX36" s="2"/>
+      <c r="FY36" s="2"/>
     </row>
     <row r="37" spans="1:181">
       <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:181">
       <c r="B38" s="1" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:181">
-      <c r="B40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>254</v>
+    <row r="39" spans="1:181">
+      <c r="B39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:181">
       <c r="B41" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:181">
@@ -5611,371 +6498,39 @@
         <v>240</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:181">
       <c r="B43" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:181">
-      <c r="A45" s="4" t="s">
-        <v>261</v>
+    <row r="44" spans="1:181">
+      <c r="B44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:181">
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN46" s="2"/>
-      <c r="AO46" s="2"/>
-      <c r="AP46" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR46" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS46" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT46" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW46" s="2"/>
-      <c r="AX46" s="2"/>
-      <c r="AY46" s="2"/>
-      <c r="AZ46" s="2"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
-      <c r="BD46" s="2"/>
-      <c r="BE46" s="2"/>
-      <c r="BF46" s="2"/>
-      <c r="BG46" s="2"/>
-      <c r="BH46" s="2"/>
-      <c r="BI46" s="2"/>
-      <c r="BJ46" s="2"/>
-      <c r="BK46" s="2"/>
-      <c r="BL46" s="2"/>
-      <c r="BM46" s="2"/>
-      <c r="BN46" s="2"/>
-      <c r="BO46" s="2"/>
-      <c r="BP46" s="2"/>
-      <c r="BQ46" s="2"/>
-      <c r="BR46" s="2"/>
-      <c r="BS46" s="2"/>
-      <c r="BT46" s="2"/>
-      <c r="BU46" s="2"/>
-      <c r="BV46" s="2"/>
-      <c r="BW46" s="2"/>
-      <c r="BX46" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="BY46" s="2"/>
-      <c r="BZ46" s="2"/>
-      <c r="CA46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CB46" s="2"/>
-      <c r="CC46" s="2"/>
-      <c r="CD46" s="2"/>
-      <c r="CE46" s="2"/>
-      <c r="CF46" s="2"/>
-      <c r="CG46" s="2"/>
-      <c r="CH46" s="2"/>
-      <c r="CI46" s="2"/>
-      <c r="CJ46" s="2"/>
-      <c r="CK46" s="2"/>
-      <c r="CL46" s="2"/>
-      <c r="CM46" s="2"/>
-      <c r="CN46" s="2"/>
-      <c r="CO46" s="2"/>
-      <c r="CP46" s="2"/>
-      <c r="CQ46" s="2"/>
-      <c r="CR46" s="2"/>
-      <c r="CS46" s="2"/>
-      <c r="CT46" s="2"/>
-      <c r="CU46" s="2"/>
-      <c r="CV46" s="2"/>
-      <c r="CW46" s="2"/>
-      <c r="CX46" s="2"/>
-      <c r="CY46" s="2"/>
-      <c r="CZ46" s="2"/>
-      <c r="DA46" s="2"/>
-      <c r="DB46" s="2"/>
-      <c r="DC46" s="2"/>
-      <c r="DD46" s="2"/>
-      <c r="DF46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="DG46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="DH46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI46" s="2"/>
-      <c r="DJ46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP46" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="DQ46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="DX46" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="DY46" s="2"/>
-      <c r="DZ46" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="EA46" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="EB46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="EC46" s="2"/>
-      <c r="ED46" s="2"/>
-      <c r="EE46" s="2"/>
-      <c r="EF46" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="EG46" s="2"/>
-      <c r="EH46" s="2"/>
-      <c r="EI46" s="2"/>
-      <c r="EJ46" s="2"/>
-      <c r="EK46" s="2"/>
-      <c r="EL46" s="2"/>
-      <c r="EM46" s="2"/>
-      <c r="EN46" s="2"/>
-      <c r="EO46" s="2"/>
-      <c r="EP46" s="2"/>
-      <c r="EQ46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="ER46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA46" s="2"/>
-      <c r="FB46" s="2"/>
-      <c r="FC46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="FD46" s="2"/>
-      <c r="FE46" s="2"/>
-      <c r="FF46" s="2"/>
-      <c r="FG46" s="2"/>
-      <c r="FH46" s="2"/>
-      <c r="FI46" s="2"/>
-      <c r="FJ46" s="2"/>
-      <c r="FK46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM46" s="2"/>
-      <c r="FN46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO46" s="2"/>
-      <c r="FP46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FQ46" s="2"/>
-      <c r="FR46" s="2"/>
-      <c r="FS46" s="2"/>
-      <c r="FT46" s="2"/>
-      <c r="FU46" s="2"/>
-      <c r="FV46" s="2"/>
-      <c r="FW46" s="2"/>
-      <c r="FX46" s="2"/>
-      <c r="FY46" s="2"/>
+      <c r="A46" s="4" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="47" spans="1:181">
       <c r="B47" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>262</v>
+        <v>31</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>3</v>
@@ -5984,47 +6539,379 @@
         <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT47" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
+      <c r="BQ47" s="2"/>
+      <c r="BR47" s="2"/>
+      <c r="BS47" s="2"/>
+      <c r="BT47" s="2"/>
+      <c r="BU47" s="2"/>
+      <c r="BV47" s="2"/>
+      <c r="BW47" s="2"/>
+      <c r="BX47" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="BY47" s="2"/>
+      <c r="BZ47" s="2"/>
+      <c r="CA47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CB47" s="2"/>
+      <c r="CC47" s="2"/>
+      <c r="CD47" s="2"/>
+      <c r="CE47" s="2"/>
+      <c r="CF47" s="2"/>
+      <c r="CG47" s="2"/>
+      <c r="CH47" s="2"/>
+      <c r="CI47" s="2"/>
+      <c r="CJ47" s="2"/>
+      <c r="CK47" s="2"/>
+      <c r="CL47" s="2"/>
+      <c r="CM47" s="2"/>
+      <c r="CN47" s="2"/>
+      <c r="CO47" s="2"/>
+      <c r="CP47" s="2"/>
+      <c r="CQ47" s="2"/>
+      <c r="CR47" s="2"/>
+      <c r="CS47" s="2"/>
+      <c r="CT47" s="2"/>
+      <c r="CU47" s="2"/>
+      <c r="CV47" s="2"/>
+      <c r="CW47" s="2"/>
+      <c r="CX47" s="2"/>
+      <c r="CY47" s="2"/>
+      <c r="CZ47" s="2"/>
+      <c r="DA47" s="2"/>
+      <c r="DB47" s="2"/>
+      <c r="DC47" s="2"/>
+      <c r="DD47" s="2"/>
+      <c r="DF47" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="DG47" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="DH47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI47" s="2"/>
+      <c r="DJ47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="DQ47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW47" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="DX47" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="DY47" s="2"/>
+      <c r="DZ47" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="EA47" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="EB47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="EC47" s="2"/>
+      <c r="ED47" s="2"/>
+      <c r="EE47" s="2"/>
+      <c r="EF47" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="EG47" s="2"/>
+      <c r="EH47" s="2"/>
+      <c r="EI47" s="2"/>
+      <c r="EJ47" s="2"/>
+      <c r="EK47" s="2"/>
+      <c r="EL47" s="2"/>
+      <c r="EM47" s="2"/>
+      <c r="EN47" s="2"/>
+      <c r="EO47" s="2"/>
+      <c r="EP47" s="2"/>
+      <c r="EQ47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="ER47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA47" s="2"/>
+      <c r="FB47" s="2"/>
+      <c r="FC47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FD47" s="2"/>
+      <c r="FE47" s="2"/>
+      <c r="FF47" s="2"/>
+      <c r="FG47" s="2"/>
+      <c r="FH47" s="2"/>
+      <c r="FI47" s="2"/>
+      <c r="FJ47" s="2"/>
+      <c r="FK47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM47" s="2"/>
+      <c r="FN47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO47" s="2"/>
+      <c r="FP47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ47" s="2"/>
+      <c r="FR47" s="2"/>
+      <c r="FS47" s="2"/>
+      <c r="FT47" s="2"/>
+      <c r="FU47" s="2"/>
+      <c r="FV47" s="2"/>
+      <c r="FW47" s="2"/>
+      <c r="FX47" s="2"/>
+      <c r="FY47" s="2"/>
     </row>
     <row r="48" spans="1:181">
       <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:181">
       <c r="B49" s="1" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:181">
-      <c r="B51" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>254</v>
+    <row r="50" spans="1:181">
+      <c r="B50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:181">
       <c r="B52" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:181">
@@ -6032,428 +6919,428 @@
         <v>240</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:181">
       <c r="B54" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:181">
-      <c r="A56" s="4" t="s">
-        <v>266</v>
+    <row r="55" spans="1:181">
+      <c r="B55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:181">
-      <c r="B57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN57" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AO57" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="AP57" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AQ57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS57" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT57" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU57" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="2"/>
-      <c r="BD57" s="2"/>
-      <c r="BE57" s="2"/>
-      <c r="BF57" s="2"/>
-      <c r="BG57" s="2"/>
-      <c r="BH57" s="2"/>
-      <c r="BI57" s="2"/>
-      <c r="BJ57" s="2"/>
-      <c r="BK57" s="2"/>
-      <c r="BL57" s="2"/>
-      <c r="BM57" s="2"/>
-      <c r="BN57" s="2"/>
-      <c r="BO57" s="2"/>
-      <c r="BP57" s="2"/>
-      <c r="BQ57" s="2"/>
-      <c r="BR57" s="2"/>
-      <c r="BS57" s="2"/>
-      <c r="BT57" s="2"/>
-      <c r="BU57" s="2"/>
-      <c r="BV57" s="2"/>
-      <c r="BW57" s="2"/>
-      <c r="BX57" s="2"/>
-      <c r="BY57" s="2"/>
-      <c r="BZ57" s="2"/>
-      <c r="CA57" s="2"/>
-      <c r="CB57" s="2"/>
-      <c r="CC57" s="2"/>
-      <c r="CD57" s="2"/>
-      <c r="CE57" s="2"/>
-      <c r="CF57" s="2"/>
-      <c r="CG57" s="2"/>
-      <c r="CH57" s="2"/>
-      <c r="CI57" s="2"/>
-      <c r="CJ57" s="2"/>
-      <c r="CK57" s="2"/>
-      <c r="CL57" s="2"/>
-      <c r="CM57" s="2"/>
-      <c r="CN57" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="CO57" s="2"/>
-      <c r="CP57" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="CQ57" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="CR57" s="2"/>
-      <c r="CS57" s="2"/>
-      <c r="CT57" s="2"/>
-      <c r="CU57" s="2"/>
-      <c r="CV57" s="2"/>
-      <c r="CW57" s="2"/>
-      <c r="CX57" s="2"/>
-      <c r="CY57" s="2"/>
-      <c r="CZ57" s="2"/>
-      <c r="DA57" s="2"/>
-      <c r="DB57" s="2"/>
-      <c r="DC57" s="2"/>
-      <c r="DD57" s="2"/>
-      <c r="DF57" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="DG57" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="DH57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI57" s="2"/>
-      <c r="DJ57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO57" s="2"/>
-      <c r="DP57" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="DQ57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW57" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="DX57" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="DY57" s="2"/>
-      <c r="DZ57" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="EA57" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="EB57" s="2"/>
-      <c r="EC57" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="ED57" s="2"/>
-      <c r="EE57" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="EF57" s="2"/>
-      <c r="EG57" s="2"/>
-      <c r="EH57" s="2"/>
-      <c r="EI57" s="2"/>
-      <c r="EJ57" s="2"/>
-      <c r="EK57" s="2"/>
-      <c r="EL57" s="2"/>
-      <c r="EM57" s="2"/>
-      <c r="EN57" s="2"/>
-      <c r="EO57" s="2"/>
-      <c r="EP57" s="2"/>
-      <c r="EQ57" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="ER57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA57" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="FB57" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="FC57" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="FD57" s="2"/>
-      <c r="FE57" s="2"/>
-      <c r="FF57" s="2"/>
-      <c r="FG57" s="2"/>
-      <c r="FH57" s="2"/>
-      <c r="FI57" s="2"/>
-      <c r="FJ57" s="2"/>
-      <c r="FK57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM57" s="2"/>
-      <c r="FN57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO57" s="2"/>
-      <c r="FP57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FQ57" s="2"/>
-      <c r="FR57" s="2"/>
-      <c r="FS57" s="2"/>
-      <c r="FT57" s="2"/>
-      <c r="FU57" s="2"/>
-      <c r="FV57" s="2"/>
-      <c r="FW57" s="2"/>
-      <c r="FX57" s="2"/>
-      <c r="FY57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="58" spans="1:181">
       <c r="B58" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="F58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN58" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AO58" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP58" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="2"/>
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="2"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+      <c r="BJ58" s="2"/>
+      <c r="BK58" s="2"/>
+      <c r="BL58" s="2"/>
+      <c r="BM58" s="2"/>
+      <c r="BN58" s="2"/>
+      <c r="BO58" s="2"/>
+      <c r="BP58" s="2"/>
+      <c r="BQ58" s="2"/>
+      <c r="BR58" s="2"/>
+      <c r="BS58" s="2"/>
+      <c r="BT58" s="2"/>
+      <c r="BU58" s="2"/>
+      <c r="BV58" s="2"/>
+      <c r="BW58" s="2"/>
+      <c r="BX58" s="2"/>
+      <c r="BY58" s="2"/>
+      <c r="BZ58" s="2"/>
+      <c r="CA58" s="2"/>
+      <c r="CB58" s="2"/>
+      <c r="CC58" s="2"/>
+      <c r="CD58" s="2"/>
+      <c r="CE58" s="2"/>
+      <c r="CF58" s="2"/>
+      <c r="CG58" s="2"/>
+      <c r="CH58" s="2"/>
+      <c r="CI58" s="2"/>
+      <c r="CJ58" s="2"/>
+      <c r="CK58" s="2"/>
+      <c r="CL58" s="2"/>
+      <c r="CM58" s="2"/>
+      <c r="CN58" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="CO58" s="2"/>
+      <c r="CP58" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CQ58" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CR58" s="2"/>
+      <c r="CS58" s="2"/>
+      <c r="CT58" s="2"/>
+      <c r="CU58" s="2"/>
+      <c r="CV58" s="2"/>
+      <c r="CW58" s="2"/>
+      <c r="CX58" s="2"/>
+      <c r="CY58" s="2"/>
+      <c r="CZ58" s="2"/>
+      <c r="DA58" s="2"/>
+      <c r="DB58" s="2"/>
+      <c r="DC58" s="2"/>
+      <c r="DD58" s="2"/>
+      <c r="DF58" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="DG58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="DH58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI58" s="2"/>
+      <c r="DJ58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO58" s="2"/>
+      <c r="DP58" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="DQ58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW58" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="DX58" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="DY58" s="2"/>
+      <c r="DZ58" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="EA58" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="EB58" s="2"/>
+      <c r="EC58" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="ED58" s="2"/>
+      <c r="EE58" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="EF58" s="2"/>
+      <c r="EG58" s="2"/>
+      <c r="EH58" s="2"/>
+      <c r="EI58" s="2"/>
+      <c r="EJ58" s="2"/>
+      <c r="EK58" s="2"/>
+      <c r="EL58" s="2"/>
+      <c r="EM58" s="2"/>
+      <c r="EN58" s="2"/>
+      <c r="EO58" s="2"/>
+      <c r="EP58" s="2"/>
+      <c r="EQ58" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="ER58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA58" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="FB58" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="FC58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FD58" s="2"/>
+      <c r="FE58" s="2"/>
+      <c r="FF58" s="2"/>
+      <c r="FG58" s="2"/>
+      <c r="FH58" s="2"/>
+      <c r="FI58" s="2"/>
+      <c r="FJ58" s="2"/>
+      <c r="FK58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM58" s="2"/>
+      <c r="FN58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO58" s="2"/>
+      <c r="FP58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ58" s="2"/>
+      <c r="FR58" s="2"/>
+      <c r="FS58" s="2"/>
+      <c r="FT58" s="2"/>
+      <c r="FU58" s="2"/>
+      <c r="FV58" s="2"/>
+      <c r="FW58" s="2"/>
+      <c r="FX58" s="2"/>
+      <c r="FY58" s="2"/>
     </row>
     <row r="59" spans="1:181">
       <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:181">
       <c r="B60" s="1" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:181">
-      <c r="B62" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>254</v>
+    <row r="61" spans="1:181">
+      <c r="B61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:181">
       <c r="B63" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:181">
@@ -6461,444 +7348,444 @@
         <v>240</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:181">
       <c r="B65" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:181">
-      <c r="A67" s="4" t="s">
-        <v>271</v>
+    <row r="66" spans="1:181">
+      <c r="B66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:181">
-      <c r="B68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AD68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN68" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AO68" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AP68" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="AQ68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR68" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS68" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT68" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU68" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW68" s="2"/>
-      <c r="AX68" s="2"/>
-      <c r="AY68" s="2"/>
-      <c r="AZ68" s="2"/>
-      <c r="BA68" s="2"/>
-      <c r="BB68" s="2"/>
-      <c r="BC68" s="2"/>
-      <c r="BD68" s="2"/>
-      <c r="BE68" s="2"/>
-      <c r="BF68" s="2"/>
-      <c r="BG68" s="2"/>
-      <c r="BH68" s="2"/>
-      <c r="BI68" s="2"/>
-      <c r="BJ68" s="2"/>
-      <c r="BK68" s="2"/>
-      <c r="BL68" s="2"/>
-      <c r="BM68" s="2"/>
-      <c r="BN68" s="2"/>
-      <c r="BO68" s="2"/>
-      <c r="BP68" s="2"/>
-      <c r="BQ68" s="2"/>
-      <c r="BR68" s="2"/>
-      <c r="BS68" s="2"/>
-      <c r="BT68" s="2"/>
-      <c r="BU68" s="2"/>
-      <c r="BV68" s="2"/>
-      <c r="BW68" s="2"/>
-      <c r="BX68" s="2"/>
-      <c r="BY68" s="2"/>
-      <c r="BZ68" s="2"/>
-      <c r="CA68" s="2"/>
-      <c r="CB68" s="2"/>
-      <c r="CC68" s="2"/>
-      <c r="CD68" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="CE68" s="2"/>
-      <c r="CF68" s="2"/>
-      <c r="CG68" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="CH68" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI68" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="CJ68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CL68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CM68" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="CN68" s="2"/>
-      <c r="CO68" s="2"/>
-      <c r="CP68" s="2"/>
-      <c r="CQ68" s="2"/>
-      <c r="CR68" s="2"/>
-      <c r="CS68" s="2"/>
-      <c r="CT68" s="2"/>
-      <c r="CU68" s="2"/>
-      <c r="CV68" s="2"/>
-      <c r="CW68" s="2"/>
-      <c r="CX68" s="2"/>
-      <c r="CY68" s="2"/>
-      <c r="CZ68" s="2"/>
-      <c r="DA68" s="2"/>
-      <c r="DB68" s="2"/>
-      <c r="DC68" s="2"/>
-      <c r="DD68" s="2"/>
-      <c r="DF68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="DG68" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="DH68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI68" s="2"/>
-      <c r="DJ68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP68" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="DQ68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="DX68" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="DY68" s="2"/>
-      <c r="DZ68" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="EA68" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="EB68" s="2"/>
-      <c r="EC68" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="ED68" s="2"/>
-      <c r="EE68" s="2"/>
-      <c r="EF68" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="EG68" s="2"/>
-      <c r="EH68" s="2"/>
-      <c r="EI68" s="2"/>
-      <c r="EJ68" s="2"/>
-      <c r="EK68" s="2"/>
-      <c r="EL68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EM68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EN68" s="2"/>
-      <c r="EO68" s="2"/>
-      <c r="EP68" s="2"/>
-      <c r="EQ68" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="ER68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA68" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="FB68" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="FC68" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="FD68" s="2"/>
-      <c r="FE68" s="2"/>
-      <c r="FF68" s="2"/>
-      <c r="FG68" s="2"/>
-      <c r="FH68" s="2"/>
-      <c r="FI68" s="2"/>
-      <c r="FJ68" s="2"/>
-      <c r="FK68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM68" s="2"/>
-      <c r="FN68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO68" s="2"/>
-      <c r="FP68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="FQ68" s="2"/>
-      <c r="FR68" s="2"/>
-      <c r="FS68" s="2"/>
-      <c r="FT68" s="2"/>
-      <c r="FU68" s="2"/>
-      <c r="FV68" s="2"/>
-      <c r="FW68" s="2"/>
-      <c r="FX68" s="2"/>
-      <c r="FY68" s="2"/>
+      <c r="A68" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="69" spans="1:181">
       <c r="B69" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="F69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN69" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AO69" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP69" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW69" s="2"/>
+      <c r="AX69" s="2"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="2"/>
+      <c r="BA69" s="2"/>
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="2"/>
+      <c r="BE69" s="2"/>
+      <c r="BF69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+      <c r="BJ69" s="2"/>
+      <c r="BK69" s="2"/>
+      <c r="BL69" s="2"/>
+      <c r="BM69" s="2"/>
+      <c r="BN69" s="2"/>
+      <c r="BO69" s="2"/>
+      <c r="BP69" s="2"/>
+      <c r="BQ69" s="2"/>
+      <c r="BR69" s="2"/>
+      <c r="BS69" s="2"/>
+      <c r="BT69" s="2"/>
+      <c r="BU69" s="2"/>
+      <c r="BV69" s="2"/>
+      <c r="BW69" s="2"/>
+      <c r="BX69" s="2"/>
+      <c r="BY69" s="2"/>
+      <c r="BZ69" s="2"/>
+      <c r="CA69" s="2"/>
+      <c r="CB69" s="2"/>
+      <c r="CC69" s="2"/>
+      <c r="CD69" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="CE69" s="2"/>
+      <c r="CF69" s="2"/>
+      <c r="CG69" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="CH69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CI69" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="CJ69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM69" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="CN69" s="2"/>
+      <c r="CO69" s="2"/>
+      <c r="CP69" s="2"/>
+      <c r="CQ69" s="2"/>
+      <c r="CR69" s="2"/>
+      <c r="CS69" s="2"/>
+      <c r="CT69" s="2"/>
+      <c r="CU69" s="2"/>
+      <c r="CV69" s="2"/>
+      <c r="CW69" s="2"/>
+      <c r="CX69" s="2"/>
+      <c r="CY69" s="2"/>
+      <c r="CZ69" s="2"/>
+      <c r="DA69" s="2"/>
+      <c r="DB69" s="2"/>
+      <c r="DC69" s="2"/>
+      <c r="DD69" s="2"/>
+      <c r="DF69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="DG69" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="DH69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI69" s="2"/>
+      <c r="DJ69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP69" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="DQ69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="DX69" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="DY69" s="2"/>
+      <c r="DZ69" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="EA69" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="EB69" s="2"/>
+      <c r="EC69" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="ED69" s="2"/>
+      <c r="EE69" s="2"/>
+      <c r="EF69" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="EG69" s="2"/>
+      <c r="EH69" s="2"/>
+      <c r="EI69" s="2"/>
+      <c r="EJ69" s="2"/>
+      <c r="EK69" s="2"/>
+      <c r="EL69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EN69" s="2"/>
+      <c r="EO69" s="2"/>
+      <c r="EP69" s="2"/>
+      <c r="EQ69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="ER69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA69" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="FB69" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="FC69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FD69" s="2"/>
+      <c r="FE69" s="2"/>
+      <c r="FF69" s="2"/>
+      <c r="FG69" s="2"/>
+      <c r="FH69" s="2"/>
+      <c r="FI69" s="2"/>
+      <c r="FJ69" s="2"/>
+      <c r="FK69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM69" s="2"/>
+      <c r="FN69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO69" s="2"/>
+      <c r="FP69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ69" s="2"/>
+      <c r="FR69" s="2"/>
+      <c r="FS69" s="2"/>
+      <c r="FT69" s="2"/>
+      <c r="FU69" s="2"/>
+      <c r="FV69" s="2"/>
+      <c r="FW69" s="2"/>
+      <c r="FX69" s="2"/>
+      <c r="FY69" s="2"/>
     </row>
     <row r="70" spans="1:181">
       <c r="B70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:181">
       <c r="B71" s="1" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:181">
-      <c r="B73" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>254</v>
+    <row r="72" spans="1:181">
+      <c r="B72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:181">
       <c r="B74" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:181">
@@ -6906,353 +7793,37 @@
         <v>240</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:181">
       <c r="B76" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:181">
-      <c r="A78" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN78" s="2"/>
-      <c r="AO78" s="2"/>
-      <c r="AP78" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR78" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS78" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT78" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU78" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW78" s="2"/>
-      <c r="AX78" s="2"/>
-      <c r="AY78" s="2"/>
-      <c r="AZ78" s="2"/>
-      <c r="BA78" s="2"/>
-      <c r="BB78" s="2"/>
-      <c r="BC78" s="2"/>
-      <c r="BD78" s="2"/>
-      <c r="BE78" s="2"/>
-      <c r="BF78" s="2"/>
-      <c r="BG78" s="2"/>
-      <c r="BH78" s="2"/>
-      <c r="BI78" s="2"/>
-      <c r="BJ78" s="2"/>
-      <c r="BK78" s="2"/>
-      <c r="BL78" s="2"/>
-      <c r="BM78" s="2"/>
-      <c r="BN78" s="2"/>
-      <c r="BO78" s="2"/>
-      <c r="BP78" s="2"/>
-      <c r="BQ78" s="2"/>
-      <c r="BR78" s="2"/>
-      <c r="BS78" s="2"/>
-      <c r="BT78" s="2"/>
-      <c r="BU78" s="2"/>
-      <c r="BV78" s="2"/>
-      <c r="BW78" s="2"/>
-      <c r="BX78" s="2"/>
-      <c r="BY78" s="2"/>
-      <c r="BZ78" s="2"/>
-      <c r="CA78" s="2"/>
-      <c r="CB78" s="2"/>
-      <c r="CC78" s="2"/>
-      <c r="CD78" s="2"/>
-      <c r="CE78" s="2"/>
-      <c r="CF78" s="2"/>
-      <c r="CG78" s="2"/>
-      <c r="CH78" s="2"/>
-      <c r="CI78" s="2"/>
-      <c r="CJ78" s="2"/>
-      <c r="CK78" s="2"/>
-      <c r="CL78" s="2"/>
-      <c r="CM78" s="2"/>
-      <c r="CN78" s="2"/>
-      <c r="CO78" s="2"/>
-      <c r="CP78" s="2"/>
-      <c r="CQ78" s="2"/>
-      <c r="CR78" s="2"/>
-      <c r="CS78" s="2"/>
-      <c r="CT78" s="2"/>
-      <c r="CU78" s="2"/>
-      <c r="CV78" s="2"/>
-      <c r="CW78" s="2"/>
-      <c r="CX78" s="2"/>
-      <c r="CY78" s="2"/>
-      <c r="CZ78" s="2"/>
-      <c r="DA78" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="DB78" s="2"/>
-      <c r="DC78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="DD78" s="2"/>
-      <c r="DF78" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="DG78" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DH78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI78" s="2"/>
-      <c r="DJ78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP78" s="2"/>
-      <c r="DQ78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW78" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="DX78" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="DY78" s="2"/>
-      <c r="DZ78" s="2"/>
-      <c r="EA78" s="2"/>
-      <c r="EB78" s="2"/>
-      <c r="EC78" s="2"/>
-      <c r="ED78" s="2"/>
-      <c r="EE78" s="2"/>
-      <c r="EF78" s="2"/>
-      <c r="EG78" s="2"/>
-      <c r="EH78" s="2"/>
-      <c r="EI78" s="2"/>
-      <c r="EJ78" s="2"/>
-      <c r="EK78" s="2"/>
-      <c r="EL78" s="2"/>
-      <c r="EM78" s="2"/>
-      <c r="EN78" s="2"/>
-      <c r="EO78" s="2"/>
-      <c r="EP78" s="2"/>
-      <c r="EQ78" s="2"/>
-      <c r="ER78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA78" s="2"/>
-      <c r="FB78" s="2"/>
-      <c r="FC78" s="2"/>
-      <c r="FD78" s="2"/>
-      <c r="FE78" s="2"/>
-      <c r="FF78" s="2"/>
-      <c r="FG78" s="2"/>
-      <c r="FH78" s="2"/>
-      <c r="FI78" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="FJ78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="FK78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM78" s="2"/>
-      <c r="FN78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO78" s="2"/>
-      <c r="FP78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FQ78" s="2"/>
-      <c r="FR78" s="2"/>
-      <c r="FS78" s="2"/>
-      <c r="FT78" s="2"/>
-      <c r="FU78" s="2"/>
-      <c r="FV78" s="2"/>
-      <c r="FW78" s="2"/>
-      <c r="FX78" s="2"/>
-      <c r="FY78" s="2"/>
+    <row r="77" spans="1:181">
+      <c r="B77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="79" spans="1:181">
+      <c r="A79" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>3</v>
@@ -7264,19 +7835,19 @@
         <v>30</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>5</v>
@@ -7292,10 +7863,10 @@
       </c>
       <c r="R79" s="2"/>
       <c r="S79" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2" t="s">
@@ -7305,10 +7876,10 @@
         <v>5</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
@@ -7347,22 +7918,22 @@
       <c r="AN79" s="2"/>
       <c r="AO79" s="2"/>
       <c r="AP79" s="2" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="AQ79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AS79" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AT79" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AU79" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AV79" s="2" t="s">
         <v>2</v>
@@ -7424,18 +7995,18 @@
       <c r="CY79" s="2"/>
       <c r="CZ79" s="2"/>
       <c r="DA79" s="2" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="DB79" s="2"/>
       <c r="DC79" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="DD79" s="2"/>
       <c r="DF79" s="2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="DG79" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DH79" s="2" t="s">
         <v>5</v>
@@ -7445,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="DK79" s="2" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="DL79" s="2" t="s">
         <v>5</v>
@@ -7479,10 +8050,10 @@
         <v>14</v>
       </c>
       <c r="DW79" s="2" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="DX79" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="DY79" s="2"/>
       <c r="DZ79" s="2"/>
@@ -7539,10 +8110,10 @@
       <c r="FG79" s="2"/>
       <c r="FH79" s="2"/>
       <c r="FI79" s="2" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="FJ79" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FK79" s="2" t="s">
         <v>5</v>
@@ -7570,13 +8141,13 @@
     </row>
     <row r="80" spans="1:181">
       <c r="B80" s="1" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>3</v>
@@ -7585,26 +8156,322 @@
         <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN80" s="2"/>
+      <c r="AO80" s="2"/>
+      <c r="AP80" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS80" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW80" s="2"/>
+      <c r="AX80" s="2"/>
+      <c r="AY80" s="2"/>
+      <c r="AZ80" s="2"/>
+      <c r="BA80" s="2"/>
+      <c r="BB80" s="2"/>
+      <c r="BC80" s="2"/>
+      <c r="BD80" s="2"/>
+      <c r="BE80" s="2"/>
+      <c r="BF80" s="2"/>
+      <c r="BG80" s="2"/>
+      <c r="BH80" s="2"/>
+      <c r="BI80" s="2"/>
+      <c r="BJ80" s="2"/>
+      <c r="BK80" s="2"/>
+      <c r="BL80" s="2"/>
+      <c r="BM80" s="2"/>
+      <c r="BN80" s="2"/>
+      <c r="BO80" s="2"/>
+      <c r="BP80" s="2"/>
+      <c r="BQ80" s="2"/>
+      <c r="BR80" s="2"/>
+      <c r="BS80" s="2"/>
+      <c r="BT80" s="2"/>
+      <c r="BU80" s="2"/>
+      <c r="BV80" s="2"/>
+      <c r="BW80" s="2"/>
+      <c r="BX80" s="2"/>
+      <c r="BY80" s="2"/>
+      <c r="BZ80" s="2"/>
+      <c r="CA80" s="2"/>
+      <c r="CB80" s="2"/>
+      <c r="CC80" s="2"/>
+      <c r="CD80" s="2"/>
+      <c r="CE80" s="2"/>
+      <c r="CF80" s="2"/>
+      <c r="CG80" s="2"/>
+      <c r="CH80" s="2"/>
+      <c r="CI80" s="2"/>
+      <c r="CJ80" s="2"/>
+      <c r="CK80" s="2"/>
+      <c r="CL80" s="2"/>
+      <c r="CM80" s="2"/>
+      <c r="CN80" s="2"/>
+      <c r="CO80" s="2"/>
+      <c r="CP80" s="2"/>
+      <c r="CQ80" s="2"/>
+      <c r="CR80" s="2"/>
+      <c r="CS80" s="2"/>
+      <c r="CT80" s="2"/>
+      <c r="CU80" s="2"/>
+      <c r="CV80" s="2"/>
+      <c r="CW80" s="2"/>
+      <c r="CX80" s="2"/>
+      <c r="CY80" s="2"/>
+      <c r="CZ80" s="2"/>
+      <c r="DA80" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DB80" s="2"/>
+      <c r="DC80" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="DD80" s="2"/>
+      <c r="DF80" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="DG80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI80" s="2"/>
+      <c r="DJ80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="DL80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP80" s="2"/>
+      <c r="DQ80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW80" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="DX80" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="DY80" s="2"/>
+      <c r="DZ80" s="2"/>
+      <c r="EA80" s="2"/>
+      <c r="EB80" s="2"/>
+      <c r="EC80" s="2"/>
+      <c r="ED80" s="2"/>
+      <c r="EE80" s="2"/>
+      <c r="EF80" s="2"/>
+      <c r="EG80" s="2"/>
+      <c r="EH80" s="2"/>
+      <c r="EI80" s="2"/>
+      <c r="EJ80" s="2"/>
+      <c r="EK80" s="2"/>
+      <c r="EL80" s="2"/>
+      <c r="EM80" s="2"/>
+      <c r="EN80" s="2"/>
+      <c r="EO80" s="2"/>
+      <c r="EP80" s="2"/>
+      <c r="EQ80" s="2"/>
+      <c r="ER80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA80" s="2"/>
+      <c r="FB80" s="2"/>
+      <c r="FC80" s="2"/>
+      <c r="FD80" s="2"/>
+      <c r="FE80" s="2"/>
+      <c r="FF80" s="2"/>
+      <c r="FG80" s="2"/>
+      <c r="FH80" s="2"/>
+      <c r="FI80" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FJ80" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="FK80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM80" s="2"/>
+      <c r="FN80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO80" s="2"/>
+      <c r="FP80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ80" s="2"/>
+      <c r="FR80" s="2"/>
+      <c r="FS80" s="2"/>
+      <c r="FT80" s="2"/>
+      <c r="FU80" s="2"/>
+      <c r="FV80" s="2"/>
+      <c r="FW80" s="2"/>
+      <c r="FX80" s="2"/>
+      <c r="FY80" s="2"/>
     </row>
     <row r="81" spans="2:181">
       <c r="B81" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>3</v>
@@ -7616,23 +8483,23 @@
         <v>26</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="2:181">
       <c r="B82" s="1" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>3</v>
@@ -7641,26 +8508,26 @@
         <v>2</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>325</v>
+        <v>26</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="2:181">
       <c r="B83" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>3</v>
@@ -7669,1327 +8536,1327 @@
         <v>2</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="2:181">
+      <c r="B84" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="2" t="s">
+      <c r="H84" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="2" t="s">
+      <c r="P84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="2" t="s">
+      <c r="R84" s="2"/>
+      <c r="S84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W84" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="X83" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y83" s="2" t="s">
+      <c r="X84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y84" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN84" s="2"/>
+      <c r="AO84" s="2"/>
+      <c r="AP84" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU84" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW84" s="2"/>
+      <c r="AX84" s="2"/>
+      <c r="AY84" s="2"/>
+      <c r="AZ84" s="2"/>
+      <c r="BA84" s="2"/>
+      <c r="BB84" s="2"/>
+      <c r="BC84" s="2"/>
+      <c r="BD84" s="2"/>
+      <c r="BE84" s="2"/>
+      <c r="BF84" s="2"/>
+      <c r="BG84" s="2"/>
+      <c r="BH84" s="2"/>
+      <c r="BI84" s="2"/>
+      <c r="BJ84" s="2"/>
+      <c r="BK84" s="2"/>
+      <c r="BL84" s="2"/>
+      <c r="BM84" s="2"/>
+      <c r="BN84" s="2"/>
+      <c r="BO84" s="2"/>
+      <c r="BP84" s="2"/>
+      <c r="BQ84" s="2"/>
+      <c r="BR84" s="2"/>
+      <c r="BS84" s="2"/>
+      <c r="BT84" s="2"/>
+      <c r="BU84" s="2"/>
+      <c r="BV84" s="2"/>
+      <c r="BW84" s="2"/>
+      <c r="BX84" s="2"/>
+      <c r="BY84" s="2"/>
+      <c r="BZ84" s="2"/>
+      <c r="CA84" s="2"/>
+      <c r="CB84" s="2"/>
+      <c r="CC84" s="2"/>
+      <c r="CD84" s="2"/>
+      <c r="CE84" s="2"/>
+      <c r="CF84" s="2"/>
+      <c r="CG84" s="2"/>
+      <c r="CH84" s="2"/>
+      <c r="CI84" s="2"/>
+      <c r="CJ84" s="2"/>
+      <c r="CK84" s="2"/>
+      <c r="CL84" s="2"/>
+      <c r="CM84" s="2"/>
+      <c r="CN84" s="2"/>
+      <c r="CO84" s="2"/>
+      <c r="CP84" s="2"/>
+      <c r="CQ84" s="2"/>
+      <c r="CR84" s="2"/>
+      <c r="CS84" s="2"/>
+      <c r="CT84" s="2"/>
+      <c r="CU84" s="2"/>
+      <c r="CV84" s="2"/>
+      <c r="CW84" s="2"/>
+      <c r="CX84" s="2"/>
+      <c r="CY84" s="2"/>
+      <c r="CZ84" s="2"/>
+      <c r="DA84" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="DB84" s="2"/>
+      <c r="DC84" s="2"/>
+      <c r="DD84" s="2"/>
+      <c r="DF84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="DG84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI84" s="2"/>
+      <c r="DJ84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DK84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="DL84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO84" s="2"/>
+      <c r="DP84" s="2"/>
+      <c r="DQ84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW84" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="DX84" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="2" t="s">
+      <c r="DY84" s="2"/>
+      <c r="DZ84" s="2"/>
+      <c r="EA84" s="2"/>
+      <c r="EB84" s="2"/>
+      <c r="EC84" s="2"/>
+      <c r="ED84" s="2"/>
+      <c r="EE84" s="2"/>
+      <c r="EF84" s="2"/>
+      <c r="EG84" s="2"/>
+      <c r="EH84" s="2"/>
+      <c r="EI84" s="2"/>
+      <c r="EJ84" s="2"/>
+      <c r="EK84" s="2"/>
+      <c r="EL84" s="2"/>
+      <c r="EM84" s="2"/>
+      <c r="EN84" s="2"/>
+      <c r="EO84" s="2"/>
+      <c r="EP84" s="2"/>
+      <c r="EQ84" s="2"/>
+      <c r="ER84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA84" s="2"/>
+      <c r="FB84" s="2"/>
+      <c r="FC84" s="2"/>
+      <c r="FD84" s="2"/>
+      <c r="FE84" s="2"/>
+      <c r="FF84" s="2"/>
+      <c r="FG84" s="2"/>
+      <c r="FH84" s="2"/>
+      <c r="FI84" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="FJ84" s="2"/>
+      <c r="FK84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM84" s="2"/>
+      <c r="FN84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO84" s="2"/>
+      <c r="FP84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ84" s="2"/>
+      <c r="FR84" s="2"/>
+      <c r="FS84" s="2"/>
+      <c r="FT84" s="2"/>
+      <c r="FU84" s="2"/>
+      <c r="FV84" s="2"/>
+      <c r="FW84" s="2"/>
+      <c r="FX84" s="2"/>
+      <c r="FY84" s="2"/>
+    </row>
+    <row r="86" spans="2:181">
+      <c r="B86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z86" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN83" s="2"/>
-      <c r="AO83" s="2"/>
-      <c r="AP83" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AQ83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR83" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS83" s="2" t="s">
+      <c r="AE86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN86" s="2"/>
+      <c r="AO86" s="2"/>
+      <c r="AP86" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR86" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AT83" s="2" t="s">
+      <c r="AS86" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AU83" s="2" t="s">
+      <c r="AT86" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AV83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW83" s="2"/>
-      <c r="AX83" s="2"/>
-      <c r="AY83" s="2"/>
-      <c r="AZ83" s="2"/>
-      <c r="BA83" s="2"/>
-      <c r="BB83" s="2"/>
-      <c r="BC83" s="2"/>
-      <c r="BD83" s="2"/>
-      <c r="BE83" s="2"/>
-      <c r="BF83" s="2"/>
-      <c r="BG83" s="2"/>
-      <c r="BH83" s="2"/>
-      <c r="BI83" s="2"/>
-      <c r="BJ83" s="2"/>
-      <c r="BK83" s="2"/>
-      <c r="BL83" s="2"/>
-      <c r="BM83" s="2"/>
-      <c r="BN83" s="2"/>
-      <c r="BO83" s="2"/>
-      <c r="BP83" s="2"/>
-      <c r="BQ83" s="2"/>
-      <c r="BR83" s="2"/>
-      <c r="BS83" s="2"/>
-      <c r="BT83" s="2"/>
-      <c r="BU83" s="2"/>
-      <c r="BV83" s="2"/>
-      <c r="BW83" s="2"/>
-      <c r="BX83" s="2"/>
-      <c r="BY83" s="2"/>
-      <c r="BZ83" s="2"/>
-      <c r="CA83" s="2"/>
-      <c r="CB83" s="2"/>
-      <c r="CC83" s="2"/>
-      <c r="CD83" s="2"/>
-      <c r="CE83" s="2"/>
-      <c r="CF83" s="2"/>
-      <c r="CG83" s="2"/>
-      <c r="CH83" s="2"/>
-      <c r="CI83" s="2"/>
-      <c r="CJ83" s="2"/>
-      <c r="CK83" s="2"/>
-      <c r="CL83" s="2"/>
-      <c r="CM83" s="2"/>
-      <c r="CN83" s="2"/>
-      <c r="CO83" s="2"/>
-      <c r="CP83" s="2"/>
-      <c r="CQ83" s="2"/>
-      <c r="CR83" s="2"/>
-      <c r="CS83" s="2"/>
-      <c r="CT83" s="2"/>
-      <c r="CU83" s="2"/>
-      <c r="CV83" s="2"/>
-      <c r="CW83" s="2"/>
-      <c r="CX83" s="2"/>
-      <c r="CY83" s="2"/>
-      <c r="CZ83" s="2"/>
-      <c r="DA83" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="DB83" s="2"/>
-      <c r="DC83" s="2"/>
-      <c r="DD83" s="2"/>
-      <c r="DF83" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="DG83" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DH83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DI83" s="2"/>
-      <c r="DJ83" s="2" t="s">
+      <c r="AU86" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW86" s="2"/>
+      <c r="AX86" s="2"/>
+      <c r="AY86" s="2"/>
+      <c r="AZ86" s="2"/>
+      <c r="BA86" s="2"/>
+      <c r="BB86" s="2"/>
+      <c r="BC86" s="2"/>
+      <c r="BD86" s="2"/>
+      <c r="BE86" s="2"/>
+      <c r="BF86" s="2"/>
+      <c r="BG86" s="2"/>
+      <c r="BH86" s="2"/>
+      <c r="BI86" s="2"/>
+      <c r="BJ86" s="2"/>
+      <c r="BK86" s="2"/>
+      <c r="BL86" s="2"/>
+      <c r="BM86" s="2"/>
+      <c r="BN86" s="2"/>
+      <c r="BO86" s="2"/>
+      <c r="BP86" s="2"/>
+      <c r="BQ86" s="2"/>
+      <c r="BR86" s="2"/>
+      <c r="BS86" s="2"/>
+      <c r="BT86" s="2"/>
+      <c r="BU86" s="2"/>
+      <c r="BV86" s="2"/>
+      <c r="BW86" s="2"/>
+      <c r="BX86" s="2"/>
+      <c r="BY86" s="2"/>
+      <c r="BZ86" s="2"/>
+      <c r="CA86" s="2"/>
+      <c r="CB86" s="2"/>
+      <c r="CC86" s="2"/>
+      <c r="CD86" s="2"/>
+      <c r="CE86" s="2"/>
+      <c r="CF86" s="2"/>
+      <c r="CG86" s="2"/>
+      <c r="CH86" s="2"/>
+      <c r="CI86" s="2"/>
+      <c r="CJ86" s="2"/>
+      <c r="CK86" s="2"/>
+      <c r="CL86" s="2"/>
+      <c r="CM86" s="2"/>
+      <c r="CN86" s="2"/>
+      <c r="CO86" s="2"/>
+      <c r="CP86" s="2"/>
+      <c r="CQ86" s="2"/>
+      <c r="CR86" s="2"/>
+      <c r="CS86" s="2"/>
+      <c r="CT86" s="2"/>
+      <c r="CU86" s="2"/>
+      <c r="CV86" s="2"/>
+      <c r="CW86" s="2"/>
+      <c r="CX86" s="2"/>
+      <c r="CY86" s="2"/>
+      <c r="CZ86" s="2"/>
+      <c r="DA86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="DB86" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="DC86" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="DD86" s="2"/>
+      <c r="DF86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DG86" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI86" s="2"/>
+      <c r="DJ86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DL86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO86" s="2"/>
+      <c r="DP86" s="2"/>
+      <c r="DQ86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="DX86" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY86" s="2"/>
+      <c r="DZ86" s="2"/>
+      <c r="EA86" s="2"/>
+      <c r="EB86" s="2"/>
+      <c r="EC86" s="2"/>
+      <c r="ED86" s="2"/>
+      <c r="EE86" s="2"/>
+      <c r="EF86" s="2"/>
+      <c r="EG86" s="2"/>
+      <c r="EH86" s="2"/>
+      <c r="EI86" s="2"/>
+      <c r="EJ86" s="2"/>
+      <c r="EK86" s="2"/>
+      <c r="EL86" s="2"/>
+      <c r="EM86" s="2"/>
+      <c r="EN86" s="2"/>
+      <c r="EO86" s="2"/>
+      <c r="EP86" s="2"/>
+      <c r="EQ86" s="2"/>
+      <c r="ER86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA86" s="2"/>
+      <c r="FB86" s="2"/>
+      <c r="FC86" s="2"/>
+      <c r="FD86" s="2"/>
+      <c r="FE86" s="2"/>
+      <c r="FF86" s="2"/>
+      <c r="FG86" s="2"/>
+      <c r="FH86" s="2"/>
+      <c r="FI86" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="FJ86" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="FK86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM86" s="2"/>
+      <c r="FN86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO86" s="2"/>
+      <c r="FP86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ86" s="2"/>
+      <c r="FR86" s="2"/>
+      <c r="FS86" s="2"/>
+      <c r="FT86" s="2"/>
+      <c r="FU86" s="2"/>
+      <c r="FV86" s="2"/>
+      <c r="FW86" s="2"/>
+      <c r="FX86" s="2"/>
+      <c r="FY86" s="2"/>
+    </row>
+    <row r="87" spans="2:181" s="6" customFormat="1">
+      <c r="B87" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="T87" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="U87" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="V87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X87" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y87" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AQ87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR87" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS87" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT87" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU87" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW87" s="7"/>
+      <c r="AX87" s="7"/>
+      <c r="AY87" s="7"/>
+      <c r="AZ87" s="7"/>
+      <c r="BA87" s="7"/>
+      <c r="BB87" s="7"/>
+      <c r="BC87" s="7"/>
+      <c r="BD87" s="7"/>
+      <c r="BE87" s="7"/>
+      <c r="BF87" s="7"/>
+      <c r="BG87" s="7"/>
+      <c r="BH87" s="7"/>
+      <c r="BI87" s="7"/>
+      <c r="BJ87" s="7"/>
+      <c r="BK87" s="7"/>
+      <c r="BL87" s="7"/>
+      <c r="BM87" s="7"/>
+      <c r="BN87" s="7"/>
+      <c r="BO87" s="7"/>
+      <c r="BP87" s="7"/>
+      <c r="BQ87" s="7"/>
+      <c r="BR87" s="7"/>
+      <c r="BS87" s="7"/>
+      <c r="BT87" s="7"/>
+      <c r="BU87" s="7"/>
+      <c r="BV87" s="7"/>
+      <c r="BW87" s="7"/>
+      <c r="BX87" s="7"/>
+      <c r="BY87" s="7"/>
+      <c r="BZ87" s="7"/>
+      <c r="CA87" s="7"/>
+      <c r="CB87" s="7"/>
+      <c r="CC87" s="7"/>
+      <c r="CD87" s="7"/>
+      <c r="CE87" s="7"/>
+      <c r="CF87" s="7"/>
+      <c r="CG87" s="7"/>
+      <c r="CH87" s="7"/>
+      <c r="CI87" s="7"/>
+      <c r="CJ87" s="7"/>
+      <c r="CK87" s="7"/>
+      <c r="CL87" s="7"/>
+      <c r="CM87" s="7"/>
+      <c r="CN87" s="7"/>
+      <c r="CO87" s="7"/>
+      <c r="CP87" s="7"/>
+      <c r="CQ87" s="7"/>
+      <c r="CR87" s="7"/>
+      <c r="CS87" s="7"/>
+      <c r="CT87" s="7"/>
+      <c r="CU87" s="7"/>
+      <c r="CV87" s="7"/>
+      <c r="CW87" s="7"/>
+      <c r="CX87" s="7"/>
+      <c r="CY87" s="7"/>
+      <c r="CZ87" s="7"/>
+      <c r="DA87" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="DB87" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="DC87" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="DD87" s="7"/>
+      <c r="DF87" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="DG87" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI87" s="7"/>
+      <c r="DJ87" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="DK83" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="DL83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO83" s="2"/>
-      <c r="DP83" s="2"/>
-      <c r="DQ83" s="2" t="s">
+      <c r="DK87" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="DL87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO87" s="7"/>
+      <c r="DP87" s="7"/>
+      <c r="DQ87" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="DR83" s="2" t="s">
+      <c r="DR87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="DS83" s="2" t="s">
+      <c r="DS87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="DT83" s="2" t="s">
+      <c r="DT87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="DU83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV83" s="2" t="s">
+      <c r="DU87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="DW83" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="DX83" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="DY83" s="2"/>
-      <c r="DZ83" s="2"/>
-      <c r="EA83" s="2"/>
-      <c r="EB83" s="2"/>
-      <c r="EC83" s="2"/>
-      <c r="ED83" s="2"/>
-      <c r="EE83" s="2"/>
-      <c r="EF83" s="2"/>
-      <c r="EG83" s="2"/>
-      <c r="EH83" s="2"/>
-      <c r="EI83" s="2"/>
-      <c r="EJ83" s="2"/>
-      <c r="EK83" s="2"/>
-      <c r="EL83" s="2"/>
-      <c r="EM83" s="2"/>
-      <c r="EN83" s="2"/>
-      <c r="EO83" s="2"/>
-      <c r="EP83" s="2"/>
-      <c r="EQ83" s="2"/>
-      <c r="ER83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="EV83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA83" s="2"/>
-      <c r="FB83" s="2"/>
-      <c r="FC83" s="2"/>
-      <c r="FD83" s="2"/>
-      <c r="FE83" s="2"/>
-      <c r="FF83" s="2"/>
-      <c r="FG83" s="2"/>
-      <c r="FH83" s="2"/>
-      <c r="FI83" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="FJ83" s="2"/>
-      <c r="FK83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM83" s="2"/>
-      <c r="FN83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO83" s="2"/>
-      <c r="FP83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FQ83" s="2"/>
-      <c r="FR83" s="2"/>
-      <c r="FS83" s="2"/>
-      <c r="FT83" s="2"/>
-      <c r="FU83" s="2"/>
-      <c r="FV83" s="2"/>
-      <c r="FW83" s="2"/>
-      <c r="FX83" s="2"/>
-      <c r="FY83" s="2"/>
-    </row>
-    <row r="85" spans="2:181">
-      <c r="B85" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y85" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z85" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA85" s="2"/>
-      <c r="AB85" s="2"/>
-      <c r="AC85" s="2"/>
-      <c r="AD85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN85" s="2"/>
-      <c r="AO85" s="2"/>
-      <c r="AP85" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR85" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS85" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT85" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU85" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW85" s="2"/>
-      <c r="AX85" s="2"/>
-      <c r="AY85" s="2"/>
-      <c r="AZ85" s="2"/>
-      <c r="BA85" s="2"/>
-      <c r="BB85" s="2"/>
-      <c r="BC85" s="2"/>
-      <c r="BD85" s="2"/>
-      <c r="BE85" s="2"/>
-      <c r="BF85" s="2"/>
-      <c r="BG85" s="2"/>
-      <c r="BH85" s="2"/>
-      <c r="BI85" s="2"/>
-      <c r="BJ85" s="2"/>
-      <c r="BK85" s="2"/>
-      <c r="BL85" s="2"/>
-      <c r="BM85" s="2"/>
-      <c r="BN85" s="2"/>
-      <c r="BO85" s="2"/>
-      <c r="BP85" s="2"/>
-      <c r="BQ85" s="2"/>
-      <c r="BR85" s="2"/>
-      <c r="BS85" s="2"/>
-      <c r="BT85" s="2"/>
-      <c r="BU85" s="2"/>
-      <c r="BV85" s="2"/>
-      <c r="BW85" s="2"/>
-      <c r="BX85" s="2"/>
-      <c r="BY85" s="2"/>
-      <c r="BZ85" s="2"/>
-      <c r="CA85" s="2"/>
-      <c r="CB85" s="2"/>
-      <c r="CC85" s="2"/>
-      <c r="CD85" s="2"/>
-      <c r="CE85" s="2"/>
-      <c r="CF85" s="2"/>
-      <c r="CG85" s="2"/>
-      <c r="CH85" s="2"/>
-      <c r="CI85" s="2"/>
-      <c r="CJ85" s="2"/>
-      <c r="CK85" s="2"/>
-      <c r="CL85" s="2"/>
-      <c r="CM85" s="2"/>
-      <c r="CN85" s="2"/>
-      <c r="CO85" s="2"/>
-      <c r="CP85" s="2"/>
-      <c r="CQ85" s="2"/>
-      <c r="CR85" s="2"/>
-      <c r="CS85" s="2"/>
-      <c r="CT85" s="2"/>
-      <c r="CU85" s="2"/>
-      <c r="CV85" s="2"/>
-      <c r="CW85" s="2"/>
-      <c r="CX85" s="2"/>
-      <c r="CY85" s="2"/>
-      <c r="CZ85" s="2"/>
-      <c r="DA85" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="DB85" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="DC85" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="DD85" s="2"/>
-      <c r="DF85" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DG85" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DH85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DI85" s="2"/>
-      <c r="DJ85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DL85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO85" s="2"/>
-      <c r="DP85" s="2"/>
-      <c r="DQ85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW85" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="DX85" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DY85" s="2"/>
-      <c r="DZ85" s="2"/>
-      <c r="EA85" s="2"/>
-      <c r="EB85" s="2"/>
-      <c r="EC85" s="2"/>
-      <c r="ED85" s="2"/>
-      <c r="EE85" s="2"/>
-      <c r="EF85" s="2"/>
-      <c r="EG85" s="2"/>
-      <c r="EH85" s="2"/>
-      <c r="EI85" s="2"/>
-      <c r="EJ85" s="2"/>
-      <c r="EK85" s="2"/>
-      <c r="EL85" s="2"/>
-      <c r="EM85" s="2"/>
-      <c r="EN85" s="2"/>
-      <c r="EO85" s="2"/>
-      <c r="EP85" s="2"/>
-      <c r="EQ85" s="2"/>
-      <c r="ER85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EV85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA85" s="2"/>
-      <c r="FB85" s="2"/>
-      <c r="FC85" s="2"/>
-      <c r="FD85" s="2"/>
-      <c r="FE85" s="2"/>
-      <c r="FF85" s="2"/>
-      <c r="FG85" s="2"/>
-      <c r="FH85" s="2"/>
-      <c r="FI85" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="FJ85" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="FK85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM85" s="2"/>
-      <c r="FN85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO85" s="2"/>
-      <c r="FP85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FQ85" s="2"/>
-      <c r="FR85" s="2"/>
-      <c r="FS85" s="2"/>
-      <c r="FT85" s="2"/>
-      <c r="FU85" s="2"/>
-      <c r="FV85" s="2"/>
-      <c r="FW85" s="2"/>
-      <c r="FX85" s="2"/>
-      <c r="FY85" s="2"/>
-    </row>
-    <row r="86" spans="2:181" s="6" customFormat="1">
-      <c r="B86" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="M86" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="N86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="T86" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="U86" s="7" t="s">
+      <c r="DW87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="DX87" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="V86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="W86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="X86" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y86" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z86" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="7"/>
-      <c r="AD86" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN86" s="7"/>
-      <c r="AO86" s="7"/>
-      <c r="AP86" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR86" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS86" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT86" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU86" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW86" s="7"/>
-      <c r="AX86" s="7"/>
-      <c r="AY86" s="7"/>
-      <c r="AZ86" s="7"/>
-      <c r="BA86" s="7"/>
-      <c r="BB86" s="7"/>
-      <c r="BC86" s="7"/>
-      <c r="BD86" s="7"/>
-      <c r="BE86" s="7"/>
-      <c r="BF86" s="7"/>
-      <c r="BG86" s="7"/>
-      <c r="BH86" s="7"/>
-      <c r="BI86" s="7"/>
-      <c r="BJ86" s="7"/>
-      <c r="BK86" s="7"/>
-      <c r="BL86" s="7"/>
-      <c r="BM86" s="7"/>
-      <c r="BN86" s="7"/>
-      <c r="BO86" s="7"/>
-      <c r="BP86" s="7"/>
-      <c r="BQ86" s="7"/>
-      <c r="BR86" s="7"/>
-      <c r="BS86" s="7"/>
-      <c r="BT86" s="7"/>
-      <c r="BU86" s="7"/>
-      <c r="BV86" s="7"/>
-      <c r="BW86" s="7"/>
-      <c r="BX86" s="7"/>
-      <c r="BY86" s="7"/>
-      <c r="BZ86" s="7"/>
-      <c r="CA86" s="7"/>
-      <c r="CB86" s="7"/>
-      <c r="CC86" s="7"/>
-      <c r="CD86" s="7"/>
-      <c r="CE86" s="7"/>
-      <c r="CF86" s="7"/>
-      <c r="CG86" s="7"/>
-      <c r="CH86" s="7"/>
-      <c r="CI86" s="7"/>
-      <c r="CJ86" s="7"/>
-      <c r="CK86" s="7"/>
-      <c r="CL86" s="7"/>
-      <c r="CM86" s="7"/>
-      <c r="CN86" s="7"/>
-      <c r="CO86" s="7"/>
-      <c r="CP86" s="7"/>
-      <c r="CQ86" s="7"/>
-      <c r="CR86" s="7"/>
-      <c r="CS86" s="7"/>
-      <c r="CT86" s="7"/>
-      <c r="CU86" s="7"/>
-      <c r="CV86" s="7"/>
-      <c r="CW86" s="7"/>
-      <c r="CX86" s="7"/>
-      <c r="CY86" s="7"/>
-      <c r="CZ86" s="7"/>
-      <c r="DA86" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="DB86" s="7" t="s">
+      <c r="DY87" s="7"/>
+      <c r="DZ87" s="7"/>
+      <c r="EA87" s="7"/>
+      <c r="EB87" s="7"/>
+      <c r="EC87" s="7"/>
+      <c r="ED87" s="7"/>
+      <c r="EE87" s="7"/>
+      <c r="EF87" s="7"/>
+      <c r="EG87" s="7"/>
+      <c r="EH87" s="7"/>
+      <c r="EI87" s="7"/>
+      <c r="EJ87" s="7"/>
+      <c r="EK87" s="7"/>
+      <c r="EL87" s="7"/>
+      <c r="EM87" s="7"/>
+      <c r="EN87" s="7"/>
+      <c r="EO87" s="7"/>
+      <c r="EP87" s="7"/>
+      <c r="EQ87" s="7"/>
+      <c r="ER87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA87" s="7"/>
+      <c r="FB87" s="7"/>
+      <c r="FC87" s="7"/>
+      <c r="FD87" s="7"/>
+      <c r="FE87" s="7"/>
+      <c r="FF87" s="7"/>
+      <c r="FG87" s="7"/>
+      <c r="FH87" s="7"/>
+      <c r="FI87" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="DC86" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="DD86" s="7"/>
-      <c r="DF86" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="DG86" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="DH86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="DI86" s="7"/>
-      <c r="DJ86" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="DK86" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="DL86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO86" s="7"/>
-      <c r="DP86" s="7"/>
-      <c r="DQ86" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR86" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS86" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW86" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="DX86" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="DY86" s="7"/>
-      <c r="DZ86" s="7"/>
-      <c r="EA86" s="7"/>
-      <c r="EB86" s="7"/>
-      <c r="EC86" s="7"/>
-      <c r="ED86" s="7"/>
-      <c r="EE86" s="7"/>
-      <c r="EF86" s="7"/>
-      <c r="EG86" s="7"/>
-      <c r="EH86" s="7"/>
-      <c r="EI86" s="7"/>
-      <c r="EJ86" s="7"/>
-      <c r="EK86" s="7"/>
-      <c r="EL86" s="7"/>
-      <c r="EM86" s="7"/>
-      <c r="EN86" s="7"/>
-      <c r="EO86" s="7"/>
-      <c r="EP86" s="7"/>
-      <c r="EQ86" s="7"/>
-      <c r="ER86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EV86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA86" s="7"/>
-      <c r="FB86" s="7"/>
-      <c r="FC86" s="7"/>
-      <c r="FD86" s="7"/>
-      <c r="FE86" s="7"/>
-      <c r="FF86" s="7"/>
-      <c r="FG86" s="7"/>
-      <c r="FH86" s="7"/>
-      <c r="FI86" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="FJ86" s="7"/>
-      <c r="FK86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM86" s="7"/>
-      <c r="FN86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO86" s="7"/>
-      <c r="FP86" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="FQ86" s="7"/>
-      <c r="FR86" s="7"/>
-      <c r="FS86" s="7"/>
-      <c r="FT86" s="7"/>
-      <c r="FU86" s="7"/>
-      <c r="FV86" s="7"/>
-      <c r="FW86" s="7"/>
-      <c r="FX86" s="7"/>
-      <c r="FY86" s="7"/>
-    </row>
-    <row r="87" spans="2:181">
-      <c r="B87" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="U87" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="V87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X87" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y87" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z87" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA87" s="2"/>
-      <c r="AB87" s="2"/>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN87" s="2"/>
-      <c r="AO87" s="2"/>
-      <c r="AP87" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AQ87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR87" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS87" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT87" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU87" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW87" s="2"/>
-      <c r="AX87" s="2"/>
-      <c r="AY87" s="2"/>
-      <c r="AZ87" s="2"/>
-      <c r="BA87" s="2"/>
-      <c r="BB87" s="2"/>
-      <c r="BC87" s="2"/>
-      <c r="BD87" s="2"/>
-      <c r="BE87" s="2"/>
-      <c r="BF87" s="2"/>
-      <c r="BG87" s="2"/>
-      <c r="BH87" s="2"/>
-      <c r="BI87" s="2"/>
-      <c r="BJ87" s="2"/>
-      <c r="BK87" s="2"/>
-      <c r="BL87" s="2"/>
-      <c r="BM87" s="2"/>
-      <c r="BN87" s="2"/>
-      <c r="BO87" s="2"/>
-      <c r="BP87" s="2"/>
-      <c r="BQ87" s="2"/>
-      <c r="BR87" s="2"/>
-      <c r="BS87" s="2"/>
-      <c r="BT87" s="2"/>
-      <c r="BU87" s="2"/>
-      <c r="BV87" s="2"/>
-      <c r="BW87" s="2"/>
-      <c r="BX87" s="2"/>
-      <c r="BY87" s="2"/>
-      <c r="BZ87" s="2"/>
-      <c r="CA87" s="2"/>
-      <c r="CB87" s="2"/>
-      <c r="CC87" s="2"/>
-      <c r="CD87" s="2"/>
-      <c r="CE87" s="2"/>
-      <c r="CF87" s="2"/>
-      <c r="CG87" s="2"/>
-      <c r="CH87" s="2"/>
-      <c r="CI87" s="2"/>
-      <c r="CJ87" s="2"/>
-      <c r="CK87" s="2"/>
-      <c r="CL87" s="2"/>
-      <c r="CM87" s="2"/>
-      <c r="CN87" s="2"/>
-      <c r="CO87" s="2"/>
-      <c r="CP87" s="2"/>
-      <c r="CQ87" s="2"/>
-      <c r="CR87" s="2"/>
-      <c r="CS87" s="2"/>
-      <c r="CT87" s="2"/>
-      <c r="CU87" s="2"/>
-      <c r="CV87" s="2"/>
-      <c r="CW87" s="2"/>
-      <c r="CX87" s="2"/>
-      <c r="CY87" s="2"/>
-      <c r="CZ87" s="2"/>
-      <c r="DA87" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="DB87" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="DC87" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="DD87" s="2"/>
-      <c r="DF87" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="DG87" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DH87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DI87" s="2"/>
-      <c r="DJ87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK87" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="DL87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO87" s="2"/>
-      <c r="DP87" s="2"/>
-      <c r="DQ87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW87" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="DX87" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="DY87" s="2"/>
-      <c r="DZ87" s="2"/>
-      <c r="EA87" s="2"/>
-      <c r="EB87" s="2"/>
-      <c r="EC87" s="2"/>
-      <c r="ED87" s="2"/>
-      <c r="EE87" s="2"/>
-      <c r="EF87" s="2"/>
-      <c r="EG87" s="2"/>
-      <c r="EH87" s="2"/>
-      <c r="EI87" s="2"/>
-      <c r="EJ87" s="2"/>
-      <c r="EK87" s="2"/>
-      <c r="EL87" s="2"/>
-      <c r="EM87" s="2"/>
-      <c r="EN87" s="2"/>
-      <c r="EO87" s="2"/>
-      <c r="EP87" s="2"/>
-      <c r="EQ87" s="2"/>
-      <c r="ER87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EV87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA87" s="2"/>
-      <c r="FB87" s="2"/>
-      <c r="FC87" s="2"/>
-      <c r="FD87" s="2"/>
-      <c r="FE87" s="2"/>
-      <c r="FF87" s="2"/>
-      <c r="FG87" s="2"/>
-      <c r="FH87" s="2"/>
-      <c r="FI87" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="FJ87" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="FK87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM87" s="2"/>
-      <c r="FN87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO87" s="2"/>
-      <c r="FP87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FQ87" s="2"/>
-      <c r="FR87" s="2"/>
-      <c r="FS87" s="2"/>
-      <c r="FT87" s="2"/>
-      <c r="FU87" s="2"/>
-      <c r="FV87" s="2"/>
-      <c r="FW87" s="2"/>
-      <c r="FX87" s="2"/>
-      <c r="FY87" s="2"/>
+      <c r="FJ87" s="7"/>
+      <c r="FK87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM87" s="7"/>
+      <c r="FN87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO87" s="7"/>
+      <c r="FP87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ87" s="7"/>
+      <c r="FR87" s="7"/>
+      <c r="FS87" s="7"/>
+      <c r="FT87" s="7"/>
+      <c r="FU87" s="7"/>
+      <c r="FV87" s="7"/>
+      <c r="FW87" s="7"/>
+      <c r="FX87" s="7"/>
+      <c r="FY87" s="7"/>
     </row>
     <row r="88" spans="2:181">
       <c r="B88" s="1" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN88" s="2"/>
+      <c r="AO88" s="2"/>
+      <c r="AP88" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU88" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW88" s="2"/>
+      <c r="AX88" s="2"/>
+      <c r="AY88" s="2"/>
+      <c r="AZ88" s="2"/>
+      <c r="BA88" s="2"/>
+      <c r="BB88" s="2"/>
+      <c r="BC88" s="2"/>
+      <c r="BD88" s="2"/>
+      <c r="BE88" s="2"/>
+      <c r="BF88" s="2"/>
+      <c r="BG88" s="2"/>
+      <c r="BH88" s="2"/>
+      <c r="BI88" s="2"/>
+      <c r="BJ88" s="2"/>
+      <c r="BK88" s="2"/>
+      <c r="BL88" s="2"/>
+      <c r="BM88" s="2"/>
+      <c r="BN88" s="2"/>
+      <c r="BO88" s="2"/>
+      <c r="BP88" s="2"/>
+      <c r="BQ88" s="2"/>
+      <c r="BR88" s="2"/>
+      <c r="BS88" s="2"/>
+      <c r="BT88" s="2"/>
+      <c r="BU88" s="2"/>
+      <c r="BV88" s="2"/>
+      <c r="BW88" s="2"/>
+      <c r="BX88" s="2"/>
+      <c r="BY88" s="2"/>
+      <c r="BZ88" s="2"/>
+      <c r="CA88" s="2"/>
+      <c r="CB88" s="2"/>
+      <c r="CC88" s="2"/>
+      <c r="CD88" s="2"/>
+      <c r="CE88" s="2"/>
+      <c r="CF88" s="2"/>
+      <c r="CG88" s="2"/>
+      <c r="CH88" s="2"/>
+      <c r="CI88" s="2"/>
+      <c r="CJ88" s="2"/>
+      <c r="CK88" s="2"/>
+      <c r="CL88" s="2"/>
+      <c r="CM88" s="2"/>
+      <c r="CN88" s="2"/>
+      <c r="CO88" s="2"/>
+      <c r="CP88" s="2"/>
+      <c r="CQ88" s="2"/>
+      <c r="CR88" s="2"/>
+      <c r="CS88" s="2"/>
+      <c r="CT88" s="2"/>
+      <c r="CU88" s="2"/>
+      <c r="CV88" s="2"/>
+      <c r="CW88" s="2"/>
+      <c r="CX88" s="2"/>
+      <c r="CY88" s="2"/>
+      <c r="CZ88" s="2"/>
+      <c r="DA88" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="DB88" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="DC88" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="DD88" s="2"/>
+      <c r="DF88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="DG88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI88" s="2"/>
+      <c r="DJ88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="DL88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO88" s="2"/>
+      <c r="DP88" s="2"/>
+      <c r="DQ88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="DX88" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="DY88" s="2"/>
+      <c r="DZ88" s="2"/>
+      <c r="EA88" s="2"/>
+      <c r="EB88" s="2"/>
+      <c r="EC88" s="2"/>
+      <c r="ED88" s="2"/>
+      <c r="EE88" s="2"/>
+      <c r="EF88" s="2"/>
+      <c r="EG88" s="2"/>
+      <c r="EH88" s="2"/>
+      <c r="EI88" s="2"/>
+      <c r="EJ88" s="2"/>
+      <c r="EK88" s="2"/>
+      <c r="EL88" s="2"/>
+      <c r="EM88" s="2"/>
+      <c r="EN88" s="2"/>
+      <c r="EO88" s="2"/>
+      <c r="EP88" s="2"/>
+      <c r="EQ88" s="2"/>
+      <c r="ER88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA88" s="2"/>
+      <c r="FB88" s="2"/>
+      <c r="FC88" s="2"/>
+      <c r="FD88" s="2"/>
+      <c r="FE88" s="2"/>
+      <c r="FF88" s="2"/>
+      <c r="FG88" s="2"/>
+      <c r="FH88" s="2"/>
+      <c r="FI88" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="FJ88" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="FK88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM88" s="2"/>
+      <c r="FN88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO88" s="2"/>
+      <c r="FP88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ88" s="2"/>
+      <c r="FR88" s="2"/>
+      <c r="FS88" s="2"/>
+      <c r="FT88" s="2"/>
+      <c r="FU88" s="2"/>
+      <c r="FV88" s="2"/>
+      <c r="FW88" s="2"/>
+      <c r="FX88" s="2"/>
+      <c r="FY88" s="2"/>
     </row>
     <row r="89" spans="2:181">
       <c r="B89" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>2</v>
@@ -8998,335 +9865,363 @@
         <v>26</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="2:181">
       <c r="B90" s="1" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="I90" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="2:181">
+      <c r="B91" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O90" s="2" t="s">
+      <c r="I91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q90" s="2" t="s">
+      <c r="P91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T90" s="2" t="s">
+      <c r="R91" s="2"/>
+      <c r="S91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN91" s="2"/>
+      <c r="AO91" s="2"/>
+      <c r="AP91" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR91" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS91" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW91" s="2"/>
+      <c r="AX91" s="2"/>
+      <c r="AY91" s="2"/>
+      <c r="AZ91" s="2"/>
+      <c r="BA91" s="2"/>
+      <c r="BB91" s="2"/>
+      <c r="BC91" s="2"/>
+      <c r="BD91" s="2"/>
+      <c r="BE91" s="2"/>
+      <c r="BF91" s="2"/>
+      <c r="BG91" s="2"/>
+      <c r="BH91" s="2"/>
+      <c r="BI91" s="2"/>
+      <c r="BJ91" s="2"/>
+      <c r="BK91" s="2"/>
+      <c r="BL91" s="2"/>
+      <c r="BM91" s="2"/>
+      <c r="BN91" s="2"/>
+      <c r="BO91" s="2"/>
+      <c r="BP91" s="2"/>
+      <c r="BQ91" s="2"/>
+      <c r="BR91" s="2"/>
+      <c r="BS91" s="2"/>
+      <c r="BT91" s="2"/>
+      <c r="BU91" s="2"/>
+      <c r="BV91" s="2"/>
+      <c r="BW91" s="2"/>
+      <c r="BX91" s="2"/>
+      <c r="BY91" s="2"/>
+      <c r="BZ91" s="2"/>
+      <c r="CA91" s="2"/>
+      <c r="CB91" s="2"/>
+      <c r="CC91" s="2"/>
+      <c r="CD91" s="2"/>
+      <c r="CE91" s="2"/>
+      <c r="CF91" s="2"/>
+      <c r="CG91" s="2"/>
+      <c r="CH91" s="2"/>
+      <c r="CI91" s="2"/>
+      <c r="CJ91" s="2"/>
+      <c r="CK91" s="2"/>
+      <c r="CL91" s="2"/>
+      <c r="CM91" s="2"/>
+      <c r="CN91" s="2"/>
+      <c r="CO91" s="2"/>
+      <c r="CP91" s="2"/>
+      <c r="CQ91" s="2"/>
+      <c r="CR91" s="2"/>
+      <c r="CS91" s="2"/>
+      <c r="CT91" s="2"/>
+      <c r="CU91" s="2"/>
+      <c r="CV91" s="2"/>
+      <c r="CW91" s="2"/>
+      <c r="CX91" s="2"/>
+      <c r="CY91" s="2"/>
+      <c r="CZ91" s="2"/>
+      <c r="DA91" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="DB91" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="DC91" s="2"/>
+      <c r="DD91" s="2"/>
+      <c r="DF91" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="U90" s="2" t="s">
+      <c r="DG91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="DH91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI91" s="2"/>
+      <c r="DJ91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DK91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="DL91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO91" s="2"/>
+      <c r="DP91" s="2"/>
+      <c r="DQ91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DV91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="DX91" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="X90" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y90" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z90" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN90" s="2"/>
-      <c r="AO90" s="2"/>
-      <c r="AP90" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR90" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS90" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT90" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU90" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW90" s="2"/>
-      <c r="AX90" s="2"/>
-      <c r="AY90" s="2"/>
-      <c r="AZ90" s="2"/>
-      <c r="BA90" s="2"/>
-      <c r="BB90" s="2"/>
-      <c r="BC90" s="2"/>
-      <c r="BD90" s="2"/>
-      <c r="BE90" s="2"/>
-      <c r="BF90" s="2"/>
-      <c r="BG90" s="2"/>
-      <c r="BH90" s="2"/>
-      <c r="BI90" s="2"/>
-      <c r="BJ90" s="2"/>
-      <c r="BK90" s="2"/>
-      <c r="BL90" s="2"/>
-      <c r="BM90" s="2"/>
-      <c r="BN90" s="2"/>
-      <c r="BO90" s="2"/>
-      <c r="BP90" s="2"/>
-      <c r="BQ90" s="2"/>
-      <c r="BR90" s="2"/>
-      <c r="BS90" s="2"/>
-      <c r="BT90" s="2"/>
-      <c r="BU90" s="2"/>
-      <c r="BV90" s="2"/>
-      <c r="BW90" s="2"/>
-      <c r="BX90" s="2"/>
-      <c r="BY90" s="2"/>
-      <c r="BZ90" s="2"/>
-      <c r="CA90" s="2"/>
-      <c r="CB90" s="2"/>
-      <c r="CC90" s="2"/>
-      <c r="CD90" s="2"/>
-      <c r="CE90" s="2"/>
-      <c r="CF90" s="2"/>
-      <c r="CG90" s="2"/>
-      <c r="CH90" s="2"/>
-      <c r="CI90" s="2"/>
-      <c r="CJ90" s="2"/>
-      <c r="CK90" s="2"/>
-      <c r="CL90" s="2"/>
-      <c r="CM90" s="2"/>
-      <c r="CN90" s="2"/>
-      <c r="CO90" s="2"/>
-      <c r="CP90" s="2"/>
-      <c r="CQ90" s="2"/>
-      <c r="CR90" s="2"/>
-      <c r="CS90" s="2"/>
-      <c r="CT90" s="2"/>
-      <c r="CU90" s="2"/>
-      <c r="CV90" s="2"/>
-      <c r="CW90" s="2"/>
-      <c r="CX90" s="2"/>
-      <c r="CY90" s="2"/>
-      <c r="CZ90" s="2"/>
-      <c r="DA90" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="DB90" s="2" t="s">
+      <c r="DY91" s="2"/>
+      <c r="DZ91" s="2"/>
+      <c r="EA91" s="2"/>
+      <c r="EB91" s="2"/>
+      <c r="EC91" s="2"/>
+      <c r="ED91" s="2"/>
+      <c r="EE91" s="2"/>
+      <c r="EF91" s="2"/>
+      <c r="EG91" s="2"/>
+      <c r="EH91" s="2"/>
+      <c r="EI91" s="2"/>
+      <c r="EJ91" s="2"/>
+      <c r="EK91" s="2"/>
+      <c r="EL91" s="2"/>
+      <c r="EM91" s="2"/>
+      <c r="EN91" s="2"/>
+      <c r="EO91" s="2"/>
+      <c r="EP91" s="2"/>
+      <c r="EQ91" s="2"/>
+      <c r="ER91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA91" s="2"/>
+      <c r="FB91" s="2"/>
+      <c r="FC91" s="2"/>
+      <c r="FD91" s="2"/>
+      <c r="FE91" s="2"/>
+      <c r="FF91" s="2"/>
+      <c r="FG91" s="2"/>
+      <c r="FH91" s="2"/>
+      <c r="FI91" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="DC90" s="2"/>
-      <c r="DD90" s="2"/>
-      <c r="DF90" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="DG90" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DH90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DI90" s="2"/>
-      <c r="DJ90" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="DK90" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="DL90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DM90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DN90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO90" s="2"/>
-      <c r="DP90" s="2"/>
-      <c r="DQ90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="DR90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="DS90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DT90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DU90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DV90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DW90" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="DX90" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="DY90" s="2"/>
-      <c r="DZ90" s="2"/>
-      <c r="EA90" s="2"/>
-      <c r="EB90" s="2"/>
-      <c r="EC90" s="2"/>
-      <c r="ED90" s="2"/>
-      <c r="EE90" s="2"/>
-      <c r="EF90" s="2"/>
-      <c r="EG90" s="2"/>
-      <c r="EH90" s="2"/>
-      <c r="EI90" s="2"/>
-      <c r="EJ90" s="2"/>
-      <c r="EK90" s="2"/>
-      <c r="EL90" s="2"/>
-      <c r="EM90" s="2"/>
-      <c r="EN90" s="2"/>
-      <c r="EO90" s="2"/>
-      <c r="EP90" s="2"/>
-      <c r="EQ90" s="2"/>
-      <c r="ER90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="ES90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ET90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EV90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EW90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EX90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EY90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EZ90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FA90" s="2"/>
-      <c r="FB90" s="2"/>
-      <c r="FC90" s="2"/>
-      <c r="FD90" s="2"/>
-      <c r="FE90" s="2"/>
-      <c r="FF90" s="2"/>
-      <c r="FG90" s="2"/>
-      <c r="FH90" s="2"/>
-      <c r="FI90" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="FJ90" s="2"/>
-      <c r="FK90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FL90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FM90" s="2"/>
-      <c r="FN90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FO90" s="2"/>
-      <c r="FP90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="FQ90" s="2"/>
-      <c r="FR90" s="2"/>
-      <c r="FS90" s="2"/>
-      <c r="FT90" s="2"/>
-      <c r="FU90" s="2"/>
-      <c r="FV90" s="2"/>
-      <c r="FW90" s="2"/>
-      <c r="FX90" s="2"/>
-      <c r="FY90" s="2"/>
+      <c r="FJ91" s="2"/>
+      <c r="FK91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM91" s="2"/>
+      <c r="FN91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO91" s="2"/>
+      <c r="FP91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FQ91" s="2"/>
+      <c r="FR91" s="2"/>
+      <c r="FS91" s="2"/>
+      <c r="FT91" s="2"/>
+      <c r="FU91" s="2"/>
+      <c r="FV91" s="2"/>
+      <c r="FW91" s="2"/>
+      <c r="FX91" s="2"/>
+      <c r="FY91" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E341B-B6E2-4D75-BA01-92628D4F270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26717DC-ABA5-4699-87FE-2446EF6B7BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="594">
   <si>
     <t>credit</t>
   </si>
@@ -1684,16 +1684,6 @@
     <t>2025-09-19T14:39:38Z</t>
   </si>
   <si>
-    <t>処理未了データは発生させれなかった</t>
-    <rPh sb="0" eb="4">
-      <t>ショリミリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>20250919152302</t>
   </si>
   <si>
@@ -1985,6 +1975,49 @@
   </si>
   <si>
     <t>2025-09-19T16:43:34Z</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>2025/10/02 17:59:32</t>
+  </si>
+  <si>
+    <t>1002175801</t>
+  </si>
+  <si>
+    <t>92E3B5A40DE382EDA6002745A7BF4AFDCA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>18875</t>
+  </si>
+  <si>
+    <t>69189</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>000-0000-0570</t>
+  </si>
+  <si>
+    <t>4D0ED879B92A166806F8BBCDE6B572DBCA6BF2B61C0464D6BF03F2FD9D666B6A</t>
+  </si>
+  <si>
+    <t>20251002-26</t>
+  </si>
+  <si>
+    <t>2025-10-02T17:58:15Z</t>
+  </si>
+  <si>
+    <t>20251002175815</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2075,7 +2108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2083,10 +2116,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2370,8 +2401,8 @@
   <dimension ref="A2:FY90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4258,7 +4289,7 @@
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>466</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -4634,35 +4665,35 @@
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:181">
       <c r="B17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>483</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4688,17 +4719,347 @@
     </row>
     <row r="18" spans="1:181">
       <c r="B18" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+        <v>317</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="2"/>
+      <c r="CI18" s="2"/>
+      <c r="CJ18" s="2"/>
+      <c r="CK18" s="2"/>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="2"/>
+      <c r="CN18" s="2"/>
+      <c r="CO18" s="2"/>
+      <c r="CP18" s="2"/>
+      <c r="CQ18" s="2"/>
+      <c r="CR18" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="CS18" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="CT18" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="CU18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CV18" s="2"/>
+      <c r="CW18" s="2"/>
+      <c r="CX18" s="2"/>
+      <c r="CY18" s="2"/>
+      <c r="CZ18" s="2"/>
+      <c r="DA18" s="2"/>
+      <c r="DB18" s="2"/>
+      <c r="DC18" s="2"/>
+      <c r="DD18" s="2"/>
+      <c r="DF18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="DG18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="DH18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI18" s="2"/>
+      <c r="DJ18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DK18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DM18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO18" s="2"/>
+      <c r="DP18" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="DQ18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DR18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS18" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="DT18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DU18" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="DV18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="DX18" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="DY18" s="2"/>
+      <c r="DZ18" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="EA18" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="EB18" s="2"/>
+      <c r="EC18" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="ED18" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="EE18" s="2"/>
+      <c r="EF18" s="2"/>
+      <c r="EG18" s="2"/>
+      <c r="EH18" s="2"/>
+      <c r="EI18" s="2"/>
+      <c r="EJ18" s="2"/>
+      <c r="EK18" s="2"/>
+      <c r="EL18" s="2"/>
+      <c r="EM18" s="2"/>
+      <c r="EN18" s="2"/>
+      <c r="EO18" s="2"/>
+      <c r="EP18" s="2"/>
+      <c r="EQ18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="ER18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="ES18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EW18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EX18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EZ18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FA18" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="FB18" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="FC18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FD18" s="2"/>
+      <c r="FE18" s="2"/>
+      <c r="FF18" s="2"/>
+      <c r="FG18" s="2"/>
+      <c r="FH18" s="2"/>
+      <c r="FI18" s="2"/>
+      <c r="FJ18" s="2"/>
+      <c r="FK18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FL18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM18" s="2"/>
+      <c r="FN18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO18" s="2"/>
+      <c r="FP18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="FQ18" s="2"/>
+      <c r="FR18" s="2"/>
+      <c r="FS18" s="2"/>
+      <c r="FT18" s="2"/>
+      <c r="FU18" s="2"/>
+      <c r="FV18" s="2"/>
+      <c r="FW18" s="2"/>
+      <c r="FX18" s="2"/>
+      <c r="FY18" s="2"/>
     </row>
     <row r="20" spans="1:181">
       <c r="B20" s="1" t="s">
@@ -4714,11 +5075,11 @@
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>3</v>
@@ -4730,7 +5091,7 @@
         <v>30</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>103</v>
@@ -4763,7 +5124,7 @@
         <v>375</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2" t="s">
@@ -4780,7 +5141,7 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2" t="s">
@@ -4819,7 +5180,7 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ23" s="2" t="s">
         <v>5</v>
@@ -4867,7 +5228,7 @@
       <c r="BV23" s="2"/>
       <c r="BW23" s="2"/>
       <c r="BX23" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BY23" s="2"/>
       <c r="BZ23" s="2"/>
@@ -4932,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="DP23" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="DQ23" s="2" t="s">
         <v>18</v>
@@ -4956,7 +5317,7 @@
         <v>339</v>
       </c>
       <c r="DX23" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="DY23" s="2"/>
       <c r="DZ23" s="2" t="s">
@@ -4972,7 +5333,7 @@
       <c r="ED23" s="2"/>
       <c r="EE23" s="2"/>
       <c r="EF23" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="EG23" s="2"/>
       <c r="EH23" s="2"/>
@@ -5082,11 +5443,11 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>3</v>
@@ -5098,7 +5459,7 @@
         <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>103</v>
@@ -5110,73 +5471,65 @@
       <c r="B26" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:181">
       <c r="B27" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+        <v>516</v>
+      </c>
+      <c r="C27" s="7"/>
     </row>
     <row r="29" spans="1:181">
       <c r="B29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="2" t="s">
         <v>339</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -5201,31 +5554,31 @@
         <v>375</v>
       </c>
       <c r="T29" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="Z29" s="2" t="s">
         <v>339</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>376</v>
@@ -5263,7 +5616,7 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ29" s="2" t="s">
         <v>5</v>
@@ -5311,10 +5664,10 @@
       <c r="BV29" s="2"/>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BY29" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BZ29" s="2"/>
       <c r="CA29" s="2" t="s">
@@ -5376,7 +5729,7 @@
       </c>
       <c r="DO29" s="2"/>
       <c r="DP29" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="DQ29" s="2" t="s">
         <v>18</v>
@@ -5397,10 +5750,10 @@
         <v>14</v>
       </c>
       <c r="DW29" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="DX29" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="DY29" s="2"/>
       <c r="DZ29" s="2" t="s">
@@ -5416,7 +5769,7 @@
       <c r="ED29" s="2"/>
       <c r="EE29" s="2"/>
       <c r="EF29" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="EG29" s="2"/>
       <c r="EH29" s="2"/>
@@ -5498,11 +5851,11 @@
       <c r="B30" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>224</v>
@@ -5514,7 +5867,7 @@
         <v>26</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>103</v>
@@ -5526,57 +5879,57 @@
       <c r="B31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:181">
       <c r="B32" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="34" spans="1:181">
       <c r="A34" s="4" t="s">
@@ -5587,35 +5940,35 @@
       <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>522</v>
-      </c>
       <c r="M35" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>5</v>
@@ -5636,7 +5989,7 @@
         <v>265</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2" t="s">
@@ -5649,11 +6002,11 @@
         <v>5</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2" t="s">
@@ -5690,13 +6043,13 @@
         <v>5</v>
       </c>
       <c r="AN35" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AO35" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="AO35" s="2" t="s">
+      <c r="AP35" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="AP35" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="AQ35" s="2" t="s">
         <v>5</v>
@@ -5760,7 +6113,7 @@
       <c r="CL35" s="2"/>
       <c r="CM35" s="2"/>
       <c r="CN35" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="CO35" s="2"/>
       <c r="CP35" s="2" t="s">
@@ -5783,7 +6136,7 @@
       <c r="DC35" s="2"/>
       <c r="DD35" s="2"/>
       <c r="DF35" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="DG35" s="2" t="s">
         <v>265</v>
@@ -5809,7 +6162,7 @@
       </c>
       <c r="DO35" s="2"/>
       <c r="DP35" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="DQ35" s="2" t="s">
         <v>18</v>
@@ -5830,10 +6183,10 @@
         <v>14</v>
       </c>
       <c r="DW35" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="DX35" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="DY35" s="2"/>
       <c r="DZ35" s="2" t="s">
@@ -5848,7 +6201,7 @@
       </c>
       <c r="ED35" s="2"/>
       <c r="EE35" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="EF35" s="2"/>
       <c r="EG35" s="2"/>
@@ -5892,10 +6245,10 @@
         <v>5</v>
       </c>
       <c r="FA35" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="FB35" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="FB35" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="FC35" s="2" t="s">
         <v>198</v>
@@ -5963,11 +6316,11 @@
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>3</v>
@@ -5979,7 +6332,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>265</v>
@@ -5991,11 +6344,11 @@
       <c r="B38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>545</v>
+      <c r="C38" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3</v>
@@ -6007,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>265</v>
@@ -6019,33 +6372,33 @@
       <c r="B39" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7" t="s">
-        <v>524</v>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>5</v>
@@ -6066,7 +6419,7 @@
         <v>265</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2" t="s">
@@ -6079,11 +6432,11 @@
         <v>22</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2" t="s">
@@ -6120,11 +6473,11 @@
         <v>5</v>
       </c>
       <c r="AN39" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AQ39" s="2" t="s">
         <v>5</v>
@@ -6188,13 +6541,13 @@
       <c r="CL39" s="2"/>
       <c r="CM39" s="2"/>
       <c r="CN39" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="CO39" s="2" t="s">
         <v>464</v>
       </c>
       <c r="CP39" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="CQ39" s="2" t="s">
         <v>379</v>
@@ -6213,7 +6566,7 @@
       <c r="DC39" s="2"/>
       <c r="DD39" s="2"/>
       <c r="DF39" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="DG39" s="2" t="s">
         <v>265</v>
@@ -6239,7 +6592,7 @@
       </c>
       <c r="DO39" s="2"/>
       <c r="DP39" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="DQ39" s="2" t="s">
         <v>18</v>
@@ -6260,10 +6613,10 @@
         <v>14</v>
       </c>
       <c r="DW39" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="DX39" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DY39" s="2"/>
       <c r="DZ39" s="2" t="s">
@@ -6274,11 +6627,11 @@
       </c>
       <c r="EB39" s="2"/>
       <c r="EC39" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="ED39" s="2"/>
       <c r="EE39" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="EF39" s="2"/>
       <c r="EG39" s="2"/>
@@ -6322,7 +6675,7 @@
         <v>5</v>
       </c>
       <c r="FA39" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="FB39" s="2"/>
       <c r="FC39" s="2" t="s">
@@ -6361,7 +6714,7 @@
     </row>
     <row r="41" spans="1:181">
       <c r="B41" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:181">
@@ -7233,31 +7586,31 @@
       <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="F55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="2" t="s">
         <v>185</v>
       </c>
       <c r="M55" s="2" t="s">
@@ -7615,7 +7968,7 @@
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -7643,7 +7996,7 @@
       <c r="B58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -7671,7 +8024,7 @@
       <c r="B59" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="2" t="s">
         <v>456</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -8007,7 +8360,7 @@
       <c r="B61" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="2" t="s">
         <v>432</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -8363,7 +8716,7 @@
       <c r="B62" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="2" t="s">
         <v>447</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -8391,7 +8744,7 @@
       <c r="B63" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="2" t="s">
         <v>450</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -8419,7 +8772,7 @@
       <c r="B64" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="2" t="s">
         <v>453</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -8452,35 +8805,35 @@
       <c r="B67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="I67" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I67" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J67" s="7" t="s">
+      <c r="K67" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="K67" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="M67" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>5</v>
@@ -8501,7 +8854,7 @@
         <v>383</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2" t="s">
@@ -8518,7 +8871,7 @@
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2" t="s">
@@ -8558,10 +8911,10 @@
         <v>385</v>
       </c>
       <c r="AO67" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP67" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="AP67" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="AQ67" s="2" t="s">
         <v>5</v>
@@ -8615,7 +8968,7 @@
       <c r="CB67" s="2"/>
       <c r="CC67" s="2"/>
       <c r="CD67" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="CE67" s="2"/>
       <c r="CF67" s="2"/>
@@ -8626,7 +8979,7 @@
         <v>209</v>
       </c>
       <c r="CI67" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="CJ67" s="2" t="s">
         <v>2</v>
@@ -8658,7 +9011,7 @@
       <c r="DC67" s="2"/>
       <c r="DD67" s="2"/>
       <c r="DF67" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="DG67" s="2" t="s">
         <v>383</v>
@@ -8686,7 +9039,7 @@
         <v>2</v>
       </c>
       <c r="DP67" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="DQ67" s="2" t="s">
         <v>18</v>
@@ -8710,7 +9063,7 @@
         <v>365</v>
       </c>
       <c r="DX67" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="DY67" s="2"/>
       <c r="DZ67" s="2" t="s">
@@ -8721,12 +9074,12 @@
       </c>
       <c r="EB67" s="2"/>
       <c r="EC67" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="ED67" s="2"/>
       <c r="EE67" s="2"/>
       <c r="EF67" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="EG67" s="2"/>
       <c r="EH67" s="2"/>
@@ -8776,7 +9129,7 @@
         <v>385</v>
       </c>
       <c r="FB67" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="FC67" s="2" t="s">
         <v>198</v>
@@ -8844,11 +9197,11 @@
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>3</v>
@@ -8860,7 +9213,7 @@
         <v>26</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>270</v>
@@ -8872,11 +9225,11 @@
       <c r="B70" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>3</v>
@@ -8888,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>270</v>
@@ -8900,45 +9253,36 @@
       <c r="B71" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
     </row>
     <row r="73" spans="1:181">
       <c r="B73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="E73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="7" t="s">
+      <c r="I73" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="I73" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="2" t="s">
         <v>365</v>
       </c>
       <c r="M73" s="2" t="s">
@@ -8963,10 +9307,10 @@
         <v>383</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>2</v>
@@ -8984,10 +9328,10 @@
         <v>365</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AC73" s="2" t="s">
         <v>384</v>
@@ -9023,13 +9367,13 @@
         <v>5</v>
       </c>
       <c r="AN73" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AO73" s="2" t="s">
         <v>385</v>
       </c>
       <c r="AP73" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AQ73" s="2" t="s">
         <v>5</v>
@@ -9083,10 +9427,10 @@
       <c r="CB73" s="2"/>
       <c r="CC73" s="2"/>
       <c r="CD73" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="CE73" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="CF73" s="2"/>
       <c r="CG73" s="2" t="s">
@@ -9096,7 +9440,7 @@
         <v>209</v>
       </c>
       <c r="CI73" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="CJ73" s="2" t="s">
         <v>2</v>
@@ -9154,7 +9498,7 @@
       </c>
       <c r="DO73" s="2"/>
       <c r="DP73" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="DQ73" s="2" t="s">
         <v>18</v>
@@ -9178,7 +9522,7 @@
         <v>361</v>
       </c>
       <c r="DX73" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="DY73" s="2"/>
       <c r="DZ73" s="2" t="s">
@@ -9189,15 +9533,15 @@
       </c>
       <c r="EB73" s="2"/>
       <c r="EC73" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="ED73" s="2"/>
       <c r="EE73" s="2"/>
       <c r="EF73" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="EG73" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="EH73" s="2"/>
       <c r="EI73" s="2"/>
@@ -9243,7 +9587,7 @@
         <v>5</v>
       </c>
       <c r="FA73" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="FB73" s="2" t="s">
         <v>385</v>
@@ -9286,85 +9630,85 @@
       <c r="B74" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="E74" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:181">
       <c r="B75" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="E75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:181">
       <c r="B76" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="E76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
     </row>
     <row r="78" spans="1:181">
       <c r="A78" s="1" t="s">

--- a/terminal-api/files/db_sample1.xlsx
+++ b/terminal-api/files/db_sample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26717DC-ABA5-4699-87FE-2446EF6B7BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6156B-0B79-48F8-9291-50A5FF26ECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC1BA222-C622-4F57-B60B-B1E00C794D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -2400,9 +2400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117EBE5E-74F7-42AB-A478-70FD4BF79FAC}">
   <dimension ref="A2:FY90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
